--- a/data/location-data.xlsx
+++ b/data/location-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\EigenMappen\greenTravelMap\greentu-travelmap\project-root\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\EigenMappen\greenTravelMap\greentu-travelmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9B09D-C866-42E5-A2F9-0F1ED83067C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7998DC2-E00B-47D1-BF4D-98F0C1BDFE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="5" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="145">
   <si>
     <t>London</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Delft (departure location)</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
   </si>
 </sst>
 </file>
@@ -1107,11 +1119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254D566-3C65-4661-BAE0-38210166E19C}">
-  <dimension ref="A1:BS1167"/>
+  <dimension ref="A1:BS1169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J93" sqref="J93"/>
+      <selection pane="topRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,127 +1380,104 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.22777777777777775</v>
-      </c>
       <c r="D4">
-        <v>127.8</v>
+        <v>0</v>
       </c>
       <c r="F4" s="15">
-        <v>0.18055555555555555</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>0.4604166666666667</v>
+        <v>0</v>
       </c>
       <c r="J4" s="13">
-        <v>14.222000000000001</v>
+        <v>0</v>
       </c>
       <c r="L4" s="22">
-        <v>51.507199999999997</v>
+        <v>52.011576900000001</v>
       </c>
       <c r="M4" s="22">
-        <v>-0.1275</v>
+        <v>4.3570677</v>
       </c>
       <c r="O4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21944444444444444</v>
-      </c>
-      <c r="D5">
-        <v>118.1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.34236111111111112</v>
-      </c>
-      <c r="G5">
-        <v>28.8</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.76944444444444438</v>
-      </c>
-      <c r="J5" s="13">
-        <v>21.84</v>
-      </c>
-      <c r="L5" s="22">
-        <v>53.480759300000003</v>
-      </c>
-      <c r="M5" s="23">
-        <v>-2.2426305000000002</v>
-      </c>
-      <c r="O5" t="s">
-        <v>129</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5"/>
+      <c r="F5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="D6">
-        <v>108.39999999999999</v>
+        <v>127.8</v>
       </c>
       <c r="F6" s="15">
-        <v>0.27430555555555552</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="G6">
-        <v>21.7</v>
+        <v>13.2</v>
       </c>
       <c r="I6" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="J6" s="13">
-        <v>18.382000000000001</v>
+        <v>14.222000000000001</v>
       </c>
       <c r="L6" s="22">
-        <v>52.479699199999999</v>
+        <v>51.507199999999997</v>
       </c>
       <c r="M6" s="22">
-        <v>-1.9026911</v>
+        <v>-0.1275</v>
       </c>
       <c r="O6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D7">
-        <v>125.6</v>
+        <v>118.1</v>
       </c>
       <c r="F7" s="15">
-        <v>0.42222222222222222</v>
+        <v>0.34236111111111112</v>
       </c>
       <c r="G7">
-        <v>51.9</v>
+        <v>28.8</v>
       </c>
       <c r="I7" s="15">
-        <v>0.95347222222222228</v>
+        <v>0.76944444444444438</v>
       </c>
       <c r="J7" s="13">
-        <v>29.380000000000003</v>
+        <v>21.84</v>
       </c>
       <c r="L7" s="22">
-        <v>55.953345599999999</v>
-      </c>
-      <c r="M7" s="22">
-        <v>-3.1883748999999999</v>
+        <v>53.480759300000003</v>
+      </c>
+      <c r="M7" s="23">
+        <v>-2.2426305000000002</v>
       </c>
       <c r="O7" t="s">
         <v>129</v>
@@ -1496,31 +1485,31 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23888888888888887</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="D8">
-        <v>134.60000000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="F8" s="15">
-        <v>0.43958333333333338</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="G8">
-        <v>54.9</v>
+        <v>21.7</v>
       </c>
       <c r="I8" s="15">
-        <v>0.94652777777777775</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J8" s="13">
-        <v>30.342000000000002</v>
+        <v>18.382000000000001</v>
       </c>
       <c r="L8" s="22">
-        <v>55.860982</v>
-      </c>
-      <c r="M8" s="23">
-        <v>-4.2488786999999997</v>
+        <v>52.479699199999999</v>
+      </c>
+      <c r="M8" s="22">
+        <v>-1.9026911</v>
       </c>
       <c r="O8" t="s">
         <v>129</v>
@@ -1528,54 +1517,63 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22638888888888886</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D9">
-        <v>115.2</v>
+        <v>125.6</v>
       </c>
       <c r="F9" s="15">
-        <v>0.33263888888888887</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="G9">
-        <v>23.7</v>
+        <v>51.9</v>
       </c>
       <c r="I9" s="15">
-        <v>0.6513888888888888</v>
+        <v>0.95347222222222228</v>
       </c>
       <c r="J9" s="13">
-        <v>17.68</v>
+        <v>29.380000000000003</v>
       </c>
       <c r="L9" s="22">
-        <v>51.453600000000002</v>
+        <v>55.953345599999999</v>
       </c>
       <c r="M9" s="22">
-        <v>-2.5975000000000001</v>
+        <v>-3.1883748999999999</v>
       </c>
       <c r="O9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>0.24236111111111108</v>
+        <v>0.23888888888888887</v>
       </c>
       <c r="D10">
-        <v>115.3</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="23">
-        <v>53.3498053</v>
+        <v>134.60000000000002</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="G10">
+        <v>54.9</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="J10" s="13">
+        <v>30.342000000000002</v>
+      </c>
+      <c r="L10" s="22">
+        <v>55.860982</v>
       </c>
       <c r="M10" s="23">
-        <v>-6.2603096999999996</v>
+        <v>-4.2488786999999997</v>
       </c>
       <c r="O10" t="s">
         <v>129</v>
@@ -1583,159 +1581,150 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.22847222222222224</v>
+        <v>0.22638888888888886</v>
       </c>
       <c r="D11">
-        <v>117.3</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
-      <c r="L11" s="23">
-        <v>54.597284999999999</v>
+        <v>115.2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="G11">
+        <v>23.7</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.6513888888888888</v>
+      </c>
+      <c r="J11" s="13">
+        <v>17.68</v>
+      </c>
+      <c r="L11" s="22">
+        <v>51.453600000000002</v>
       </c>
       <c r="M11" s="22">
-        <v>-5.9301199999999996</v>
+        <v>-2.5975000000000001</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12"/>
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.24236111111111108</v>
+      </c>
+      <c r="D12">
+        <v>115.3</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="13"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="23">
+        <v>53.3498053</v>
+      </c>
+      <c r="M12" s="23">
+        <v>-6.2603096999999996</v>
+      </c>
+      <c r="O12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.22847222222222224</v>
       </c>
       <c r="D13">
-        <v>102</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.12152777777777778</v>
-      </c>
-      <c r="G13">
-        <v>7.3</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0.30694444444444446</v>
-      </c>
-      <c r="J13" s="13">
-        <v>12.298000000000002</v>
-      </c>
-      <c r="L13" s="22">
-        <v>48.856699999999996</v>
+        <v>117.3</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13"/>
+      <c r="L13" s="23">
+        <v>54.597284999999999</v>
       </c>
       <c r="M13" s="22">
-        <v>2.3521999999999998</v>
+        <v>-5.9301199999999996</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="D14">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.21111111111111111</v>
-      </c>
-      <c r="G14">
-        <v>9.4</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0.30763888888888891</v>
-      </c>
-      <c r="J14" s="13">
-        <v>12.896000000000001</v>
-      </c>
-      <c r="L14" s="23">
-        <v>48.693722299999997</v>
-      </c>
-      <c r="M14" s="23">
-        <v>6.1834097000000003</v>
-      </c>
-      <c r="O14" t="s">
-        <v>129</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14"/>
+      <c r="F14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>0.24791666666666662</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D15">
-        <v>138.10000000000002</v>
+        <v>102</v>
       </c>
       <c r="F15" s="15">
-        <v>0.22222222222222221</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="G15">
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
       <c r="I15" s="15">
-        <v>0.5576388888888888</v>
+        <v>0.30694444444444446</v>
       </c>
       <c r="J15" s="13">
-        <v>23.088000000000001</v>
-      </c>
-      <c r="L15" s="23">
-        <v>45.764043000000001</v>
+        <v>12.298000000000002</v>
+      </c>
+      <c r="L15" s="22">
+        <v>48.856699999999996</v>
       </c>
       <c r="M15" s="22">
-        <v>4.8356589999999997</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="O15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="D16">
-        <v>58.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="F16" s="15">
-        <v>0.26319444444444445</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="G16">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="I16" s="15">
-        <v>0.6166666666666667</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="J16" s="13">
-        <v>22.022000000000002</v>
+        <v>12.896000000000001</v>
       </c>
       <c r="L16" s="23">
-        <v>47.218370999999998</v>
-      </c>
-      <c r="M16" s="22">
-        <v>-1.5536209999999999</v>
+        <v>48.693722299999997</v>
+      </c>
+      <c r="M16" s="23">
+        <v>6.1834097000000003</v>
       </c>
       <c r="O16" t="s">
         <v>129</v>
@@ -1743,31 +1732,31 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>0.30208333333333331</v>
+        <v>0.24791666666666662</v>
       </c>
       <c r="D17">
-        <v>147.10000000000002</v>
+        <v>138.10000000000002</v>
       </c>
       <c r="F17" s="15">
-        <v>0.29166666666666669</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G17">
-        <v>10.7</v>
+        <v>9.9</v>
       </c>
       <c r="I17" s="15">
-        <v>0.69305555555555554</v>
+        <v>0.5576388888888888</v>
       </c>
       <c r="J17" s="13">
-        <v>25.922000000000001</v>
+        <v>23.088000000000001</v>
       </c>
       <c r="L17" s="23">
-        <v>45.171546999999997</v>
-      </c>
-      <c r="M17" s="23">
-        <v>5.7223870000000003</v>
+        <v>45.764043000000001</v>
+      </c>
+      <c r="M17" s="22">
+        <v>4.8356589999999997</v>
       </c>
       <c r="O17" t="s">
         <v>129</v>
@@ -1775,31 +1764,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2631944444444444</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D18">
-        <v>168</v>
+        <v>58.8</v>
       </c>
       <c r="F18" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I18" s="15">
-        <v>0.84236111111111112</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="J18" s="13">
-        <v>31.200000000000003</v>
+        <v>22.022000000000002</v>
       </c>
       <c r="L18" s="23">
-        <v>43.296481999999997</v>
-      </c>
-      <c r="M18" s="23">
-        <v>5.3697800000000004</v>
+        <v>47.218370999999998</v>
+      </c>
+      <c r="M18" s="22">
+        <v>-1.5536209999999999</v>
       </c>
       <c r="O18" t="s">
         <v>129</v>
@@ -1807,31 +1796,31 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="D19">
-        <v>164.60000000000002</v>
+        <v>147.10000000000002</v>
       </c>
       <c r="F19" s="15">
-        <v>0.4284722222222222</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G19">
-        <v>14.3</v>
+        <v>10.7</v>
       </c>
       <c r="I19" s="15">
-        <v>0.97777777777777775</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="J19" s="13">
-        <v>35.073999999999998</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="L19" s="23">
-        <v>43.700935800000003</v>
+        <v>45.171546999999997</v>
       </c>
       <c r="M19" s="23">
-        <v>7.2683911999999999</v>
+        <v>5.7223870000000003</v>
       </c>
       <c r="O19" t="s">
         <v>129</v>
@@ -1839,31 +1828,31 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>0.25069444444444444</v>
+        <v>0.2631944444444444</v>
       </c>
       <c r="D20">
-        <v>167.8</v>
+        <v>168</v>
       </c>
       <c r="F20" s="15">
-        <v>0.37222222222222223</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G20">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="I20" s="15">
-        <v>0.82499999999999996</v>
+        <v>0.84236111111111112</v>
       </c>
       <c r="J20" s="13">
-        <v>29.874000000000002</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="L20" s="23">
-        <v>43.604652000000002</v>
+        <v>43.296481999999997</v>
       </c>
       <c r="M20" s="23">
-        <v>1.4442090000000001</v>
+        <v>5.3697800000000004</v>
       </c>
       <c r="O20" t="s">
         <v>129</v>
@@ -1871,63 +1860,63 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D21">
-        <v>156.9</v>
+        <v>164.60000000000002</v>
       </c>
       <c r="F21" s="15">
-        <v>0.26874999999999999</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G21">
-        <v>11.4</v>
+        <v>14.3</v>
       </c>
       <c r="I21" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="J21" s="13">
-        <v>27.481999999999999</v>
+        <v>35.073999999999998</v>
       </c>
       <c r="L21" s="23">
-        <v>44.837789000000001</v>
+        <v>43.700935800000003</v>
       </c>
       <c r="M21" s="23">
-        <v>-0.57918000000000003</v>
+        <v>7.2683911999999999</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
-        <v>0.25972222222222219</v>
+        <v>0.25069444444444444</v>
       </c>
       <c r="D22">
-        <v>100.8</v>
+        <v>167.8</v>
       </c>
       <c r="F22" s="15">
-        <v>0.13263888888888889</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>13.1</v>
       </c>
       <c r="I22" s="15">
-        <v>0.15138888888888888</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="J22" s="13">
-        <v>6.604000000000001</v>
+        <v>29.874000000000002</v>
       </c>
       <c r="L22" s="23">
-        <v>50.629249999999999</v>
+        <v>43.604652000000002</v>
       </c>
       <c r="M22" s="23">
-        <v>3.0572560000000002</v>
+        <v>1.4442090000000001</v>
       </c>
       <c r="O22" t="s">
         <v>129</v>
@@ -1935,186 +1924,195 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>0.22013888888888888</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D23">
-        <v>115.1</v>
+        <v>156.9</v>
       </c>
       <c r="F23" s="15">
-        <v>0.29375000000000001</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="G23">
-        <v>25.1</v>
+        <v>11.4</v>
       </c>
       <c r="I23" s="15">
-        <v>0.47430555555555554</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J23" s="13">
-        <v>15.704000000000002</v>
+        <v>27.481999999999999</v>
       </c>
       <c r="L23" s="23">
-        <v>48.584614000000002</v>
+        <v>44.837789000000001</v>
       </c>
       <c r="M23" s="23">
-        <v>7.7507127000000002</v>
+        <v>-0.57918000000000003</v>
       </c>
       <c r="O23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.25972222222222219</v>
+      </c>
+      <c r="D24">
+        <v>100.8</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="J24" s="13">
+        <v>6.604000000000001</v>
+      </c>
+      <c r="L24" s="23">
+        <v>50.629249999999999</v>
+      </c>
+      <c r="M24" s="23">
+        <v>3.0572560000000002</v>
+      </c>
+      <c r="O24" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24"/>
-      <c r="F24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="13"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
-        <v>0.25277777777777777</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D25">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="F25" s="15"/>
+        <v>115.1</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="G25">
+        <v>25.1</v>
+      </c>
       <c r="I25" s="15">
-        <v>0.91874999999999996</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="J25" s="13">
-        <v>36.088000000000001</v>
+        <v>15.704000000000002</v>
       </c>
       <c r="L25" s="23">
-        <v>43.263012600000003</v>
+        <v>48.584614000000002</v>
       </c>
       <c r="M25" s="23">
-        <v>-2.9349851999999998</v>
+        <v>7.7507127000000002</v>
       </c>
       <c r="O25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.26111111111111107</v>
-      </c>
-      <c r="D26">
-        <v>119.7</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.4909722222222222</v>
-      </c>
-      <c r="G26">
-        <v>18.8</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1.0506944444444446</v>
-      </c>
-      <c r="J26" s="13">
-        <v>39.103999999999999</v>
-      </c>
-      <c r="L26" s="23">
-        <v>41.382893899999999</v>
-      </c>
-      <c r="M26" s="23">
-        <v>2.1774322000000002</v>
-      </c>
-      <c r="O26" t="s">
-        <v>128</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="F26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="13"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="D27">
-        <v>175.8</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.61041666666666661</v>
-      </c>
-      <c r="G27">
-        <v>29.5</v>
-      </c>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="F27" s="15"/>
       <c r="I27" s="15">
-        <v>1.2416666666666667</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="J27" s="13">
-        <v>51.854000000000006</v>
+        <v>36.088000000000001</v>
       </c>
       <c r="L27" s="23">
-        <v>39.469907499999998</v>
+        <v>43.263012600000003</v>
       </c>
       <c r="M27" s="23">
-        <v>-0.37628810000000001</v>
+        <v>-2.9349851999999998</v>
       </c>
       <c r="O27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="F28" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.26111111111111107</v>
+      </c>
+      <c r="D28">
+        <v>119.7</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="G28">
+        <v>18.8</v>
+      </c>
       <c r="I28" s="15">
-        <v>1.5645833333333334</v>
+        <v>1.0506944444444446</v>
       </c>
       <c r="J28" s="13">
-        <v>49.176000000000002</v>
-      </c>
-      <c r="L28" s="24">
-        <v>40.961613</v>
-      </c>
-      <c r="M28" s="24">
-        <v>-5.6676070000000003</v>
+        <v>39.103999999999999</v>
+      </c>
+      <c r="L28" s="23">
+        <v>41.382893899999999</v>
+      </c>
+      <c r="M28" s="23">
+        <v>2.1774322000000002</v>
       </c>
       <c r="O28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>0.2631944444444444</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D29">
-        <v>174.3</v>
+        <v>175.8</v>
       </c>
       <c r="F29" s="15">
-        <v>0.62430555555555556</v>
+        <v>0.61041666666666661</v>
       </c>
       <c r="G29">
-        <v>36.200000000000003</v>
+        <v>29.5</v>
       </c>
       <c r="I29" s="15">
-        <v>1.1375</v>
+        <v>1.2416666666666667</v>
       </c>
       <c r="J29" s="13">
-        <v>45.344000000000001</v>
+        <v>51.854000000000006</v>
       </c>
       <c r="L29" s="23">
-        <v>40.416704699999997</v>
+        <v>39.469907499999998</v>
       </c>
       <c r="M29" s="23">
-        <v>-3.7035825</v>
+        <v>-0.37628810000000001</v>
       </c>
       <c r="O29" t="s">
         <v>128</v>
@@ -2122,26 +2120,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.30486111111111108</v>
-      </c>
-      <c r="D30">
-        <v>181.8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30"/>
       <c r="F30" s="15"/>
       <c r="I30" s="15">
-        <v>1.4465277777777779</v>
+        <v>1.5645833333333334</v>
       </c>
       <c r="J30" s="13">
-        <v>53.404000000000003</v>
-      </c>
-      <c r="L30" s="23">
-        <v>41.157943799999998</v>
-      </c>
-      <c r="M30" s="23">
-        <v>-8.6291053000000009</v>
+        <v>49.176000000000002</v>
+      </c>
+      <c r="L30" s="24">
+        <v>40.961613</v>
+      </c>
+      <c r="M30" s="24">
+        <v>-5.6676070000000003</v>
       </c>
       <c r="O30" t="s">
         <v>129</v>
@@ -2149,127 +2143,126 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.2631944444444444</v>
       </c>
       <c r="D31">
-        <v>193.3</v>
-      </c>
-      <c r="F31" s="15"/>
+        <v>174.3</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="G31">
+        <v>36.200000000000003</v>
+      </c>
       <c r="I31" s="15">
-        <v>1.3979166666666669</v>
+        <v>1.1375</v>
       </c>
       <c r="J31" s="13">
-        <v>57.382000000000005</v>
-      </c>
-      <c r="L31" s="22">
-        <v>38.725299999999997</v>
-      </c>
-      <c r="M31" s="22">
-        <v>-9.15</v>
+        <v>45.344000000000001</v>
+      </c>
+      <c r="L31" s="23">
+        <v>40.416704699999997</v>
+      </c>
+      <c r="M31" s="23">
+        <v>-3.7035825</v>
       </c>
       <c r="O31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32"/>
+      <c r="A32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="D32">
+        <v>181.8</v>
+      </c>
       <c r="F32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="13"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="I32" s="15">
+        <v>1.4465277777777779</v>
+      </c>
+      <c r="J32" s="13">
+        <v>53.404000000000003</v>
+      </c>
+      <c r="L32" s="23">
+        <v>41.157943799999998</v>
+      </c>
+      <c r="M32" s="23">
+        <v>-8.6291053000000009</v>
+      </c>
+      <c r="O32" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1">
-        <v>0.2326388888888889</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D33">
-        <v>91.5</v>
-      </c>
-      <c r="F33" s="15">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="G33">
-        <v>3.2</v>
-      </c>
+        <v>193.3</v>
+      </c>
+      <c r="F33" s="15"/>
       <c r="I33" s="15">
-        <v>6.4583333333333326E-2</v>
+        <v>1.3979166666666669</v>
       </c>
       <c r="J33" s="13">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="L33" s="23">
-        <v>51.219447500000001</v>
-      </c>
-      <c r="M33" s="23">
-        <v>4.4024643000000001</v>
+        <v>57.382000000000005</v>
+      </c>
+      <c r="L33" s="22">
+        <v>38.725299999999997</v>
+      </c>
+      <c r="M33" s="22">
+        <v>-9.15</v>
       </c>
       <c r="O33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.21458333333333335</v>
-      </c>
-      <c r="D34">
-        <v>88.6</v>
-      </c>
-      <c r="F34" s="15">
-        <v>7.8472222222222221E-2</v>
-      </c>
-      <c r="G34">
-        <v>4.5</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34"/>
+      <c r="F34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="13"/>
-      <c r="L34" s="23">
-        <v>50.879843800000003</v>
-      </c>
-      <c r="M34" s="23">
-        <v>4.7005176000000004</v>
-      </c>
-      <c r="O34" t="s">
-        <v>129</v>
-      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>0.21180555555555558</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="D35">
-        <v>88.1</v>
+        <v>91.5</v>
       </c>
       <c r="F35" s="15">
-        <v>6.7361111111111108E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="G35">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I35" s="15">
-        <v>9.930555555555555E-2</v>
+        <v>6.4583333333333326E-2</v>
       </c>
       <c r="J35" s="13">
-        <v>4.7060000000000004</v>
+        <v>3.4319999999999999</v>
       </c>
       <c r="L35" s="23">
-        <v>50.846557300000001</v>
+        <v>51.219447500000001</v>
       </c>
       <c r="M35" s="23">
-        <v>4.3516969999999997</v>
+        <v>4.4024643000000001</v>
       </c>
       <c r="O35" t="s">
         <v>129</v>
@@ -2277,31 +2270,27 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1">
-        <v>0.25138888888888888</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="D36">
-        <v>94.7</v>
+        <v>88.6</v>
       </c>
       <c r="F36" s="15">
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="G36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I36" s="15">
-        <v>0.10277777777777777</v>
-      </c>
-      <c r="J36" s="13">
-        <v>4.9400000000000004</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="13"/>
       <c r="L36" s="23">
-        <v>51.053581000000001</v>
+        <v>50.879843800000003</v>
       </c>
       <c r="M36" s="23">
-        <v>3.722969</v>
+        <v>4.7005176000000004</v>
       </c>
       <c r="O36" t="s">
         <v>129</v>
@@ -2309,168 +2298,168 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
-        <v>0.21944444444444444</v>
+        <v>0.21180555555555558</v>
       </c>
       <c r="D37">
-        <v>120.1</v>
+        <v>88.1</v>
       </c>
       <c r="F37" s="15">
-        <v>0.21458333333333335</v>
+        <v>6.7361111111111108E-2</v>
       </c>
       <c r="G37">
-        <v>9.6999999999999993</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I37" s="15">
-        <v>0.24166666666666664</v>
+        <v>9.930555555555555E-2</v>
       </c>
       <c r="J37" s="13">
-        <v>9.8020000000000014</v>
+        <v>4.7060000000000004</v>
       </c>
       <c r="L37" s="23">
-        <v>49.815272999999998</v>
+        <v>50.846557300000001</v>
       </c>
       <c r="M37" s="23">
-        <v>6.1295830000000002</v>
+        <v>4.3516969999999997</v>
       </c>
       <c r="O37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-      <c r="D38"/>
-      <c r="F38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="13"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="A38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="D38">
+        <v>94.7</v>
+      </c>
+      <c r="F38" s="15">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="J38" s="13">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="L38" s="23">
+        <v>51.053581000000001</v>
+      </c>
+      <c r="M38" s="23">
+        <v>3.722969</v>
+      </c>
+      <c r="O38" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1">
-        <v>0.22013888888888888</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D39">
-        <v>115.89999999999999</v>
+        <v>120.1</v>
       </c>
       <c r="F39" s="15">
-        <v>0.14375000000000002</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="G39">
-        <v>12.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I39" s="15">
-        <v>0.20347222222222222</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="J39" s="13">
-        <v>7.8260000000000014</v>
+        <v>9.8020000000000014</v>
       </c>
       <c r="L39" s="23">
-        <v>50.937531</v>
+        <v>49.815272999999998</v>
       </c>
       <c r="M39" s="23">
-        <v>6.9602785999999996</v>
+        <v>6.1295830000000002</v>
       </c>
       <c r="O39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.20763888888888887</v>
-      </c>
-      <c r="D40">
-        <v>95.6</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0.13055555555555556</v>
-      </c>
-      <c r="G40">
-        <v>11.3</v>
-      </c>
-      <c r="I40" s="15">
-        <v>0.19652777777777777</v>
-      </c>
-      <c r="J40" s="13">
-        <v>6.5780000000000012</v>
-      </c>
-      <c r="L40" s="23">
-        <v>51.227741100000003</v>
-      </c>
-      <c r="M40" s="23">
-        <v>6.7734556000000001</v>
-      </c>
-      <c r="O40" t="s">
-        <v>129</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40"/>
+      <c r="F40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="13"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1">
-        <v>0.21250000000000002</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D41">
-        <v>109.5</v>
+        <v>115.89999999999999</v>
       </c>
       <c r="F41" s="15">
-        <v>0.21180555555555555</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="G41">
-        <v>15.8</v>
+        <v>12.8</v>
       </c>
       <c r="I41" s="15">
-        <v>0.29375000000000001</v>
+        <v>0.20347222222222222</v>
       </c>
       <c r="J41" s="13">
-        <v>10.790000000000001</v>
+        <v>7.8260000000000014</v>
       </c>
       <c r="L41" s="23">
-        <v>53.079296200000002</v>
+        <v>50.937531</v>
       </c>
       <c r="M41" s="23">
-        <v>8.8016936999999995</v>
+        <v>6.9602785999999996</v>
       </c>
       <c r="O41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
-        <v>0.21250000000000002</v>
+        <v>0.20763888888888887</v>
       </c>
       <c r="D42">
-        <v>135.10000000000002</v>
+        <v>95.6</v>
       </c>
       <c r="F42" s="15">
-        <v>0.19930555555555554</v>
+        <v>0.13055555555555556</v>
       </c>
       <c r="G42">
-        <v>19.3</v>
+        <v>11.3</v>
       </c>
       <c r="I42" s="15">
-        <v>0.3527777777777778</v>
+        <v>0.19652777777777777</v>
       </c>
       <c r="J42" s="13">
-        <v>12.454000000000001</v>
+        <v>6.5780000000000012</v>
       </c>
       <c r="L42" s="23">
-        <v>50.110922100000003</v>
+        <v>51.227741100000003</v>
       </c>
       <c r="M42" s="23">
-        <v>8.6821266999999995</v>
+        <v>6.7734556000000001</v>
       </c>
       <c r="O42" t="s">
         <v>129</v>
@@ -2478,31 +2467,31 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
-        <v>0.21875</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D43">
-        <v>126.89999999999999</v>
+        <v>109.5</v>
       </c>
       <c r="F43" s="15">
-        <v>0.20208333333333331</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>15.8</v>
       </c>
       <c r="I43" s="15">
-        <v>0.28333333333333333</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="J43" s="13">
-        <v>11.934000000000001</v>
+        <v>10.790000000000001</v>
       </c>
       <c r="L43" s="23">
-        <v>52.374477900000002</v>
+        <v>53.079296200000002</v>
       </c>
       <c r="M43" s="23">
-        <v>9.7385532000000001</v>
+        <v>8.8016936999999995</v>
       </c>
       <c r="O43" t="s">
         <v>129</v>
@@ -2510,63 +2499,63 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>0.21736111111111112</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D44">
-        <v>141.20000000000002</v>
+        <v>135.10000000000002</v>
       </c>
       <c r="F44" s="15">
-        <v>0.24374999999999999</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="G44">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="I44" s="15">
-        <v>0.31458333333333333</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="J44" s="13">
-        <v>13.650000000000002</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="L44" s="23">
-        <v>53.551084600000003</v>
+        <v>50.110922100000003</v>
       </c>
       <c r="M44" s="23">
-        <v>9.9936817999999992</v>
+        <v>8.6821266999999995</v>
       </c>
       <c r="O44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
         <v>0.21875</v>
       </c>
       <c r="D45">
-        <v>117.7</v>
+        <v>126.89999999999999</v>
       </c>
       <c r="F45" s="15">
-        <v>0.28958333333333336</v>
+        <v>0.20208333333333331</v>
       </c>
       <c r="G45">
-        <v>25.1</v>
+        <v>18</v>
       </c>
       <c r="I45" s="15">
-        <v>0.45694444444444449</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="J45" s="13">
-        <v>18.07</v>
+        <v>11.934000000000001</v>
       </c>
       <c r="L45" s="23">
-        <v>49.453871999999997</v>
+        <v>52.374477900000002</v>
       </c>
       <c r="M45" s="23">
-        <v>11.077298000000001</v>
+        <v>9.7385532000000001</v>
       </c>
       <c r="O45" t="s">
         <v>129</v>
@@ -2574,95 +2563,95 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
-        <v>0.22569444444444442</v>
+        <v>0.21736111111111112</v>
       </c>
       <c r="D46">
-        <v>124.39999999999999</v>
+        <v>141.20000000000002</v>
       </c>
       <c r="F46" s="15">
-        <v>0.25486111111111109</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="G46">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="I46" s="15">
-        <v>0.43611111111111112</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="J46" s="13">
-        <v>17.082000000000001</v>
+        <v>13.650000000000002</v>
       </c>
       <c r="L46" s="23">
-        <v>48.7758459</v>
+        <v>53.551084600000003</v>
       </c>
       <c r="M46" s="23">
-        <v>9.1829321000000004</v>
+        <v>9.9936817999999992</v>
       </c>
       <c r="O46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1">
-        <v>0.24861111111111106</v>
+        <v>0.21875</v>
       </c>
       <c r="D47">
-        <v>128.1</v>
+        <v>117.7</v>
       </c>
       <c r="F47" s="15">
-        <v>0.33749999999999997</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="G47">
-        <v>132.5</v>
+        <v>25.1</v>
       </c>
       <c r="I47" s="15">
-        <v>0.5576388888888888</v>
+        <v>0.45694444444444449</v>
       </c>
       <c r="J47" s="13">
-        <v>22.437999999999999</v>
+        <v>18.07</v>
       </c>
       <c r="L47" s="23">
-        <v>48.135125299999999</v>
+        <v>49.453871999999997</v>
       </c>
       <c r="M47" s="23">
-        <v>11.5819805</v>
+        <v>11.077298000000001</v>
       </c>
       <c r="O47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>0.34166666666666662</v>
+        <v>0.22569444444444442</v>
       </c>
       <c r="D48">
-        <v>211.8</v>
+        <v>124.39999999999999</v>
       </c>
       <c r="F48" s="15">
-        <v>0.38680555555555557</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="G48">
-        <v>37.299999999999997</v>
+        <v>19.5</v>
       </c>
       <c r="I48" s="15">
-        <v>0.51944444444444438</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="J48" s="13">
-        <v>20.878</v>
+        <v>17.082000000000001</v>
       </c>
       <c r="L48" s="23">
-        <v>51.0504088</v>
+        <v>48.7758459</v>
       </c>
       <c r="M48" s="23">
-        <v>13.737262100000001</v>
+        <v>9.1829321000000004</v>
       </c>
       <c r="O48" t="s">
         <v>129</v>
@@ -2670,31 +2659,31 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1">
-        <v>0.22152777777777777</v>
+        <v>0.24861111111111106</v>
       </c>
       <c r="D49">
-        <v>124.8</v>
+        <v>128.1</v>
       </c>
       <c r="F49" s="15">
-        <v>0.27291666666666664</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="G49">
-        <v>21.7</v>
+        <v>132.5</v>
       </c>
       <c r="I49" s="15">
-        <v>0.4777777777777778</v>
+        <v>0.5576388888888888</v>
       </c>
       <c r="J49" s="13">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="L49" s="22">
-        <v>52.52</v>
-      </c>
-      <c r="M49" s="22">
-        <v>13.404999999999999</v>
+        <v>22.437999999999999</v>
+      </c>
+      <c r="L49" s="23">
+        <v>48.135125299999999</v>
+      </c>
+      <c r="M49" s="23">
+        <v>11.5819805</v>
       </c>
       <c r="O49" t="s">
         <v>128</v>
@@ -2702,31 +2691,31 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1">
-        <v>0.34027777777777773</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="D50">
-        <v>233.9</v>
+        <v>211.8</v>
       </c>
       <c r="F50" s="15">
-        <v>0.37013888888888885</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="G50">
-        <v>30.4</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I50" s="15">
-        <v>0.4465277777777778</v>
+        <v>0.51944444444444438</v>
       </c>
       <c r="J50" s="13">
-        <v>18.044</v>
+        <v>20.878</v>
       </c>
       <c r="L50" s="23">
-        <v>51.340632100000001</v>
+        <v>51.0504088</v>
       </c>
       <c r="M50" s="23">
-        <v>12.3747329</v>
+        <v>13.737262100000001</v>
       </c>
       <c r="O50" t="s">
         <v>129</v>
@@ -2734,63 +2723,63 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="D51">
-        <v>95.1</v>
+        <v>124.8</v>
       </c>
       <c r="F51" s="15">
-        <v>0.13194444444444445</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="G51">
-        <v>10.8</v>
+        <v>21.7</v>
       </c>
       <c r="I51" s="15">
-        <v>0.15486111111111112</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="J51" s="13">
-        <v>6.4480000000000013</v>
-      </c>
-      <c r="L51" s="23">
-        <v>50.775554999999997</v>
-      </c>
-      <c r="M51" s="23">
-        <v>6.0836110000000003</v>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="L51" s="22">
+        <v>52.52</v>
+      </c>
+      <c r="M51" s="22">
+        <v>13.404999999999999</v>
       </c>
       <c r="O51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1">
-        <v>0.27013888888888887</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D52">
-        <v>124.2</v>
+        <v>233.9</v>
       </c>
       <c r="F52" s="15">
-        <v>0.19791666666666666</v>
+        <v>0.37013888888888885</v>
       </c>
       <c r="G52">
-        <v>16.5</v>
+        <v>30.4</v>
       </c>
       <c r="I52" s="15">
-        <v>0.27986111111111112</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="J52" s="13">
-        <v>9.8280000000000012</v>
+        <v>18.044</v>
       </c>
       <c r="L52" s="23">
-        <v>50.3569429</v>
+        <v>51.340632100000001</v>
       </c>
       <c r="M52" s="23">
-        <v>7.5889958999999996</v>
+        <v>12.3747329</v>
       </c>
       <c r="O52" t="s">
         <v>129</v>
@@ -2798,305 +2787,305 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1">
-        <v>0.3666666666666667</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D53">
-        <v>223</v>
+        <v>95.1</v>
       </c>
       <c r="F53" s="15">
-        <v>0.34513888888888888</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="G53">
-        <v>28.3</v>
+        <v>10.8</v>
       </c>
       <c r="I53" s="15">
-        <v>0.51597222222222217</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="J53" s="13">
-        <v>16.406000000000002</v>
+        <v>6.4480000000000013</v>
       </c>
       <c r="L53" s="23">
-        <v>50.927222999999998</v>
+        <v>50.775554999999997</v>
       </c>
       <c r="M53" s="23">
-        <v>11.586111000000001</v>
+        <v>6.0836110000000003</v>
       </c>
       <c r="O53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C54" s="1"/>
-      <c r="D54"/>
-      <c r="F54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="13"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
+      <c r="A54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="D54">
+        <v>124.2</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="G54">
+        <v>16.5</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="J54" s="13">
+        <v>9.8280000000000012</v>
+      </c>
+      <c r="L54" s="23">
+        <v>50.3569429</v>
+      </c>
+      <c r="M54" s="23">
+        <v>7.5889958999999996</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
-        <v>0.23125000000000001</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="D55">
-        <v>130.30000000000001</v>
+        <v>223</v>
       </c>
       <c r="F55" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="G55">
-        <v>21.8</v>
+        <v>28.3</v>
       </c>
       <c r="I55" s="15">
-        <v>0.63749999999999996</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="J55" s="13">
-        <v>20.67</v>
+        <v>16.406000000000002</v>
       </c>
       <c r="L55" s="23">
-        <v>47.374448899999997</v>
+        <v>50.927222999999998</v>
       </c>
       <c r="M55" s="23">
-        <v>8.5410421999999997</v>
+        <v>11.586111000000001</v>
       </c>
       <c r="O55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.22638888888888886</v>
-      </c>
-      <c r="D56">
-        <v>121.5</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0.30833333333333335</v>
-      </c>
-      <c r="G56">
-        <v>25.1</v>
-      </c>
-      <c r="I56" s="15">
-        <v>0.5541666666666667</v>
-      </c>
-      <c r="J56" s="13">
-        <v>18.46</v>
-      </c>
-      <c r="L56" s="23">
-        <v>47.559598600000001</v>
-      </c>
-      <c r="M56" s="23">
-        <v>7.5885761</v>
-      </c>
-      <c r="O56" t="s">
-        <v>129</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56"/>
+      <c r="F56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="13"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1">
-        <v>0.34027777777777773</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="D57">
-        <v>204.10000000000002</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="F57" s="15">
-        <v>0.34930555555555554</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G57">
         <v>21.8</v>
       </c>
       <c r="I57" s="15">
-        <v>0.6513888888888888</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="J57" s="13">
-        <v>21.501999999999999</v>
-      </c>
-      <c r="L57" s="22">
-        <v>46.948099999999997</v>
-      </c>
-      <c r="M57" s="22">
-        <v>7.4474999999999998</v>
+        <v>20.67</v>
+      </c>
+      <c r="L57" s="23">
+        <v>47.374448899999997</v>
+      </c>
+      <c r="M57" s="23">
+        <v>8.5410421999999997</v>
       </c>
       <c r="O57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1">
-        <v>0.2722222222222222</v>
+        <v>0.22638888888888886</v>
       </c>
       <c r="D58">
-        <v>134.5</v>
+        <v>121.5</v>
       </c>
       <c r="F58" s="15">
-        <v>0.40277777777777773</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="G58">
-        <v>21.9</v>
+        <v>25.1</v>
       </c>
       <c r="I58" s="15">
-        <v>0.71041666666666659</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="J58" s="13">
-        <v>21.164000000000001</v>
+        <v>18.46</v>
       </c>
       <c r="L58" s="23">
-        <v>46.519962</v>
+        <v>47.559598600000001</v>
       </c>
       <c r="M58" s="23">
-        <v>6.633597</v>
+        <v>7.5885761</v>
       </c>
       <c r="O58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C59" s="1"/>
-      <c r="D59"/>
-      <c r="F59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="13"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
+      <c r="A59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D59">
+        <v>204.10000000000002</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="G59">
+        <v>21.8</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0.6513888888888888</v>
+      </c>
+      <c r="J59" s="13">
+        <v>21.501999999999999</v>
+      </c>
+      <c r="L59" s="22">
+        <v>46.948099999999997</v>
+      </c>
+      <c r="M59" s="22">
+        <v>7.4474999999999998</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
-        <v>0.23194444444444445</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="D60">
-        <v>136.20000000000002</v>
+        <v>134.5</v>
       </c>
       <c r="F60" s="15">
-        <v>0.4284722222222222</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="G60">
-        <v>34.1</v>
+        <v>21.9</v>
       </c>
       <c r="I60" s="15">
-        <v>0.72083333333333321</v>
+        <v>0.71041666666666659</v>
       </c>
       <c r="J60" s="13">
-        <v>25.193999999999999</v>
+        <v>21.164000000000001</v>
       </c>
       <c r="L60" s="23">
-        <v>47.269212400000001</v>
+        <v>46.519962</v>
       </c>
       <c r="M60" s="23">
-        <v>11.404102399999999</v>
+        <v>6.633597</v>
       </c>
       <c r="O60" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="D61">
-        <v>219.9</v>
-      </c>
-      <c r="F61" s="15">
-        <v>0.4152777777777778</v>
-      </c>
-      <c r="G61">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="I61" s="15">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="J61" s="13">
-        <v>26.26</v>
-      </c>
-      <c r="L61" s="24">
-        <v>47.809489999999997</v>
-      </c>
-      <c r="M61" s="24">
-        <v>13.055009999999999</v>
-      </c>
-      <c r="O61" t="s">
-        <v>129</v>
-      </c>
+      <c r="C61" s="1"/>
+      <c r="D61"/>
+      <c r="F61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="13"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C62" s="1">
-        <v>0.36388888888888887</v>
+        <v>0.23194444444444445</v>
       </c>
       <c r="D62">
-        <v>239</v>
+        <v>136.20000000000002</v>
       </c>
       <c r="F62" s="15">
-        <v>0.59236111111111112</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G62">
-        <v>39.9</v>
+        <v>34.1</v>
       </c>
       <c r="I62" s="15">
-        <v>0.83194444444444438</v>
+        <v>0.72083333333333321</v>
       </c>
       <c r="J62" s="13">
-        <v>30.784000000000002</v>
-      </c>
-      <c r="L62" s="24">
-        <v>47.076667999999998</v>
-      </c>
-      <c r="M62" s="24">
-        <v>15.421371000000001</v>
+        <v>25.193999999999999</v>
+      </c>
+      <c r="L62" s="23">
+        <v>47.269212400000001</v>
+      </c>
+      <c r="M62" s="23">
+        <v>11.404102399999999</v>
       </c>
       <c r="O62" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1">
-        <v>0.25902777777777775</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="D63">
-        <v>163.5</v>
+        <v>219.9</v>
       </c>
       <c r="F63" s="15">
-        <v>0.48541666666666666</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="G63">
-        <v>35.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="I63" s="15">
-        <v>0.83888888888888891</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="J63" s="13">
-        <v>30.836000000000002</v>
-      </c>
-      <c r="L63" s="23">
-        <v>48.208353700000004</v>
-      </c>
-      <c r="M63" s="23">
-        <v>16.372504200000002</v>
+        <v>26.26</v>
+      </c>
+      <c r="L63" s="24">
+        <v>47.809489999999997</v>
+      </c>
+      <c r="M63" s="24">
+        <v>13.055009999999999</v>
       </c>
       <c r="O63" t="s">
         <v>129</v>
@@ -3104,136 +3093,136 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1">
-        <v>0.34791666666666665</v>
+        <v>0.36388888888888887</v>
       </c>
       <c r="D64">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F64" s="15">
-        <v>0.43958333333333338</v>
+        <v>0.59236111111111112</v>
       </c>
       <c r="G64">
-        <v>32.700000000000003</v>
+        <v>39.9</v>
       </c>
       <c r="I64" s="15">
-        <v>0.89097222222222228</v>
+        <v>0.83194444444444438</v>
       </c>
       <c r="J64" s="13">
-        <v>26.598000000000003</v>
-      </c>
-      <c r="L64" s="23">
-        <v>48.3059078</v>
-      </c>
-      <c r="M64" s="23">
-        <v>14.286198000000001</v>
+        <v>30.784000000000002</v>
+      </c>
+      <c r="L64" s="24">
+        <v>47.076667999999998</v>
+      </c>
+      <c r="M64" s="24">
+        <v>15.421371000000001</v>
       </c>
       <c r="O64" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C65" s="1"/>
-      <c r="D65"/>
-      <c r="F65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="13"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
+      <c r="A65" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.25902777777777775</v>
+      </c>
+      <c r="D65">
+        <v>163.5</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="G65">
+        <v>35.5</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="J65" s="13">
+        <v>30.836000000000002</v>
+      </c>
+      <c r="L65" s="23">
+        <v>48.208353700000004</v>
+      </c>
+      <c r="M65" s="23">
+        <v>16.372504200000002</v>
+      </c>
+      <c r="O65" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="D66">
-        <v>240.70000000000002</v>
+        <v>228</v>
       </c>
       <c r="F66" s="15">
-        <v>0.54652777777777783</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="G66">
-        <v>30.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I66" s="15">
-        <v>0.88402777777777775</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J66" s="13">
-        <v>29.744</v>
+        <v>26.598000000000003</v>
       </c>
       <c r="L66" s="23">
-        <v>45.070312000000001</v>
-      </c>
-      <c r="M66" s="22">
-        <v>7.6868565000000002</v>
+        <v>48.3059078</v>
+      </c>
+      <c r="M66" s="23">
+        <v>14.286198000000001</v>
       </c>
       <c r="O66" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.24236111111111108</v>
-      </c>
-      <c r="D67">
-        <v>142</v>
-      </c>
-      <c r="F67" s="15">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="G67">
-        <v>28.9</v>
-      </c>
-      <c r="I67" s="15">
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="J67" s="13">
-        <v>27.794</v>
-      </c>
-      <c r="L67" s="23">
-        <v>45.466799999999999</v>
-      </c>
-      <c r="M67" s="23">
-        <v>9.1905000000000001</v>
-      </c>
-      <c r="O67" t="s">
-        <v>128</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67"/>
+      <c r="F67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="13"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1">
-        <v>0.35902777777777778</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="D68">
-        <v>266.10000000000002</v>
+        <v>240.70000000000002</v>
       </c>
       <c r="F68" s="15">
-        <v>0.7944444444444444</v>
+        <v>0.54652777777777783</v>
       </c>
       <c r="G68">
-        <v>25.5</v>
+        <v>30.9</v>
       </c>
       <c r="I68" s="15">
-        <v>1.0055555555555555</v>
+        <v>0.88402777777777775</v>
       </c>
       <c r="J68" s="13">
-        <v>31.408000000000001</v>
+        <v>29.744</v>
       </c>
       <c r="L68" s="23">
-        <v>44.414164999999997</v>
-      </c>
-      <c r="M68" s="23">
-        <v>8.9421839999999992</v>
+        <v>45.070312000000001</v>
+      </c>
+      <c r="M68" s="22">
+        <v>7.6868565000000002</v>
       </c>
       <c r="O68" t="s">
         <v>129</v>
@@ -3241,63 +3230,63 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1">
-        <v>0.24583333333333329</v>
+        <v>0.24236111111111108</v>
       </c>
       <c r="D69">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F69" s="15">
-        <v>0.76666666666666661</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="G69">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="I69" s="15">
-        <v>0.98472222222222228</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="J69" s="13">
-        <v>33.384</v>
+        <v>27.794</v>
       </c>
       <c r="L69" s="23">
-        <v>44.494886999999999</v>
+        <v>45.466799999999999</v>
       </c>
       <c r="M69" s="23">
-        <v>11.3426162</v>
+        <v>9.1905000000000001</v>
       </c>
       <c r="O69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" s="1">
-        <v>0.26874999999999999</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="D70">
-        <v>160.30000000000001</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="F70" s="15">
-        <v>0.74722222222222223</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="G70">
-        <v>50.4</v>
+        <v>25.5</v>
       </c>
       <c r="I70" s="15">
-        <v>1.0541666666666667</v>
+        <v>1.0055555555555555</v>
       </c>
       <c r="J70" s="13">
-        <v>33.93</v>
+        <v>31.408000000000001</v>
       </c>
       <c r="L70" s="23">
-        <v>45.407969999999999</v>
+        <v>44.414164999999997</v>
       </c>
       <c r="M70" s="23">
-        <v>11.885859999999999</v>
+        <v>8.9421839999999992</v>
       </c>
       <c r="O70" t="s">
         <v>129</v>
@@ -3305,31 +3294,31 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1">
-        <v>0.24513888888888885</v>
+        <v>0.24583333333333329</v>
       </c>
       <c r="D71">
-        <v>174.70000000000002</v>
+        <v>166</v>
       </c>
       <c r="F71" s="15">
-        <v>0.76597222222222217</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="G71">
-        <v>30.8</v>
+        <v>28.4</v>
       </c>
       <c r="I71" s="15">
-        <v>1.0354166666666667</v>
+        <v>0.98472222222222228</v>
       </c>
       <c r="J71" s="13">
-        <v>38.49</v>
+        <v>33.384</v>
       </c>
       <c r="L71" s="23">
-        <v>43.722838600000003</v>
+        <v>44.494886999999999</v>
       </c>
       <c r="M71" s="23">
-        <v>10.401688800000001</v>
+        <v>11.3426162</v>
       </c>
       <c r="O71" t="s">
         <v>129</v>
@@ -3337,31 +3326,31 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C72" s="1">
-        <v>0.37152777777777779</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="D72">
-        <v>244.10000000000002</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="F72" s="15">
-        <v>0.9194444444444444</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="G72">
-        <v>68.400000000000006</v>
+        <v>50.4</v>
       </c>
       <c r="I72" s="15">
-        <v>1.1916666666666669</v>
+        <v>1.0541666666666667</v>
       </c>
       <c r="J72" s="13">
-        <v>42.884</v>
+        <v>33.93</v>
       </c>
       <c r="L72" s="23">
-        <v>43.107032099999998</v>
+        <v>45.407969999999999</v>
       </c>
       <c r="M72" s="23">
-        <v>12.402996209906499</v>
+        <v>11.885859999999999</v>
       </c>
       <c r="O72" t="s">
         <v>129</v>
@@ -3369,122 +3358,127 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" s="1">
-        <v>0.37083333333333335</v>
+        <v>0.24513888888888885</v>
       </c>
       <c r="D73">
-        <v>268.40000000000003</v>
+        <v>174.70000000000002</v>
       </c>
       <c r="F73" s="15">
-        <v>0.89097222222222217</v>
+        <v>0.76597222222222217</v>
       </c>
       <c r="G73">
-        <v>73.400000000000006</v>
+        <v>30.8</v>
       </c>
       <c r="I73" s="15">
-        <v>1.182638888888889</v>
+        <v>1.0354166666666667</v>
       </c>
       <c r="J73" s="13">
-        <v>42.718000000000004</v>
+        <v>38.49</v>
       </c>
       <c r="L73" s="23">
-        <v>41.893320299999999</v>
+        <v>43.722838600000003</v>
       </c>
       <c r="M73" s="23">
-        <v>12.482932099999999</v>
+        <v>10.401688800000001</v>
       </c>
       <c r="O73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" s="1">
-        <v>0.26944444444444443</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="D74">
-        <v>139.60000000000002</v>
+        <v>244.10000000000002</v>
       </c>
       <c r="F74" s="15">
-        <v>0.94930555555555562</v>
+        <v>0.9194444444444444</v>
       </c>
       <c r="G74">
-        <v>82.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="I74" s="15">
-        <v>1.320138888888889</v>
+        <v>1.1916666666666669</v>
       </c>
       <c r="J74" s="13">
-        <v>51.230000000000004</v>
+        <v>42.884</v>
       </c>
       <c r="L74" s="23">
-        <v>40.851774599999999</v>
+        <v>43.107032099999998</v>
       </c>
       <c r="M74" s="23">
-        <v>14.2681244</v>
+        <v>12.402996209906499</v>
       </c>
       <c r="O74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C75" s="1">
-        <v>0.42638888888888887</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="D75">
-        <v>308.3</v>
+        <v>268.40000000000003</v>
       </c>
       <c r="F75" s="15">
-        <v>1.14375</v>
+        <v>0.89097222222222217</v>
       </c>
       <c r="G75">
-        <v>62.3</v>
-      </c>
-      <c r="I75" s="15"/>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1.182638888888889</v>
+      </c>
+      <c r="J75" s="13">
+        <v>42.718000000000004</v>
+      </c>
       <c r="L75" s="23">
-        <v>39.299999</v>
+        <v>41.893320299999999</v>
       </c>
       <c r="M75" s="23">
-        <v>16.25</v>
+        <v>12.482932099999999</v>
       </c>
       <c r="O75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" s="1">
-        <v>0.24166666666666664</v>
+        <v>0.26944444444444443</v>
       </c>
       <c r="D76">
-        <v>102.3</v>
+        <v>139.60000000000002</v>
       </c>
       <c r="F76" s="15">
-        <v>0.80833333333333324</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="G76">
-        <v>32.5</v>
+        <v>82.4</v>
       </c>
       <c r="I76" s="15">
-        <v>1.0368055555555558</v>
+        <v>1.320138888888889</v>
       </c>
       <c r="J76" s="13">
-        <v>35.984000000000002</v>
+        <v>51.230000000000004</v>
       </c>
       <c r="L76" s="23">
-        <v>43.769560400000003</v>
+        <v>40.851774599999999</v>
       </c>
       <c r="M76" s="23">
-        <v>11.2558136</v>
+        <v>14.2681244</v>
       </c>
       <c r="O76" t="s">
         <v>128</v>
@@ -3492,31 +3486,26 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C77" s="1">
-        <v>0.24374999999999997</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="D77">
-        <v>158.5</v>
+        <v>308.3</v>
       </c>
       <c r="F77" s="15">
-        <v>0.72291666666666676</v>
+        <v>1.14375</v>
       </c>
       <c r="G77">
-        <v>51.5</v>
-      </c>
-      <c r="I77" s="15">
-        <v>0.90486111111111112</v>
-      </c>
-      <c r="J77" s="13">
-        <v>34.554000000000002</v>
-      </c>
+        <v>62.3</v>
+      </c>
+      <c r="I77" s="15"/>
       <c r="L77" s="23">
-        <v>45.437190800000003</v>
+        <v>39.299999</v>
       </c>
       <c r="M77" s="23">
-        <v>12.3345898</v>
+        <v>16.25</v>
       </c>
       <c r="O77" t="s">
         <v>129</v>
@@ -3524,136 +3513,136 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C78" s="1">
-        <v>0.23749999999999999</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="D78">
-        <v>149.80000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="F78" s="15">
-        <v>0.78472222222222221</v>
+        <v>0.80833333333333324</v>
       </c>
       <c r="G78">
-        <v>54.6</v>
+        <v>32.5</v>
       </c>
       <c r="I78" s="15">
-        <v>0.84583333333333321</v>
+        <v>1.0368055555555558</v>
       </c>
       <c r="J78" s="13">
-        <v>31.720000000000002</v>
+        <v>35.984000000000002</v>
       </c>
       <c r="L78" s="23">
-        <v>45.441586000000001</v>
+        <v>43.769560400000003</v>
       </c>
       <c r="M78" s="23">
-        <v>10.973442</v>
+        <v>11.2558136</v>
       </c>
       <c r="O78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.24374999999999997</v>
+      </c>
+      <c r="D79">
+        <v>158.5</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="G79">
+        <v>51.5</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0.90486111111111112</v>
+      </c>
+      <c r="J79" s="13">
+        <v>34.554000000000002</v>
+      </c>
+      <c r="L79" s="23">
+        <v>45.437190800000003</v>
+      </c>
+      <c r="M79" s="23">
+        <v>12.3345898</v>
+      </c>
+      <c r="O79" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C79" s="1"/>
-      <c r="D79"/>
-      <c r="F79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="13"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="D80">
-        <v>132.70000000000002</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="F80" s="15">
-        <v>0.5083333333333333</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="G80">
-        <v>46</v>
+        <v>54.6</v>
       </c>
       <c r="I80" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.84583333333333321</v>
       </c>
       <c r="J80" s="13">
-        <v>24.388000000000002</v>
+        <v>31.720000000000002</v>
       </c>
       <c r="L80" s="23">
-        <v>50.075538100000003</v>
+        <v>45.441586000000001</v>
       </c>
       <c r="M80" s="23">
-        <v>14.4378005</v>
+        <v>10.973442</v>
       </c>
       <c r="O80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.24930555555555556</v>
-      </c>
-      <c r="D81">
-        <v>106.7</v>
-      </c>
-      <c r="F81" s="15">
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="G81">
-        <v>85</v>
-      </c>
-      <c r="I81" s="15">
-        <v>0.81805555555555554</v>
-      </c>
-      <c r="J81" s="13">
-        <v>32.604000000000006</v>
-      </c>
-      <c r="L81" s="23">
-        <v>52.231923700000003</v>
-      </c>
-      <c r="M81" s="23">
-        <v>21.006726499999999</v>
-      </c>
-      <c r="O81" t="s">
-        <v>128</v>
-      </c>
+      <c r="C81" s="1"/>
+      <c r="D81"/>
+      <c r="F81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="13"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D82">
-        <v>104.89999999999999</v>
+        <v>132.70000000000002</v>
       </c>
       <c r="F82" s="15">
-        <v>0.77708333333333324</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="G82">
-        <v>89.4</v>
+        <v>46</v>
       </c>
       <c r="I82" s="15">
-        <v>0.89097222222222228</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J82" s="13">
-        <v>33.201999999999998</v>
+        <v>24.388000000000002</v>
       </c>
       <c r="L82" s="23">
-        <v>50.064650100000001</v>
+        <v>50.075538100000003</v>
       </c>
       <c r="M82" s="23">
-        <v>19.944979</v>
+        <v>14.4378005</v>
       </c>
       <c r="O82" t="s">
         <v>128</v>
@@ -3661,63 +3650,63 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1">
-        <v>0.37777777777777777</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D83">
-        <v>268</v>
+        <v>106.7</v>
       </c>
       <c r="F83" s="15">
-        <v>0.5083333333333333</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="G83">
-        <v>52.3</v>
+        <v>85</v>
       </c>
       <c r="I83" s="15">
-        <v>0.6513888888888888</v>
+        <v>0.81805555555555554</v>
       </c>
       <c r="J83" s="13">
-        <v>24.752000000000002</v>
+        <v>32.604000000000006</v>
       </c>
       <c r="L83" s="23">
-        <v>52.409537999999998</v>
+        <v>52.231923700000003</v>
       </c>
       <c r="M83" s="23">
-        <v>16.931992000000001</v>
+        <v>21.006726499999999</v>
       </c>
       <c r="O83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1">
-        <v>0.35625000000000001</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D84">
-        <v>245.5</v>
+        <v>104.89999999999999</v>
       </c>
       <c r="F84" s="15">
-        <v>0.55902777777777779</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="G84">
-        <v>36.799999999999997</v>
+        <v>89.4</v>
       </c>
       <c r="I84" s="15">
-        <v>1.0854166666666667</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J84" s="13">
-        <v>32.864000000000004</v>
+        <v>33.201999999999998</v>
       </c>
       <c r="L84" s="23">
-        <v>48.148596499999996</v>
+        <v>50.064650100000001</v>
       </c>
       <c r="M84" s="23">
-        <v>17.107747799999999</v>
+        <v>19.944979</v>
       </c>
       <c r="O84" t="s">
         <v>128</v>
@@ -3725,63 +3714,63 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C85" s="1">
-        <v>0.26111111111111107</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="D85">
-        <v>114.2</v>
+        <v>268</v>
       </c>
       <c r="F85" s="15">
-        <v>0.8520833333333333</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="G85">
-        <v>44.9</v>
+        <v>52.3</v>
       </c>
       <c r="I85" s="15">
-        <v>1.0541666666666667</v>
+        <v>0.6513888888888888</v>
       </c>
       <c r="J85" s="13">
-        <v>37.283999999999999</v>
+        <v>24.752000000000002</v>
       </c>
       <c r="L85" s="23">
-        <v>47.497911999999999</v>
+        <v>52.409537999999998</v>
       </c>
       <c r="M85" s="23">
-        <v>19.040234999999999</v>
+        <v>16.931992000000001</v>
       </c>
       <c r="O85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1">
-        <v>0.25486111111111109</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="D86">
-        <v>107</v>
+        <v>245.5</v>
       </c>
       <c r="F86" s="15">
-        <v>0.90694444444444444</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="G86">
-        <v>45.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I86" s="15">
-        <v>0.96041666666666659</v>
+        <v>1.0854166666666667</v>
       </c>
       <c r="J86" s="13">
-        <v>35.49</v>
+        <v>32.864000000000004</v>
       </c>
       <c r="L86" s="23">
-        <v>45.815010800000003</v>
+        <v>48.148596499999996</v>
       </c>
       <c r="M86" s="23">
-        <v>15.981919</v>
+        <v>17.107747799999999</v>
       </c>
       <c r="O86" t="s">
         <v>128</v>
@@ -3789,63 +3778,63 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.26111111111111107</v>
       </c>
       <c r="D87">
-        <v>125.1</v>
+        <v>114.2</v>
       </c>
       <c r="F87" s="15">
-        <v>1.2861111111111112</v>
+        <v>0.8520833333333333</v>
       </c>
       <c r="G87">
-        <v>59.3</v>
+        <v>44.9</v>
       </c>
       <c r="I87" s="15">
-        <v>1.245138888888889</v>
+        <v>1.0541666666666667</v>
       </c>
       <c r="J87" s="13">
-        <v>45.603999999999999</v>
+        <v>37.283999999999999</v>
       </c>
       <c r="L87" s="23">
-        <v>43.511638300000001</v>
+        <v>47.497911999999999</v>
       </c>
       <c r="M87" s="23">
-        <v>16.439965900000001</v>
+        <v>19.040234999999999</v>
       </c>
       <c r="O87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C88" s="1">
-        <v>0.39652777777777781</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="D88">
-        <v>300.40000000000003</v>
+        <v>107</v>
       </c>
       <c r="F88" s="15">
-        <v>1.5166666666666666</v>
+        <v>0.90694444444444444</v>
       </c>
       <c r="G88">
-        <v>99.1</v>
+        <v>45.8</v>
       </c>
       <c r="I88" s="15">
-        <v>1.757638888888889</v>
+        <v>0.96041666666666659</v>
       </c>
       <c r="J88" s="13">
-        <v>61.084000000000003</v>
+        <v>35.49</v>
       </c>
       <c r="L88" s="23">
-        <v>44.426767400000003</v>
+        <v>45.815010800000003</v>
       </c>
       <c r="M88" s="23">
-        <v>26.1025384</v>
+        <v>15.981919</v>
       </c>
       <c r="O88" t="s">
         <v>128</v>
@@ -3853,31 +3842,31 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D89">
-        <v>158.9</v>
+        <v>125.1</v>
       </c>
       <c r="F89" s="15">
-        <v>0.8520833333333333</v>
+        <v>1.2861111111111112</v>
       </c>
       <c r="G89">
-        <v>80.099999999999994</v>
+        <v>59.3</v>
       </c>
       <c r="I89" s="15">
-        <v>0.89097222222222228</v>
+        <v>1.245138888888889</v>
       </c>
       <c r="J89" s="13">
-        <v>32.578000000000003</v>
+        <v>45.603999999999999</v>
       </c>
       <c r="L89" s="23">
-        <v>54.3520252</v>
-      </c>
-      <c r="M89" s="22">
-        <v>18.646638400000001</v>
+        <v>43.511638300000001</v>
+      </c>
+      <c r="M89" s="23">
+        <v>16.439965900000001</v>
       </c>
       <c r="O89" t="s">
         <v>129</v>
@@ -3885,168 +3874,168 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="1">
-        <v>0.28611111111111109</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="D90">
-        <v>165.20000000000002</v>
+        <v>300.40000000000003</v>
       </c>
       <c r="F90" s="15">
-        <v>1.0493055555555555</v>
+        <v>1.5166666666666666</v>
       </c>
       <c r="G90">
-        <v>112.4</v>
+        <v>99.1</v>
       </c>
       <c r="I90" s="15">
-        <v>1.5923611111111111</v>
+        <v>1.757638888888889</v>
       </c>
       <c r="J90" s="13">
-        <v>57.096000000000004</v>
+        <v>61.084000000000003</v>
       </c>
       <c r="L90" s="23">
-        <v>42.697708200000001</v>
+        <v>44.426767400000003</v>
       </c>
       <c r="M90" s="23">
-        <v>23.3218675</v>
+        <v>26.1025384</v>
       </c>
       <c r="O90" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C91" s="1"/>
-      <c r="D91"/>
-      <c r="F91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="13"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
+      <c r="A91" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D91">
+        <v>158.9</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="G91">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="I91" s="15">
+        <v>0.89097222222222228</v>
+      </c>
+      <c r="J91" s="13">
+        <v>32.578000000000003</v>
+      </c>
+      <c r="L91" s="23">
+        <v>54.3520252</v>
+      </c>
+      <c r="M91" s="22">
+        <v>18.646638400000001</v>
+      </c>
+      <c r="O91" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="1">
-        <v>0.28402777777777777</v>
+        <v>0.28611111111111109</v>
       </c>
       <c r="D92">
-        <v>127.89999999999999</v>
+        <v>165.20000000000002</v>
       </c>
       <c r="F92" s="15">
-        <v>0.46597222222222223</v>
+        <v>1.0493055555555555</v>
       </c>
       <c r="G92">
-        <v>36.799999999999997</v>
+        <v>112.4</v>
       </c>
       <c r="I92" s="15">
-        <v>0.77638888888888891</v>
+        <v>1.5923611111111111</v>
       </c>
       <c r="J92" s="13">
-        <v>22.152000000000001</v>
+        <v>57.096000000000004</v>
       </c>
       <c r="L92" s="23">
-        <v>56.149627799999998</v>
+        <v>42.697708200000001</v>
       </c>
       <c r="M92" s="23">
-        <v>10.2134046</v>
+        <v>23.3218675</v>
       </c>
       <c r="O92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.39652777777777781</v>
-      </c>
-      <c r="D93">
-        <v>233</v>
-      </c>
-      <c r="F93" s="15">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="G93">
-        <v>43</v>
-      </c>
-      <c r="I93" s="15">
-        <v>0.83888888888888891</v>
-      </c>
-      <c r="J93" s="13">
-        <v>25.012</v>
-      </c>
-      <c r="L93" s="23">
-        <v>57.046262599999999</v>
-      </c>
-      <c r="M93" s="23">
-        <v>9.9215263</v>
-      </c>
-      <c r="O93" t="s">
-        <v>129</v>
-      </c>
+      <c r="C93" s="1"/>
+      <c r="D93"/>
+      <c r="F93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="13"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" s="1">
-        <v>0.22777777777777775</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="D94">
-        <v>135.30000000000001</v>
+        <v>127.89999999999999</v>
       </c>
       <c r="F94" s="15">
-        <v>0.48125000000000001</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="G94">
-        <v>42.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I94" s="15">
-        <v>0.60624999999999996</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="J94" s="13">
-        <v>22.1</v>
+        <v>22.152000000000001</v>
       </c>
       <c r="L94" s="23">
-        <v>55.676096800000003</v>
+        <v>56.149627799999998</v>
       </c>
       <c r="M94" s="23">
-        <v>12.568337100000001</v>
+        <v>10.2134046</v>
       </c>
       <c r="O94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C95" s="1">
-        <v>0.25416666666666665</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="D95">
-        <v>139.70000000000002</v>
+        <v>233</v>
       </c>
       <c r="F95" s="15">
-        <v>0.54583333333333328</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="G95">
-        <v>43.7</v>
+        <v>43</v>
       </c>
       <c r="I95" s="15">
-        <v>0.83541666666666659</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="J95" s="13">
-        <v>23.400000000000002</v>
+        <v>25.012</v>
       </c>
       <c r="L95" s="23">
-        <v>55.704660099999998</v>
+        <v>57.046262599999999</v>
       </c>
       <c r="M95" s="23">
-        <v>13.191007300000001</v>
+        <v>9.9215263</v>
       </c>
       <c r="O95" t="s">
         <v>129</v>
@@ -4054,145 +4043,195 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C96" s="1">
-        <v>0.24166666666666664</v>
+        <v>0.22777777777777775</v>
       </c>
       <c r="D96">
-        <v>143.60000000000002</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="F96" s="15">
-        <v>0.75</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="G96">
         <v>42.5</v>
       </c>
       <c r="I96" s="15">
-        <v>0.87013888888888891</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="J96" s="13">
-        <v>29.978000000000002</v>
+        <v>22.1</v>
       </c>
       <c r="L96" s="23">
-        <v>57.708869999999997</v>
+        <v>55.676096800000003</v>
       </c>
       <c r="M96" s="23">
-        <v>11.97456</v>
+        <v>12.568337100000001</v>
       </c>
       <c r="O96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1">
-        <v>0.3520833333333333</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="D97">
-        <v>279</v>
+        <v>139.70000000000002</v>
       </c>
       <c r="F97" s="15">
-        <v>0.78263888888888899</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="G97">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="I97" s="15">
-        <v>1.3875000000000002</v>
+        <v>0.83541666666666659</v>
       </c>
       <c r="J97" s="13">
-        <v>38.870000000000005</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="L97" s="23">
-        <v>59.325117200000001</v>
+        <v>55.704660099999998</v>
       </c>
       <c r="M97" s="23">
-        <v>18.0710935</v>
+        <v>13.191007300000001</v>
       </c>
       <c r="O97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C98" s="1">
-        <v>0.31111111111111106</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="D98">
-        <v>154.60000000000002</v>
+        <v>143.60000000000002</v>
       </c>
       <c r="F98" s="15">
-        <v>0.94097222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="G98">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="I98" s="15">
-        <v>1.1187500000000001</v>
+        <v>0.87013888888888891</v>
       </c>
       <c r="J98" s="13">
-        <v>36.436</v>
+        <v>29.978000000000002</v>
       </c>
       <c r="L98" s="23">
-        <v>59.913868800000003</v>
+        <v>57.708869999999997</v>
       </c>
       <c r="M98" s="23">
-        <v>10.7522454</v>
+        <v>11.97456</v>
       </c>
       <c r="O98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1">
-        <v>0.28402777777777777</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="D99">
-        <v>126.6</v>
+        <v>279</v>
       </c>
       <c r="F99" s="15">
-        <v>1.3034722222222224</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="G99">
-        <v>43.5</v>
-      </c>
-      <c r="I99" s="15"/>
+        <v>43.3</v>
+      </c>
+      <c r="I99" s="15">
+        <v>1.3875000000000002</v>
+      </c>
+      <c r="J99" s="13">
+        <v>38.870000000000005</v>
+      </c>
       <c r="L99" s="23">
-        <v>63.430514000000002</v>
+        <v>59.325117200000001</v>
       </c>
       <c r="M99" s="23">
-        <v>10.3950528</v>
+        <v>18.0710935</v>
       </c>
       <c r="O99" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="D100"/>
-      <c r="F100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
+      <c r="A100" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.31111111111111106</v>
+      </c>
+      <c r="D100">
+        <v>154.60000000000002</v>
+      </c>
+      <c r="F100" s="15">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="G100">
+        <v>43</v>
+      </c>
+      <c r="I100" s="15">
+        <v>1.1187500000000001</v>
+      </c>
+      <c r="J100" s="13">
+        <v>36.436</v>
+      </c>
+      <c r="L100" s="23">
+        <v>59.913868800000003</v>
+      </c>
+      <c r="M100" s="23">
+        <v>10.7522454</v>
+      </c>
+      <c r="O100" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="D101"/>
+      <c r="A101" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="D101">
+        <v>126.6</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1.3034722222222224</v>
+      </c>
+      <c r="G101">
+        <v>43.5</v>
+      </c>
       <c r="I101" s="15"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
+      <c r="L101" s="23">
+        <v>63.430514000000002</v>
+      </c>
+      <c r="M101" s="23">
+        <v>10.3950528</v>
+      </c>
+      <c r="O101" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="D102"/>
+      <c r="F102" s="15"/>
       <c r="I102" s="15"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
@@ -4207,12 +4246,14 @@
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="D104"/>
+      <c r="I104" s="15"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="D105"/>
+      <c r="I105" s="15"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
     </row>
@@ -4615,11 +4656,13 @@
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="D172"/>
+      <c r="L172" s="22"/>
       <c r="M172" s="22"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="D173"/>
+      <c r="L173" s="22"/>
       <c r="M173" s="22"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -4945,10 +4988,12 @@
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
       <c r="D238"/>
+      <c r="M238" s="22"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
       <c r="D239"/>
+      <c r="M239" s="22"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
@@ -8655,12 +8700,20 @@
       <c r="D1165"/>
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1166" s="2"/>
-      <c r="G1166" s="2"/>
+      <c r="A1166" s="11"/>
+      <c r="D1166"/>
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1167" s="2"/>
-      <c r="G1167" s="2"/>
+      <c r="A1167" s="11"/>
+      <c r="D1167"/>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1168" s="2"/>
+      <c r="G1168" s="2"/>
+    </row>
+    <row r="1169" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F1169" s="2"/>
+      <c r="G1169" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/location-data.xlsx
+++ b/data/location-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\EigenMappen\greenTravelMap\greentu-travelmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7998DC2-E00B-47D1-BF4D-98F0C1BDFE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7726C72-4D64-4EA7-B887-AA6D23B98D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="144">
   <si>
     <t>London</t>
   </si>
@@ -640,9 +640,6 @@
   </si>
   <si>
     <t>Coordinates</t>
-  </si>
-  <si>
-    <t>Delft (departure location)</t>
   </si>
   <si>
     <t>Cologne</t>
@@ -1119,11 +1116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254D566-3C65-4661-BAE0-38210166E19C}">
-  <dimension ref="A1:BS1169"/>
+  <dimension ref="A1:BS1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A40" sqref="A40"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,104 +1377,127 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>127.8</v>
       </c>
       <c r="F4" s="15">
-        <v>0</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="I4" s="15">
-        <v>0</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="J4" s="13">
-        <v>0</v>
+        <v>14.222000000000001</v>
       </c>
       <c r="L4" s="22">
-        <v>52.011576900000001</v>
+        <v>51.507199999999997</v>
       </c>
       <c r="M4" s="22">
-        <v>4.3570677</v>
+        <v>-0.1275</v>
       </c>
       <c r="O4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5"/>
-      <c r="F5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="13"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="D5">
+        <v>118.1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="G5">
+        <v>28.8</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="J5" s="13">
+        <v>21.84</v>
+      </c>
+      <c r="L5" s="22">
+        <v>53.480759300000003</v>
+      </c>
+      <c r="M5" s="23">
+        <v>-2.2426305000000002</v>
+      </c>
+      <c r="O5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.22777777777777777</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="D6">
-        <v>127.8</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="F6" s="15">
-        <v>0.18055555555555555</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="G6">
-        <v>13.2</v>
+        <v>21.7</v>
       </c>
       <c r="I6" s="15">
-        <v>0.4604166666666667</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J6" s="13">
-        <v>14.222000000000001</v>
+        <v>18.382000000000001</v>
       </c>
       <c r="L6" s="22">
-        <v>51.507199999999997</v>
+        <v>52.479699199999999</v>
       </c>
       <c r="M6" s="22">
-        <v>-0.1275</v>
+        <v>-1.9026911</v>
       </c>
       <c r="O6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>0.21944444444444444</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D7">
-        <v>118.1</v>
+        <v>125.6</v>
       </c>
       <c r="F7" s="15">
-        <v>0.34236111111111112</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="G7">
-        <v>28.8</v>
+        <v>51.9</v>
       </c>
       <c r="I7" s="15">
-        <v>0.76944444444444438</v>
+        <v>0.95347222222222228</v>
       </c>
       <c r="J7" s="13">
-        <v>21.84</v>
+        <v>29.380000000000003</v>
       </c>
       <c r="L7" s="22">
-        <v>53.480759300000003</v>
-      </c>
-      <c r="M7" s="23">
-        <v>-2.2426305000000002</v>
+        <v>55.953345599999999</v>
+      </c>
+      <c r="M7" s="22">
+        <v>-3.1883748999999999</v>
       </c>
       <c r="O7" t="s">
         <v>129</v>
@@ -1485,31 +1505,31 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.23888888888888887</v>
       </c>
       <c r="D8">
-        <v>108.39999999999999</v>
+        <v>134.60000000000002</v>
       </c>
       <c r="F8" s="15">
-        <v>0.27430555555555552</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="G8">
-        <v>21.7</v>
+        <v>54.9</v>
       </c>
       <c r="I8" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.94652777777777775</v>
       </c>
       <c r="J8" s="13">
-        <v>18.382000000000001</v>
+        <v>30.342000000000002</v>
       </c>
       <c r="L8" s="22">
-        <v>52.479699199999999</v>
-      </c>
-      <c r="M8" s="22">
-        <v>-1.9026911</v>
+        <v>55.860982</v>
+      </c>
+      <c r="M8" s="23">
+        <v>-4.2488786999999997</v>
       </c>
       <c r="O8" t="s">
         <v>129</v>
@@ -1517,214 +1537,214 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.22638888888888886</v>
       </c>
       <c r="D9">
-        <v>125.6</v>
+        <v>115.2</v>
       </c>
       <c r="F9" s="15">
-        <v>0.42222222222222222</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="G9">
-        <v>51.9</v>
+        <v>23.7</v>
       </c>
       <c r="I9" s="15">
-        <v>0.95347222222222228</v>
+        <v>0.6513888888888888</v>
       </c>
       <c r="J9" s="13">
-        <v>29.380000000000003</v>
+        <v>17.68</v>
       </c>
       <c r="L9" s="22">
-        <v>55.953345599999999</v>
+        <v>51.453600000000002</v>
       </c>
       <c r="M9" s="22">
-        <v>-3.1883748999999999</v>
+        <v>-2.5975000000000001</v>
       </c>
       <c r="O9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23888888888888887</v>
+        <v>0.24236111111111108</v>
       </c>
       <c r="D10">
-        <v>134.60000000000002</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="G10">
-        <v>54.9</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0.94652777777777775</v>
-      </c>
-      <c r="J10" s="13">
-        <v>30.342000000000002</v>
-      </c>
-      <c r="L10" s="22">
-        <v>55.860982</v>
+        <v>115.3</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="13"/>
+      <c r="L10" s="23">
+        <v>53.3498053</v>
       </c>
       <c r="M10" s="23">
-        <v>-4.2488786999999997</v>
+        <v>-6.2603096999999996</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>0.22638888888888886</v>
+        <v>0.22847222222222224</v>
       </c>
       <c r="D11">
-        <v>115.2</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.33263888888888887</v>
-      </c>
-      <c r="G11">
-        <v>23.7</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0.6513888888888888</v>
-      </c>
-      <c r="J11" s="13">
-        <v>17.68</v>
-      </c>
-      <c r="L11" s="22">
-        <v>51.453600000000002</v>
+        <v>117.3</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="13"/>
+      <c r="L11" s="23">
+        <v>54.597284999999999</v>
       </c>
       <c r="M11" s="22">
-        <v>-2.5975000000000001</v>
+        <v>-5.9301199999999996</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.24236111111111108</v>
-      </c>
-      <c r="D12">
-        <v>115.3</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12"/>
       <c r="F12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="13"/>
-      <c r="L12" s="23">
-        <v>53.3498053</v>
-      </c>
-      <c r="M12" s="23">
-        <v>-6.2603096999999996</v>
-      </c>
-      <c r="O12" t="s">
-        <v>128</v>
-      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>0.22847222222222224</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D13">
-        <v>117.3</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13"/>
-      <c r="L13" s="23">
-        <v>54.597284999999999</v>
+        <v>102</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="G13">
+        <v>7.3</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="J13" s="13">
+        <v>12.298000000000002</v>
+      </c>
+      <c r="L13" s="22">
+        <v>48.856699999999996</v>
       </c>
       <c r="M13" s="22">
-        <v>-5.9301199999999996</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="O13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D14">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="G14">
+        <v>9.4</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="J14" s="13">
+        <v>12.896000000000001</v>
+      </c>
+      <c r="L14" s="23">
+        <v>48.693722299999997</v>
+      </c>
+      <c r="M14" s="23">
+        <v>6.1834097000000003</v>
+      </c>
+      <c r="O14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14"/>
-      <c r="F14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="13"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.24791666666666662</v>
       </c>
       <c r="D15">
-        <v>102</v>
+        <v>138.10000000000002</v>
       </c>
       <c r="F15" s="15">
-        <v>0.12152777777777778</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G15">
-        <v>7.3</v>
+        <v>9.9</v>
       </c>
       <c r="I15" s="15">
-        <v>0.30694444444444446</v>
+        <v>0.5576388888888888</v>
       </c>
       <c r="J15" s="13">
-        <v>12.298000000000002</v>
-      </c>
-      <c r="L15" s="22">
-        <v>48.856699999999996</v>
+        <v>23.088000000000001</v>
+      </c>
+      <c r="L15" s="23">
+        <v>45.764043000000001</v>
       </c>
       <c r="M15" s="22">
-        <v>2.3521999999999998</v>
+        <v>4.8356589999999997</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D16">
-        <v>133.80000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="F16" s="15">
-        <v>0.21111111111111111</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="G16">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I16" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="J16" s="13">
-        <v>12.896000000000001</v>
+        <v>22.022000000000002</v>
       </c>
       <c r="L16" s="23">
-        <v>48.693722299999997</v>
-      </c>
-      <c r="M16" s="23">
-        <v>6.1834097000000003</v>
+        <v>47.218370999999998</v>
+      </c>
+      <c r="M16" s="22">
+        <v>-1.5536209999999999</v>
       </c>
       <c r="O16" t="s">
         <v>129</v>
@@ -1732,31 +1752,31 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
-        <v>0.24791666666666662</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="D17">
-        <v>138.10000000000002</v>
+        <v>147.10000000000002</v>
       </c>
       <c r="F17" s="15">
-        <v>0.22222222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G17">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="I17" s="15">
-        <v>0.5576388888888888</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="J17" s="13">
-        <v>23.088000000000001</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="L17" s="23">
-        <v>45.764043000000001</v>
-      </c>
-      <c r="M17" s="22">
-        <v>4.8356589999999997</v>
+        <v>45.171546999999997</v>
+      </c>
+      <c r="M17" s="23">
+        <v>5.7223870000000003</v>
       </c>
       <c r="O17" t="s">
         <v>129</v>
@@ -1764,31 +1784,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.2631944444444444</v>
       </c>
       <c r="D18">
-        <v>58.8</v>
+        <v>168</v>
       </c>
       <c r="F18" s="15">
-        <v>0.26319444444444445</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G18">
-        <v>9.8000000000000007</v>
+        <v>12</v>
       </c>
       <c r="I18" s="15">
-        <v>0.6166666666666667</v>
+        <v>0.84236111111111112</v>
       </c>
       <c r="J18" s="13">
-        <v>22.022000000000002</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="L18" s="23">
-        <v>47.218370999999998</v>
-      </c>
-      <c r="M18" s="22">
-        <v>-1.5536209999999999</v>
+        <v>43.296481999999997</v>
+      </c>
+      <c r="M18" s="23">
+        <v>5.3697800000000004</v>
       </c>
       <c r="O18" t="s">
         <v>129</v>
@@ -1796,31 +1816,31 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>0.30208333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D19">
-        <v>147.10000000000002</v>
+        <v>164.60000000000002</v>
       </c>
       <c r="F19" s="15">
-        <v>0.29166666666666669</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G19">
-        <v>10.7</v>
+        <v>14.3</v>
       </c>
       <c r="I19" s="15">
-        <v>0.69305555555555554</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="J19" s="13">
-        <v>25.922000000000001</v>
+        <v>35.073999999999998</v>
       </c>
       <c r="L19" s="23">
-        <v>45.171546999999997</v>
+        <v>43.700935800000003</v>
       </c>
       <c r="M19" s="23">
-        <v>5.7223870000000003</v>
+        <v>7.2683911999999999</v>
       </c>
       <c r="O19" t="s">
         <v>129</v>
@@ -1828,31 +1848,31 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>0.2631944444444444</v>
+        <v>0.25069444444444444</v>
       </c>
       <c r="D20">
-        <v>168</v>
+        <v>167.8</v>
       </c>
       <c r="F20" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="I20" s="15">
-        <v>0.84236111111111112</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="J20" s="13">
-        <v>31.200000000000003</v>
+        <v>29.874000000000002</v>
       </c>
       <c r="L20" s="23">
-        <v>43.296481999999997</v>
+        <v>43.604652000000002</v>
       </c>
       <c r="M20" s="23">
-        <v>5.3697800000000004</v>
+        <v>1.4442090000000001</v>
       </c>
       <c r="O20" t="s">
         <v>129</v>
@@ -1860,63 +1880,63 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D21">
-        <v>164.60000000000002</v>
+        <v>156.9</v>
       </c>
       <c r="F21" s="15">
-        <v>0.4284722222222222</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="G21">
-        <v>14.3</v>
+        <v>11.4</v>
       </c>
       <c r="I21" s="15">
-        <v>0.97777777777777775</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J21" s="13">
-        <v>35.073999999999998</v>
+        <v>27.481999999999999</v>
       </c>
       <c r="L21" s="23">
-        <v>43.700935800000003</v>
+        <v>44.837789000000001</v>
       </c>
       <c r="M21" s="23">
-        <v>7.2683911999999999</v>
+        <v>-0.57918000000000003</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>0.25069444444444444</v>
+        <v>0.25972222222222219</v>
       </c>
       <c r="D22">
-        <v>167.8</v>
+        <v>100.8</v>
       </c>
       <c r="F22" s="15">
-        <v>0.37222222222222223</v>
+        <v>0.13263888888888889</v>
       </c>
       <c r="G22">
-        <v>13.1</v>
+        <v>6</v>
       </c>
       <c r="I22" s="15">
-        <v>0.82499999999999996</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="J22" s="13">
-        <v>29.874000000000002</v>
+        <v>6.604000000000001</v>
       </c>
       <c r="L22" s="23">
-        <v>43.604652000000002</v>
+        <v>50.629249999999999</v>
       </c>
       <c r="M22" s="23">
-        <v>1.4442090000000001</v>
+        <v>3.0572560000000002</v>
       </c>
       <c r="O22" t="s">
         <v>129</v>
@@ -1924,195 +1944,186 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D23">
-        <v>156.9</v>
+        <v>115.1</v>
       </c>
       <c r="F23" s="15">
-        <v>0.26874999999999999</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="G23">
-        <v>11.4</v>
+        <v>25.1</v>
       </c>
       <c r="I23" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="J23" s="13">
-        <v>27.481999999999999</v>
+        <v>15.704000000000002</v>
       </c>
       <c r="L23" s="23">
-        <v>44.837789000000001</v>
+        <v>48.584614000000002</v>
       </c>
       <c r="M23" s="23">
-        <v>-0.57918000000000003</v>
+        <v>7.7507127000000002</v>
       </c>
       <c r="O23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.25972222222222219</v>
-      </c>
-      <c r="D24">
-        <v>100.8</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.13263888888888889</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0.15138888888888888</v>
-      </c>
-      <c r="J24" s="13">
-        <v>6.604000000000001</v>
-      </c>
-      <c r="L24" s="23">
-        <v>50.629249999999999</v>
-      </c>
-      <c r="M24" s="23">
-        <v>3.0572560000000002</v>
-      </c>
-      <c r="O24" t="s">
-        <v>129</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24"/>
+      <c r="F24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="13"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>0.22013888888888888</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="D25">
-        <v>115.1</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.29375000000000001</v>
-      </c>
-      <c r="G25">
-        <v>25.1</v>
-      </c>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="I25" s="15">
-        <v>0.47430555555555554</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="J25" s="13">
-        <v>15.704000000000002</v>
+        <v>36.088000000000001</v>
       </c>
       <c r="L25" s="23">
-        <v>48.584614000000002</v>
+        <v>43.263012600000003</v>
       </c>
       <c r="M25" s="23">
-        <v>7.7507127000000002</v>
+        <v>-2.9349851999999998</v>
       </c>
       <c r="O25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-      <c r="D26"/>
-      <c r="F26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="13"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.26111111111111107</v>
+      </c>
+      <c r="D26">
+        <v>119.7</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="G26">
+        <v>18.8</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.0506944444444446</v>
+      </c>
+      <c r="J26" s="13">
+        <v>39.103999999999999</v>
+      </c>
+      <c r="L26" s="23">
+        <v>41.382893899999999</v>
+      </c>
+      <c r="M26" s="23">
+        <v>2.1774322000000002</v>
+      </c>
+      <c r="O26" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>0.25277777777777777</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D27">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="F27" s="15"/>
+        <v>175.8</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="G27">
+        <v>29.5</v>
+      </c>
       <c r="I27" s="15">
-        <v>0.91874999999999996</v>
+        <v>1.2416666666666667</v>
       </c>
       <c r="J27" s="13">
-        <v>36.088000000000001</v>
+        <v>51.854000000000006</v>
       </c>
       <c r="L27" s="23">
-        <v>43.263012600000003</v>
+        <v>39.469907499999998</v>
       </c>
       <c r="M27" s="23">
-        <v>-2.9349851999999998</v>
+        <v>-0.37628810000000001</v>
       </c>
       <c r="O27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.26111111111111107</v>
-      </c>
-      <c r="D28">
-        <v>119.7</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.4909722222222222</v>
-      </c>
-      <c r="G28">
-        <v>18.8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="F28" s="15"/>
       <c r="I28" s="15">
-        <v>1.0506944444444446</v>
+        <v>1.5645833333333334</v>
       </c>
       <c r="J28" s="13">
-        <v>39.103999999999999</v>
-      </c>
-      <c r="L28" s="23">
-        <v>41.382893899999999</v>
-      </c>
-      <c r="M28" s="23">
-        <v>2.1774322000000002</v>
+        <v>49.176000000000002</v>
+      </c>
+      <c r="L28" s="24">
+        <v>40.961613</v>
+      </c>
+      <c r="M28" s="24">
+        <v>-5.6676070000000003</v>
       </c>
       <c r="O28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.2631944444444444</v>
       </c>
       <c r="D29">
-        <v>175.8</v>
+        <v>174.3</v>
       </c>
       <c r="F29" s="15">
-        <v>0.61041666666666661</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="G29">
-        <v>29.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I29" s="15">
-        <v>1.2416666666666667</v>
+        <v>1.1375</v>
       </c>
       <c r="J29" s="13">
-        <v>51.854000000000006</v>
+        <v>45.344000000000001</v>
       </c>
       <c r="L29" s="23">
-        <v>39.469907499999998</v>
+        <v>40.416704699999997</v>
       </c>
       <c r="M29" s="23">
-        <v>-0.37628810000000001</v>
+        <v>-3.7035825</v>
       </c>
       <c r="O29" t="s">
         <v>128</v>
@@ -2120,22 +2131,26 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="D30">
+        <v>181.8</v>
+      </c>
       <c r="F30" s="15"/>
       <c r="I30" s="15">
-        <v>1.5645833333333334</v>
+        <v>1.4465277777777779</v>
       </c>
       <c r="J30" s="13">
-        <v>49.176000000000002</v>
-      </c>
-      <c r="L30" s="24">
-        <v>40.961613</v>
-      </c>
-      <c r="M30" s="24">
-        <v>-5.6676070000000003</v>
+        <v>53.404000000000003</v>
+      </c>
+      <c r="L30" s="23">
+        <v>41.157943799999998</v>
+      </c>
+      <c r="M30" s="23">
+        <v>-8.6291053000000009</v>
       </c>
       <c r="O30" t="s">
         <v>129</v>
@@ -2143,154 +2158,159 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
-        <v>0.2631944444444444</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D31">
-        <v>174.3</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.62430555555555556</v>
-      </c>
-      <c r="G31">
-        <v>36.200000000000003</v>
-      </c>
+        <v>193.3</v>
+      </c>
+      <c r="F31" s="15"/>
       <c r="I31" s="15">
-        <v>1.1375</v>
+        <v>1.3979166666666669</v>
       </c>
       <c r="J31" s="13">
-        <v>45.344000000000001</v>
-      </c>
-      <c r="L31" s="23">
-        <v>40.416704699999997</v>
-      </c>
-      <c r="M31" s="23">
-        <v>-3.7035825</v>
+        <v>57.382000000000005</v>
+      </c>
+      <c r="L31" s="22">
+        <v>38.725299999999997</v>
+      </c>
+      <c r="M31" s="22">
+        <v>-9.15</v>
       </c>
       <c r="O31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.30486111111111108</v>
-      </c>
-      <c r="D32">
-        <v>181.8</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32"/>
       <c r="F32" s="15"/>
-      <c r="I32" s="15">
-        <v>1.4465277777777779</v>
-      </c>
-      <c r="J32" s="13">
-        <v>53.404000000000003</v>
-      </c>
-      <c r="L32" s="23">
-        <v>41.157943799999998</v>
-      </c>
-      <c r="M32" s="23">
-        <v>-8.6291053000000009</v>
-      </c>
-      <c r="O32" t="s">
-        <v>129</v>
-      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="13"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="D33">
-        <v>193.3</v>
-      </c>
-      <c r="F33" s="15"/>
+        <v>91.5</v>
+      </c>
+      <c r="F33" s="15">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="G33">
+        <v>3.2</v>
+      </c>
       <c r="I33" s="15">
-        <v>1.3979166666666669</v>
+        <v>6.4583333333333326E-2</v>
       </c>
       <c r="J33" s="13">
-        <v>57.382000000000005</v>
-      </c>
-      <c r="L33" s="22">
-        <v>38.725299999999997</v>
-      </c>
-      <c r="M33" s="22">
-        <v>-9.15</v>
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="L33" s="23">
+        <v>51.219447500000001</v>
+      </c>
+      <c r="M33" s="23">
+        <v>4.4024643000000001</v>
       </c>
       <c r="O33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C34" s="1"/>
-      <c r="D34"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="D34">
+        <v>88.6</v>
+      </c>
+      <c r="F34" s="15">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G34">
+        <v>4.5</v>
+      </c>
       <c r="I34" s="15"/>
       <c r="J34" s="13"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="L34" s="23">
+        <v>50.879843800000003</v>
+      </c>
+      <c r="M34" s="23">
+        <v>4.7005176000000004</v>
+      </c>
+      <c r="O34" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
-        <v>0.2326388888888889</v>
+        <v>0.21180555555555558</v>
       </c>
       <c r="D35">
-        <v>91.5</v>
+        <v>88.1</v>
       </c>
       <c r="F35" s="15">
-        <v>3.4722222222222224E-2</v>
+        <v>6.7361111111111108E-2</v>
       </c>
       <c r="G35">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I35" s="15">
-        <v>6.4583333333333326E-2</v>
+        <v>9.930555555555555E-2</v>
       </c>
       <c r="J35" s="13">
-        <v>3.4319999999999999</v>
+        <v>4.7060000000000004</v>
       </c>
       <c r="L35" s="23">
-        <v>51.219447500000001</v>
+        <v>50.846557300000001</v>
       </c>
       <c r="M35" s="23">
-        <v>4.4024643000000001</v>
+        <v>4.3516969999999997</v>
       </c>
       <c r="O35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
-        <v>0.21458333333333335</v>
+        <v>0.25138888888888888</v>
       </c>
       <c r="D36">
-        <v>88.6</v>
+        <v>94.7</v>
       </c>
       <c r="F36" s="15">
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="G36">
-        <v>4.5</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="13"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="J36" s="13">
+        <v>4.9400000000000004</v>
+      </c>
       <c r="L36" s="23">
-        <v>50.879843800000003</v>
+        <v>51.053581000000001</v>
       </c>
       <c r="M36" s="23">
-        <v>4.7005176000000004</v>
+        <v>3.722969</v>
       </c>
       <c r="O36" t="s">
         <v>129</v>
@@ -2298,168 +2318,168 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1">
-        <v>0.21180555555555558</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D37">
-        <v>88.1</v>
+        <v>120.1</v>
       </c>
       <c r="F37" s="15">
-        <v>6.7361111111111108E-2</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="G37">
-        <v>4.0999999999999996</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I37" s="15">
-        <v>9.930555555555555E-2</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="J37" s="13">
-        <v>4.7060000000000004</v>
+        <v>9.8020000000000014</v>
       </c>
       <c r="L37" s="23">
-        <v>50.846557300000001</v>
+        <v>49.815272999999998</v>
       </c>
       <c r="M37" s="23">
-        <v>4.3516969999999997</v>
+        <v>6.1295830000000002</v>
       </c>
       <c r="O37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="D38">
-        <v>94.7</v>
-      </c>
-      <c r="F38" s="15">
-        <v>7.8472222222222221E-2</v>
-      </c>
-      <c r="G38">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I38" s="15">
-        <v>0.10277777777777777</v>
-      </c>
-      <c r="J38" s="13">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="L38" s="23">
-        <v>51.053581000000001</v>
-      </c>
-      <c r="M38" s="23">
-        <v>3.722969</v>
-      </c>
-      <c r="O38" t="s">
-        <v>129</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38"/>
+      <c r="F38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="13"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1">
-        <v>0.21944444444444444</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D39">
-        <v>120.1</v>
+        <v>115.89999999999999</v>
       </c>
       <c r="F39" s="15">
-        <v>0.21458333333333335</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="G39">
-        <v>9.6999999999999993</v>
+        <v>12.8</v>
       </c>
       <c r="I39" s="15">
-        <v>0.24166666666666664</v>
+        <v>0.20347222222222222</v>
       </c>
       <c r="J39" s="13">
-        <v>9.8020000000000014</v>
+        <v>7.8260000000000014</v>
       </c>
       <c r="L39" s="23">
-        <v>49.815272999999998</v>
+        <v>50.937531</v>
       </c>
       <c r="M39" s="23">
-        <v>6.1295830000000002</v>
+        <v>6.9602785999999996</v>
       </c>
       <c r="O39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="D40"/>
-      <c r="F40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="13"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="A40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.20763888888888887</v>
+      </c>
+      <c r="D40">
+        <v>95.6</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="G40">
+        <v>11.3</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="J40" s="13">
+        <v>6.5780000000000012</v>
+      </c>
+      <c r="L40" s="23">
+        <v>51.227741100000003</v>
+      </c>
+      <c r="M40" s="23">
+        <v>6.7734556000000001</v>
+      </c>
+      <c r="O40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>0.22013888888888888</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D41">
-        <v>115.89999999999999</v>
+        <v>109.5</v>
       </c>
       <c r="F41" s="15">
-        <v>0.14375000000000002</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="G41">
-        <v>12.8</v>
+        <v>15.8</v>
       </c>
       <c r="I41" s="15">
-        <v>0.20347222222222222</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="J41" s="13">
-        <v>7.8260000000000014</v>
+        <v>10.790000000000001</v>
       </c>
       <c r="L41" s="23">
-        <v>50.937531</v>
+        <v>53.079296200000002</v>
       </c>
       <c r="M41" s="23">
-        <v>6.9602785999999996</v>
+        <v>8.8016936999999995</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1">
-        <v>0.20763888888888887</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D42">
-        <v>95.6</v>
+        <v>135.10000000000002</v>
       </c>
       <c r="F42" s="15">
-        <v>0.13055555555555556</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="G42">
-        <v>11.3</v>
+        <v>19.3</v>
       </c>
       <c r="I42" s="15">
-        <v>0.19652777777777777</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="J42" s="13">
-        <v>6.5780000000000012</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="L42" s="23">
-        <v>51.227741100000003</v>
+        <v>50.110922100000003</v>
       </c>
       <c r="M42" s="23">
-        <v>6.7734556000000001</v>
+        <v>8.6821266999999995</v>
       </c>
       <c r="O42" t="s">
         <v>129</v>
@@ -2467,31 +2487,31 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
-        <v>0.21250000000000002</v>
+        <v>0.21875</v>
       </c>
       <c r="D43">
-        <v>109.5</v>
+        <v>126.89999999999999</v>
       </c>
       <c r="F43" s="15">
-        <v>0.21180555555555555</v>
+        <v>0.20208333333333331</v>
       </c>
       <c r="G43">
-        <v>15.8</v>
+        <v>18</v>
       </c>
       <c r="I43" s="15">
-        <v>0.29375000000000001</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="J43" s="13">
-        <v>10.790000000000001</v>
+        <v>11.934000000000001</v>
       </c>
       <c r="L43" s="23">
-        <v>53.079296200000002</v>
+        <v>52.374477900000002</v>
       </c>
       <c r="M43" s="23">
-        <v>8.8016936999999995</v>
+        <v>9.7385532000000001</v>
       </c>
       <c r="O43" t="s">
         <v>129</v>
@@ -2499,63 +2519,63 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
-        <v>0.21250000000000002</v>
+        <v>0.21736111111111112</v>
       </c>
       <c r="D44">
-        <v>135.10000000000002</v>
+        <v>141.20000000000002</v>
       </c>
       <c r="F44" s="15">
-        <v>0.19930555555555554</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="G44">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="I44" s="15">
-        <v>0.3527777777777778</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="J44" s="13">
-        <v>12.454000000000001</v>
+        <v>13.650000000000002</v>
       </c>
       <c r="L44" s="23">
-        <v>50.110922100000003</v>
+        <v>53.551084600000003</v>
       </c>
       <c r="M44" s="23">
-        <v>8.6821266999999995</v>
+        <v>9.9936817999999992</v>
       </c>
       <c r="O44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
         <v>0.21875</v>
       </c>
       <c r="D45">
-        <v>126.89999999999999</v>
+        <v>117.7</v>
       </c>
       <c r="F45" s="15">
-        <v>0.20208333333333331</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>25.1</v>
       </c>
       <c r="I45" s="15">
-        <v>0.28333333333333333</v>
+        <v>0.45694444444444449</v>
       </c>
       <c r="J45" s="13">
-        <v>11.934000000000001</v>
+        <v>18.07</v>
       </c>
       <c r="L45" s="23">
-        <v>52.374477900000002</v>
+        <v>49.453871999999997</v>
       </c>
       <c r="M45" s="23">
-        <v>9.7385532000000001</v>
+        <v>11.077298000000001</v>
       </c>
       <c r="O45" t="s">
         <v>129</v>
@@ -2563,95 +2583,95 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>0.21736111111111112</v>
+        <v>0.22569444444444442</v>
       </c>
       <c r="D46">
-        <v>141.20000000000002</v>
+        <v>124.39999999999999</v>
       </c>
       <c r="F46" s="15">
-        <v>0.24374999999999999</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="G46">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I46" s="15">
-        <v>0.31458333333333333</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="J46" s="13">
-        <v>13.650000000000002</v>
+        <v>17.082000000000001</v>
       </c>
       <c r="L46" s="23">
-        <v>53.551084600000003</v>
+        <v>48.7758459</v>
       </c>
       <c r="M46" s="23">
-        <v>9.9936817999999992</v>
+        <v>9.1829321000000004</v>
       </c>
       <c r="O46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C47" s="1">
-        <v>0.21875</v>
+        <v>0.24861111111111106</v>
       </c>
       <c r="D47">
-        <v>117.7</v>
+        <v>128.1</v>
       </c>
       <c r="F47" s="15">
-        <v>0.28958333333333336</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="G47">
-        <v>25.1</v>
+        <v>132.5</v>
       </c>
       <c r="I47" s="15">
-        <v>0.45694444444444449</v>
+        <v>0.5576388888888888</v>
       </c>
       <c r="J47" s="13">
-        <v>18.07</v>
+        <v>22.437999999999999</v>
       </c>
       <c r="L47" s="23">
-        <v>49.453871999999997</v>
+        <v>48.135125299999999</v>
       </c>
       <c r="M47" s="23">
-        <v>11.077298000000001</v>
+        <v>11.5819805</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
-        <v>0.22569444444444442</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="D48">
-        <v>124.39999999999999</v>
+        <v>211.8</v>
       </c>
       <c r="F48" s="15">
-        <v>0.25486111111111109</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="G48">
-        <v>19.5</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I48" s="15">
-        <v>0.43611111111111112</v>
+        <v>0.51944444444444438</v>
       </c>
       <c r="J48" s="13">
-        <v>17.082000000000001</v>
+        <v>20.878</v>
       </c>
       <c r="L48" s="23">
-        <v>48.7758459</v>
+        <v>51.0504088</v>
       </c>
       <c r="M48" s="23">
-        <v>9.1829321000000004</v>
+        <v>13.737262100000001</v>
       </c>
       <c r="O48" t="s">
         <v>129</v>
@@ -2659,31 +2679,31 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
-        <v>0.24861111111111106</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="D49">
-        <v>128.1</v>
+        <v>124.8</v>
       </c>
       <c r="F49" s="15">
-        <v>0.33749999999999997</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="G49">
-        <v>132.5</v>
+        <v>21.7</v>
       </c>
       <c r="I49" s="15">
-        <v>0.5576388888888888</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="J49" s="13">
-        <v>22.437999999999999</v>
-      </c>
-      <c r="L49" s="23">
-        <v>48.135125299999999</v>
-      </c>
-      <c r="M49" s="23">
-        <v>11.5819805</v>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="L49" s="22">
+        <v>52.52</v>
+      </c>
+      <c r="M49" s="22">
+        <v>13.404999999999999</v>
       </c>
       <c r="O49" t="s">
         <v>128</v>
@@ -2691,31 +2711,31 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1">
-        <v>0.34166666666666662</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D50">
-        <v>211.8</v>
+        <v>233.9</v>
       </c>
       <c r="F50" s="15">
-        <v>0.38680555555555557</v>
+        <v>0.37013888888888885</v>
       </c>
       <c r="G50">
-        <v>37.299999999999997</v>
+        <v>30.4</v>
       </c>
       <c r="I50" s="15">
-        <v>0.51944444444444438</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="J50" s="13">
-        <v>20.878</v>
+        <v>18.044</v>
       </c>
       <c r="L50" s="23">
-        <v>51.0504088</v>
+        <v>51.340632100000001</v>
       </c>
       <c r="M50" s="23">
-        <v>13.737262100000001</v>
+        <v>12.3747329</v>
       </c>
       <c r="O50" t="s">
         <v>129</v>
@@ -2723,63 +2743,63 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
-        <v>0.22152777777777777</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D51">
-        <v>124.8</v>
+        <v>95.1</v>
       </c>
       <c r="F51" s="15">
-        <v>0.27291666666666664</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="G51">
-        <v>21.7</v>
+        <v>10.8</v>
       </c>
       <c r="I51" s="15">
-        <v>0.4777777777777778</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="J51" s="13">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="L51" s="22">
-        <v>52.52</v>
-      </c>
-      <c r="M51" s="22">
-        <v>13.404999999999999</v>
+        <v>6.4480000000000013</v>
+      </c>
+      <c r="L51" s="23">
+        <v>50.775554999999997</v>
+      </c>
+      <c r="M51" s="23">
+        <v>6.0836110000000003</v>
       </c>
       <c r="O51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>0.34027777777777773</v>
+        <v>0.27013888888888887</v>
       </c>
       <c r="D52">
-        <v>233.9</v>
+        <v>124.2</v>
       </c>
       <c r="F52" s="15">
-        <v>0.37013888888888885</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="G52">
-        <v>30.4</v>
+        <v>16.5</v>
       </c>
       <c r="I52" s="15">
-        <v>0.4465277777777778</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="J52" s="13">
-        <v>18.044</v>
+        <v>9.8280000000000012</v>
       </c>
       <c r="L52" s="23">
-        <v>51.340632100000001</v>
+        <v>50.3569429</v>
       </c>
       <c r="M52" s="23">
-        <v>12.3747329</v>
+        <v>7.5889958999999996</v>
       </c>
       <c r="O52" t="s">
         <v>129</v>
@@ -2787,136 +2807,136 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="D53">
-        <v>95.1</v>
+        <v>223</v>
       </c>
       <c r="F53" s="15">
-        <v>0.13194444444444445</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="G53">
-        <v>10.8</v>
+        <v>28.3</v>
       </c>
       <c r="I53" s="15">
-        <v>0.15486111111111112</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="J53" s="13">
-        <v>6.4480000000000013</v>
+        <v>16.406000000000002</v>
       </c>
       <c r="L53" s="23">
-        <v>50.775554999999997</v>
+        <v>50.927222999999998</v>
       </c>
       <c r="M53" s="23">
-        <v>6.0836110000000003</v>
+        <v>11.586111000000001</v>
       </c>
       <c r="O53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.27013888888888887</v>
-      </c>
-      <c r="D54">
-        <v>124.2</v>
-      </c>
-      <c r="F54" s="15">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="G54">
-        <v>16.5</v>
-      </c>
-      <c r="I54" s="15">
-        <v>0.27986111111111112</v>
-      </c>
-      <c r="J54" s="13">
-        <v>9.8280000000000012</v>
-      </c>
-      <c r="L54" s="23">
-        <v>50.3569429</v>
-      </c>
-      <c r="M54" s="23">
-        <v>7.5889958999999996</v>
-      </c>
-      <c r="O54" t="s">
-        <v>129</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54"/>
+      <c r="F54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="13"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
-        <v>0.3666666666666667</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="D55">
-        <v>223</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="F55" s="15">
-        <v>0.34513888888888888</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G55">
-        <v>28.3</v>
+        <v>21.8</v>
       </c>
       <c r="I55" s="15">
-        <v>0.51597222222222217</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="J55" s="13">
-        <v>16.406000000000002</v>
+        <v>20.67</v>
       </c>
       <c r="L55" s="23">
-        <v>50.927222999999998</v>
+        <v>47.374448899999997</v>
       </c>
       <c r="M55" s="23">
-        <v>11.586111000000001</v>
+        <v>8.5410421999999997</v>
       </c>
       <c r="O55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.22638888888888886</v>
+      </c>
+      <c r="D56">
+        <v>121.5</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="G56">
+        <v>25.1</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="J56" s="13">
+        <v>18.46</v>
+      </c>
+      <c r="L56" s="23">
+        <v>47.559598600000001</v>
+      </c>
+      <c r="M56" s="23">
+        <v>7.5885761</v>
+      </c>
+      <c r="O56" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C56" s="1"/>
-      <c r="D56"/>
-      <c r="F56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="13"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1">
-        <v>0.23125000000000001</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D57">
-        <v>130.30000000000001</v>
+        <v>204.10000000000002</v>
       </c>
       <c r="F57" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="G57">
         <v>21.8</v>
       </c>
       <c r="I57" s="15">
-        <v>0.63749999999999996</v>
+        <v>0.6513888888888888</v>
       </c>
       <c r="J57" s="13">
-        <v>20.67</v>
-      </c>
-      <c r="L57" s="23">
-        <v>47.374448899999997</v>
-      </c>
-      <c r="M57" s="23">
-        <v>8.5410421999999997</v>
+        <v>21.501999999999999</v>
+      </c>
+      <c r="L57" s="22">
+        <v>46.948099999999997</v>
+      </c>
+      <c r="M57" s="22">
+        <v>7.4474999999999998</v>
       </c>
       <c r="O57" t="s">
         <v>128</v>
@@ -2924,305 +2944,305 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C58" s="1">
-        <v>0.22638888888888886</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="D58">
-        <v>121.5</v>
+        <v>134.5</v>
       </c>
       <c r="F58" s="15">
-        <v>0.30833333333333335</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="G58">
-        <v>25.1</v>
+        <v>21.9</v>
       </c>
       <c r="I58" s="15">
-        <v>0.5541666666666667</v>
+        <v>0.71041666666666659</v>
       </c>
       <c r="J58" s="13">
-        <v>18.46</v>
+        <v>21.164000000000001</v>
       </c>
       <c r="L58" s="23">
-        <v>47.559598600000001</v>
+        <v>46.519962</v>
       </c>
       <c r="M58" s="23">
-        <v>7.5885761</v>
+        <v>6.633597</v>
       </c>
       <c r="O58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="D59">
-        <v>204.10000000000002</v>
-      </c>
-      <c r="F59" s="15">
-        <v>0.34930555555555554</v>
-      </c>
-      <c r="G59">
-        <v>21.8</v>
-      </c>
-      <c r="I59" s="15">
-        <v>0.6513888888888888</v>
-      </c>
-      <c r="J59" s="13">
-        <v>21.501999999999999</v>
-      </c>
-      <c r="L59" s="22">
-        <v>46.948099999999997</v>
-      </c>
-      <c r="M59" s="22">
-        <v>7.4474999999999998</v>
-      </c>
-      <c r="O59" t="s">
-        <v>128</v>
-      </c>
+      <c r="C59" s="1"/>
+      <c r="D59"/>
+      <c r="F59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="13"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C60" s="1">
-        <v>0.2722222222222222</v>
+        <v>0.23194444444444445</v>
       </c>
       <c r="D60">
-        <v>134.5</v>
+        <v>136.20000000000002</v>
       </c>
       <c r="F60" s="15">
-        <v>0.40277777777777773</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G60">
-        <v>21.9</v>
+        <v>34.1</v>
       </c>
       <c r="I60" s="15">
-        <v>0.71041666666666659</v>
+        <v>0.72083333333333321</v>
       </c>
       <c r="J60" s="13">
-        <v>21.164000000000001</v>
+        <v>25.193999999999999</v>
       </c>
       <c r="L60" s="23">
-        <v>46.519962</v>
+        <v>47.269212400000001</v>
       </c>
       <c r="M60" s="23">
-        <v>6.633597</v>
+        <v>11.404102399999999</v>
       </c>
       <c r="O60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="D61">
+        <v>219.9</v>
+      </c>
+      <c r="F61" s="15">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="G61">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="J61" s="13">
+        <v>26.26</v>
+      </c>
+      <c r="L61" s="24">
+        <v>47.809489999999997</v>
+      </c>
+      <c r="M61" s="24">
+        <v>13.055009999999999</v>
+      </c>
+      <c r="O61" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C61" s="1"/>
-      <c r="D61"/>
-      <c r="F61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="13"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1">
-        <v>0.23194444444444445</v>
+        <v>0.36388888888888887</v>
       </c>
       <c r="D62">
-        <v>136.20000000000002</v>
+        <v>239</v>
       </c>
       <c r="F62" s="15">
-        <v>0.4284722222222222</v>
+        <v>0.59236111111111112</v>
       </c>
       <c r="G62">
-        <v>34.1</v>
+        <v>39.9</v>
       </c>
       <c r="I62" s="15">
-        <v>0.72083333333333321</v>
+        <v>0.83194444444444438</v>
       </c>
       <c r="J62" s="13">
-        <v>25.193999999999999</v>
-      </c>
-      <c r="L62" s="23">
-        <v>47.269212400000001</v>
-      </c>
-      <c r="M62" s="23">
-        <v>11.404102399999999</v>
+        <v>30.784000000000002</v>
+      </c>
+      <c r="L62" s="24">
+        <v>47.076667999999998</v>
+      </c>
+      <c r="M62" s="24">
+        <v>15.421371000000001</v>
       </c>
       <c r="O62" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1">
-        <v>0.3666666666666667</v>
+        <v>0.25902777777777775</v>
       </c>
       <c r="D63">
-        <v>219.9</v>
+        <v>163.5</v>
       </c>
       <c r="F63" s="15">
-        <v>0.4152777777777778</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="G63">
-        <v>35.200000000000003</v>
+        <v>35.5</v>
       </c>
       <c r="I63" s="15">
-        <v>0.63749999999999996</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="J63" s="13">
-        <v>26.26</v>
-      </c>
-      <c r="L63" s="24">
-        <v>47.809489999999997</v>
-      </c>
-      <c r="M63" s="24">
-        <v>13.055009999999999</v>
+        <v>30.836000000000002</v>
+      </c>
+      <c r="L63" s="23">
+        <v>48.208353700000004</v>
+      </c>
+      <c r="M63" s="23">
+        <v>16.372504200000002</v>
       </c>
       <c r="O63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1">
-        <v>0.36388888888888887</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="D64">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F64" s="15">
-        <v>0.59236111111111112</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="G64">
-        <v>39.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I64" s="15">
-        <v>0.83194444444444438</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J64" s="13">
-        <v>30.784000000000002</v>
-      </c>
-      <c r="L64" s="24">
-        <v>47.076667999999998</v>
-      </c>
-      <c r="M64" s="24">
-        <v>15.421371000000001</v>
+        <v>26.598000000000003</v>
+      </c>
+      <c r="L64" s="23">
+        <v>48.3059078</v>
+      </c>
+      <c r="M64" s="23">
+        <v>14.286198000000001</v>
       </c>
       <c r="O64" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.25902777777777775</v>
-      </c>
-      <c r="D65">
-        <v>163.5</v>
-      </c>
-      <c r="F65" s="15">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="G65">
-        <v>35.5</v>
-      </c>
-      <c r="I65" s="15">
-        <v>0.83888888888888891</v>
-      </c>
-      <c r="J65" s="13">
-        <v>30.836000000000002</v>
-      </c>
-      <c r="L65" s="23">
-        <v>48.208353700000004</v>
-      </c>
-      <c r="M65" s="23">
-        <v>16.372504200000002</v>
-      </c>
-      <c r="O65" t="s">
-        <v>128</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65"/>
+      <c r="F65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="13"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1">
-        <v>0.34791666666666665</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="D66">
-        <v>228</v>
+        <v>240.70000000000002</v>
       </c>
       <c r="F66" s="15">
-        <v>0.43958333333333338</v>
+        <v>0.54652777777777783</v>
       </c>
       <c r="G66">
-        <v>32.700000000000003</v>
+        <v>30.9</v>
       </c>
       <c r="I66" s="15">
-        <v>0.89097222222222228</v>
+        <v>0.88402777777777775</v>
       </c>
       <c r="J66" s="13">
-        <v>26.598000000000003</v>
+        <v>29.744</v>
       </c>
       <c r="L66" s="23">
-        <v>48.3059078</v>
-      </c>
-      <c r="M66" s="23">
-        <v>14.286198000000001</v>
+        <v>45.070312000000001</v>
+      </c>
+      <c r="M66" s="22">
+        <v>7.6868565000000002</v>
       </c>
       <c r="O66" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C67" s="1"/>
-      <c r="D67"/>
-      <c r="F67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="13"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
+      <c r="A67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.24236111111111108</v>
+      </c>
+      <c r="D67">
+        <v>142</v>
+      </c>
+      <c r="F67" s="15">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="G67">
+        <v>28.9</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="J67" s="13">
+        <v>27.794</v>
+      </c>
+      <c r="L67" s="23">
+        <v>45.466799999999999</v>
+      </c>
+      <c r="M67" s="23">
+        <v>9.1905000000000001</v>
+      </c>
+      <c r="O67" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="D68">
-        <v>240.70000000000002</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="F68" s="15">
-        <v>0.54652777777777783</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="G68">
-        <v>30.9</v>
+        <v>25.5</v>
       </c>
       <c r="I68" s="15">
-        <v>0.88402777777777775</v>
+        <v>1.0055555555555555</v>
       </c>
       <c r="J68" s="13">
-        <v>29.744</v>
+        <v>31.408000000000001</v>
       </c>
       <c r="L68" s="23">
-        <v>45.070312000000001</v>
-      </c>
-      <c r="M68" s="22">
-        <v>7.6868565000000002</v>
+        <v>44.414164999999997</v>
+      </c>
+      <c r="M68" s="23">
+        <v>8.9421839999999992</v>
       </c>
       <c r="O68" t="s">
         <v>129</v>
@@ -3230,63 +3250,63 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" s="1">
-        <v>0.24236111111111108</v>
+        <v>0.24583333333333329</v>
       </c>
       <c r="D69">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F69" s="15">
-        <v>0.48541666666666666</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="G69">
-        <v>28.9</v>
+        <v>28.4</v>
       </c>
       <c r="I69" s="15">
-        <v>0.75555555555555554</v>
+        <v>0.98472222222222228</v>
       </c>
       <c r="J69" s="13">
-        <v>27.794</v>
+        <v>33.384</v>
       </c>
       <c r="L69" s="23">
-        <v>45.466799999999999</v>
+        <v>44.494886999999999</v>
       </c>
       <c r="M69" s="23">
-        <v>9.1905000000000001</v>
+        <v>11.3426162</v>
       </c>
       <c r="O69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C70" s="1">
-        <v>0.35902777777777778</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="D70">
-        <v>266.10000000000002</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="F70" s="15">
-        <v>0.7944444444444444</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="G70">
-        <v>25.5</v>
+        <v>50.4</v>
       </c>
       <c r="I70" s="15">
-        <v>1.0055555555555555</v>
+        <v>1.0541666666666667</v>
       </c>
       <c r="J70" s="13">
-        <v>31.408000000000001</v>
+        <v>33.93</v>
       </c>
       <c r="L70" s="23">
-        <v>44.414164999999997</v>
+        <v>45.407969999999999</v>
       </c>
       <c r="M70" s="23">
-        <v>8.9421839999999992</v>
+        <v>11.885859999999999</v>
       </c>
       <c r="O70" t="s">
         <v>129</v>
@@ -3294,31 +3314,31 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1">
-        <v>0.24583333333333329</v>
+        <v>0.24513888888888885</v>
       </c>
       <c r="D71">
-        <v>166</v>
+        <v>174.70000000000002</v>
       </c>
       <c r="F71" s="15">
-        <v>0.76666666666666661</v>
+        <v>0.76597222222222217</v>
       </c>
       <c r="G71">
-        <v>28.4</v>
+        <v>30.8</v>
       </c>
       <c r="I71" s="15">
-        <v>0.98472222222222228</v>
+        <v>1.0354166666666667</v>
       </c>
       <c r="J71" s="13">
-        <v>33.384</v>
+        <v>38.49</v>
       </c>
       <c r="L71" s="23">
-        <v>44.494886999999999</v>
+        <v>43.722838600000003</v>
       </c>
       <c r="M71" s="23">
-        <v>11.3426162</v>
+        <v>10.401688800000001</v>
       </c>
       <c r="O71" t="s">
         <v>129</v>
@@ -3326,31 +3346,31 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="1">
-        <v>0.26874999999999999</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="D72">
-        <v>160.30000000000001</v>
+        <v>244.10000000000002</v>
       </c>
       <c r="F72" s="15">
-        <v>0.74722222222222223</v>
+        <v>0.9194444444444444</v>
       </c>
       <c r="G72">
-        <v>50.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="I72" s="15">
-        <v>1.0541666666666667</v>
+        <v>1.1916666666666669</v>
       </c>
       <c r="J72" s="13">
-        <v>33.93</v>
+        <v>42.884</v>
       </c>
       <c r="L72" s="23">
-        <v>45.407969999999999</v>
+        <v>43.107032099999998</v>
       </c>
       <c r="M72" s="23">
-        <v>11.885859999999999</v>
+        <v>12.402996209906499</v>
       </c>
       <c r="O72" t="s">
         <v>129</v>
@@ -3358,127 +3378,122 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1">
-        <v>0.24513888888888885</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="D73">
-        <v>174.70000000000002</v>
+        <v>268.40000000000003</v>
       </c>
       <c r="F73" s="15">
-        <v>0.76597222222222217</v>
+        <v>0.89097222222222217</v>
       </c>
       <c r="G73">
-        <v>30.8</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I73" s="15">
-        <v>1.0354166666666667</v>
+        <v>1.182638888888889</v>
       </c>
       <c r="J73" s="13">
-        <v>38.49</v>
+        <v>42.718000000000004</v>
       </c>
       <c r="L73" s="23">
-        <v>43.722838600000003</v>
+        <v>41.893320299999999</v>
       </c>
       <c r="M73" s="23">
-        <v>10.401688800000001</v>
+        <v>12.482932099999999</v>
       </c>
       <c r="O73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C74" s="1">
-        <v>0.37152777777777779</v>
+        <v>0.26944444444444443</v>
       </c>
       <c r="D74">
-        <v>244.10000000000002</v>
+        <v>139.60000000000002</v>
       </c>
       <c r="F74" s="15">
-        <v>0.9194444444444444</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="G74">
-        <v>68.400000000000006</v>
+        <v>82.4</v>
       </c>
       <c r="I74" s="15">
-        <v>1.1916666666666669</v>
+        <v>1.320138888888889</v>
       </c>
       <c r="J74" s="13">
-        <v>42.884</v>
+        <v>51.230000000000004</v>
       </c>
       <c r="L74" s="23">
-        <v>43.107032099999998</v>
+        <v>40.851774599999999</v>
       </c>
       <c r="M74" s="23">
-        <v>12.402996209906499</v>
+        <v>14.2681244</v>
       </c>
       <c r="O74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1">
-        <v>0.37083333333333335</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="D75">
-        <v>268.40000000000003</v>
+        <v>308.3</v>
       </c>
       <c r="F75" s="15">
-        <v>0.89097222222222217</v>
+        <v>1.14375</v>
       </c>
       <c r="G75">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="I75" s="15">
-        <v>1.182638888888889</v>
-      </c>
-      <c r="J75" s="13">
-        <v>42.718000000000004</v>
-      </c>
+        <v>62.3</v>
+      </c>
+      <c r="I75" s="15"/>
       <c r="L75" s="23">
-        <v>41.893320299999999</v>
+        <v>39.299999</v>
       </c>
       <c r="M75" s="23">
-        <v>12.482932099999999</v>
+        <v>16.25</v>
       </c>
       <c r="O75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C76" s="1">
-        <v>0.26944444444444443</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="D76">
-        <v>139.60000000000002</v>
+        <v>102.3</v>
       </c>
       <c r="F76" s="15">
-        <v>0.94930555555555562</v>
+        <v>0.80833333333333324</v>
       </c>
       <c r="G76">
-        <v>82.4</v>
+        <v>32.5</v>
       </c>
       <c r="I76" s="15">
-        <v>1.320138888888889</v>
+        <v>1.0368055555555558</v>
       </c>
       <c r="J76" s="13">
-        <v>51.230000000000004</v>
+        <v>35.984000000000002</v>
       </c>
       <c r="L76" s="23">
-        <v>40.851774599999999</v>
+        <v>43.769560400000003</v>
       </c>
       <c r="M76" s="23">
-        <v>14.2681244</v>
+        <v>11.2558136</v>
       </c>
       <c r="O76" t="s">
         <v>128</v>
@@ -3486,26 +3501,31 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" s="1">
-        <v>0.42638888888888887</v>
+        <v>0.24374999999999997</v>
       </c>
       <c r="D77">
-        <v>308.3</v>
+        <v>158.5</v>
       </c>
       <c r="F77" s="15">
-        <v>1.14375</v>
+        <v>0.72291666666666676</v>
       </c>
       <c r="G77">
-        <v>62.3</v>
-      </c>
-      <c r="I77" s="15"/>
+        <v>51.5</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0.90486111111111112</v>
+      </c>
+      <c r="J77" s="13">
+        <v>34.554000000000002</v>
+      </c>
       <c r="L77" s="23">
-        <v>39.299999</v>
+        <v>45.437190800000003</v>
       </c>
       <c r="M77" s="23">
-        <v>16.25</v>
+        <v>12.3345898</v>
       </c>
       <c r="O77" t="s">
         <v>129</v>
@@ -3513,136 +3533,136 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C78" s="1">
-        <v>0.24166666666666664</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="D78">
-        <v>102.3</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="F78" s="15">
-        <v>0.80833333333333324</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="G78">
-        <v>32.5</v>
+        <v>54.6</v>
       </c>
       <c r="I78" s="15">
-        <v>1.0368055555555558</v>
+        <v>0.84583333333333321</v>
       </c>
       <c r="J78" s="13">
-        <v>35.984000000000002</v>
+        <v>31.720000000000002</v>
       </c>
       <c r="L78" s="23">
-        <v>43.769560400000003</v>
+        <v>45.441586000000001</v>
       </c>
       <c r="M78" s="23">
-        <v>11.2558136</v>
+        <v>10.973442</v>
       </c>
       <c r="O78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.24374999999999997</v>
-      </c>
-      <c r="D79">
-        <v>158.5</v>
-      </c>
-      <c r="F79" s="15">
-        <v>0.72291666666666676</v>
-      </c>
-      <c r="G79">
-        <v>51.5</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0.90486111111111112</v>
-      </c>
-      <c r="J79" s="13">
-        <v>34.554000000000002</v>
-      </c>
-      <c r="L79" s="23">
-        <v>45.437190800000003</v>
-      </c>
-      <c r="M79" s="23">
-        <v>12.3345898</v>
-      </c>
-      <c r="O79" t="s">
-        <v>129</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79"/>
+      <c r="F79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="13"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1">
-        <v>0.23749999999999999</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D80">
-        <v>149.80000000000001</v>
+        <v>132.70000000000002</v>
       </c>
       <c r="F80" s="15">
-        <v>0.78472222222222221</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="G80">
-        <v>54.6</v>
+        <v>46</v>
       </c>
       <c r="I80" s="15">
-        <v>0.84583333333333321</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J80" s="13">
-        <v>31.720000000000002</v>
+        <v>24.388000000000002</v>
       </c>
       <c r="L80" s="23">
-        <v>45.441586000000001</v>
+        <v>50.075538100000003</v>
       </c>
       <c r="M80" s="23">
-        <v>10.973442</v>
+        <v>14.4378005</v>
       </c>
       <c r="O80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C81" s="1"/>
-      <c r="D81"/>
-      <c r="F81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="13"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
+      <c r="A81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="D81">
+        <v>106.7</v>
+      </c>
+      <c r="F81" s="15">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="G81">
+        <v>85</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="J81" s="13">
+        <v>32.604000000000006</v>
+      </c>
+      <c r="L81" s="23">
+        <v>52.231923700000003</v>
+      </c>
+      <c r="M81" s="23">
+        <v>21.006726499999999</v>
+      </c>
+      <c r="O81" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D82">
-        <v>132.70000000000002</v>
+        <v>104.89999999999999</v>
       </c>
       <c r="F82" s="15">
-        <v>0.5083333333333333</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="G82">
-        <v>46</v>
+        <v>89.4</v>
       </c>
       <c r="I82" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J82" s="13">
-        <v>24.388000000000002</v>
+        <v>33.201999999999998</v>
       </c>
       <c r="L82" s="23">
-        <v>50.075538100000003</v>
+        <v>50.064650100000001</v>
       </c>
       <c r="M82" s="23">
-        <v>14.4378005</v>
+        <v>19.944979</v>
       </c>
       <c r="O82" t="s">
         <v>128</v>
@@ -3650,63 +3670,63 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="D83">
-        <v>106.7</v>
+        <v>268</v>
       </c>
       <c r="F83" s="15">
-        <v>0.63750000000000007</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="G83">
-        <v>85</v>
+        <v>52.3</v>
       </c>
       <c r="I83" s="15">
-        <v>0.81805555555555554</v>
+        <v>0.6513888888888888</v>
       </c>
       <c r="J83" s="13">
-        <v>32.604000000000006</v>
+        <v>24.752000000000002</v>
       </c>
       <c r="L83" s="23">
-        <v>52.231923700000003</v>
+        <v>52.409537999999998</v>
       </c>
       <c r="M83" s="23">
-        <v>21.006726499999999</v>
+        <v>16.931992000000001</v>
       </c>
       <c r="O83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C84" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="D84">
-        <v>104.89999999999999</v>
+        <v>245.5</v>
       </c>
       <c r="F84" s="15">
-        <v>0.77708333333333324</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="G84">
-        <v>89.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I84" s="15">
-        <v>0.89097222222222228</v>
+        <v>1.0854166666666667</v>
       </c>
       <c r="J84" s="13">
-        <v>33.201999999999998</v>
+        <v>32.864000000000004</v>
       </c>
       <c r="L84" s="23">
-        <v>50.064650100000001</v>
+        <v>48.148596499999996</v>
       </c>
       <c r="M84" s="23">
-        <v>19.944979</v>
+        <v>17.107747799999999</v>
       </c>
       <c r="O84" t="s">
         <v>128</v>
@@ -3714,63 +3734,63 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C85" s="1">
-        <v>0.37777777777777777</v>
+        <v>0.26111111111111107</v>
       </c>
       <c r="D85">
-        <v>268</v>
+        <v>114.2</v>
       </c>
       <c r="F85" s="15">
-        <v>0.5083333333333333</v>
+        <v>0.8520833333333333</v>
       </c>
       <c r="G85">
-        <v>52.3</v>
+        <v>44.9</v>
       </c>
       <c r="I85" s="15">
-        <v>0.6513888888888888</v>
+        <v>1.0541666666666667</v>
       </c>
       <c r="J85" s="13">
-        <v>24.752000000000002</v>
+        <v>37.283999999999999</v>
       </c>
       <c r="L85" s="23">
-        <v>52.409537999999998</v>
+        <v>47.497911999999999</v>
       </c>
       <c r="M85" s="23">
-        <v>16.931992000000001</v>
+        <v>19.040234999999999</v>
       </c>
       <c r="O85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C86" s="1">
-        <v>0.35625000000000001</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="D86">
-        <v>245.5</v>
+        <v>107</v>
       </c>
       <c r="F86" s="15">
-        <v>0.55902777777777779</v>
+        <v>0.90694444444444444</v>
       </c>
       <c r="G86">
-        <v>36.799999999999997</v>
+        <v>45.8</v>
       </c>
       <c r="I86" s="15">
-        <v>1.0854166666666667</v>
+        <v>0.96041666666666659</v>
       </c>
       <c r="J86" s="13">
-        <v>32.864000000000004</v>
+        <v>35.49</v>
       </c>
       <c r="L86" s="23">
-        <v>48.148596499999996</v>
+        <v>45.815010800000003</v>
       </c>
       <c r="M86" s="23">
-        <v>17.107747799999999</v>
+        <v>15.981919</v>
       </c>
       <c r="O86" t="s">
         <v>128</v>
@@ -3778,63 +3798,63 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1">
-        <v>0.26111111111111107</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D87">
-        <v>114.2</v>
+        <v>125.1</v>
       </c>
       <c r="F87" s="15">
-        <v>0.8520833333333333</v>
+        <v>1.2861111111111112</v>
       </c>
       <c r="G87">
-        <v>44.9</v>
+        <v>59.3</v>
       </c>
       <c r="I87" s="15">
-        <v>1.0541666666666667</v>
+        <v>1.245138888888889</v>
       </c>
       <c r="J87" s="13">
-        <v>37.283999999999999</v>
+        <v>45.603999999999999</v>
       </c>
       <c r="L87" s="23">
-        <v>47.497911999999999</v>
+        <v>43.511638300000001</v>
       </c>
       <c r="M87" s="23">
-        <v>19.040234999999999</v>
+        <v>16.439965900000001</v>
       </c>
       <c r="O87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C88" s="1">
-        <v>0.25486111111111109</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="D88">
-        <v>107</v>
+        <v>300.40000000000003</v>
       </c>
       <c r="F88" s="15">
-        <v>0.90694444444444444</v>
+        <v>1.5166666666666666</v>
       </c>
       <c r="G88">
-        <v>45.8</v>
+        <v>99.1</v>
       </c>
       <c r="I88" s="15">
-        <v>0.96041666666666659</v>
+        <v>1.757638888888889</v>
       </c>
       <c r="J88" s="13">
-        <v>35.49</v>
+        <v>61.084000000000003</v>
       </c>
       <c r="L88" s="23">
-        <v>45.815010800000003</v>
+        <v>44.426767400000003</v>
       </c>
       <c r="M88" s="23">
-        <v>15.981919</v>
+        <v>26.1025384</v>
       </c>
       <c r="O88" t="s">
         <v>128</v>
@@ -3842,31 +3862,31 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C89" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D89">
-        <v>125.1</v>
+        <v>158.9</v>
       </c>
       <c r="F89" s="15">
-        <v>1.2861111111111112</v>
+        <v>0.8520833333333333</v>
       </c>
       <c r="G89">
-        <v>59.3</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="I89" s="15">
-        <v>1.245138888888889</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J89" s="13">
-        <v>45.603999999999999</v>
+        <v>32.578000000000003</v>
       </c>
       <c r="L89" s="23">
-        <v>43.511638300000001</v>
-      </c>
-      <c r="M89" s="23">
-        <v>16.439965900000001</v>
+        <v>54.3520252</v>
+      </c>
+      <c r="M89" s="22">
+        <v>18.646638400000001</v>
       </c>
       <c r="O89" t="s">
         <v>129</v>
@@ -3874,168 +3894,168 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C90" s="1">
-        <v>0.39652777777777781</v>
+        <v>0.28611111111111109</v>
       </c>
       <c r="D90">
-        <v>300.40000000000003</v>
+        <v>165.20000000000002</v>
       </c>
       <c r="F90" s="15">
-        <v>1.5166666666666666</v>
+        <v>1.0493055555555555</v>
       </c>
       <c r="G90">
-        <v>99.1</v>
+        <v>112.4</v>
       </c>
       <c r="I90" s="15">
-        <v>1.757638888888889</v>
+        <v>1.5923611111111111</v>
       </c>
       <c r="J90" s="13">
-        <v>61.084000000000003</v>
+        <v>57.096000000000004</v>
       </c>
       <c r="L90" s="23">
-        <v>44.426767400000003</v>
+        <v>42.697708200000001</v>
       </c>
       <c r="M90" s="23">
-        <v>26.1025384</v>
+        <v>23.3218675</v>
       </c>
       <c r="O90" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.23541666666666666</v>
-      </c>
-      <c r="D91">
-        <v>158.9</v>
-      </c>
-      <c r="F91" s="15">
-        <v>0.8520833333333333</v>
-      </c>
-      <c r="G91">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="I91" s="15">
-        <v>0.89097222222222228</v>
-      </c>
-      <c r="J91" s="13">
-        <v>32.578000000000003</v>
-      </c>
-      <c r="L91" s="23">
-        <v>54.3520252</v>
-      </c>
-      <c r="M91" s="22">
-        <v>18.646638400000001</v>
-      </c>
-      <c r="O91" t="s">
-        <v>129</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91"/>
+      <c r="F91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="13"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C92" s="1">
-        <v>0.28611111111111109</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="D92">
-        <v>165.20000000000002</v>
+        <v>127.89999999999999</v>
       </c>
       <c r="F92" s="15">
-        <v>1.0493055555555555</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="G92">
-        <v>112.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I92" s="15">
-        <v>1.5923611111111111</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="J92" s="13">
-        <v>57.096000000000004</v>
+        <v>22.152000000000001</v>
       </c>
       <c r="L92" s="23">
-        <v>42.697708200000001</v>
+        <v>56.149627799999998</v>
       </c>
       <c r="M92" s="23">
-        <v>23.3218675</v>
+        <v>10.2134046</v>
       </c>
       <c r="O92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C93" s="1"/>
-      <c r="D93"/>
-      <c r="F93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="13"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
+      <c r="A93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="D93">
+        <v>233</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G93">
+        <v>43</v>
+      </c>
+      <c r="I93" s="15">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="J93" s="13">
+        <v>25.012</v>
+      </c>
+      <c r="L93" s="23">
+        <v>57.046262599999999</v>
+      </c>
+      <c r="M93" s="23">
+        <v>9.9215263</v>
+      </c>
+      <c r="O93" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C94" s="1">
-        <v>0.28402777777777777</v>
+        <v>0.22777777777777775</v>
       </c>
       <c r="D94">
-        <v>127.89999999999999</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="F94" s="15">
-        <v>0.46597222222222223</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="G94">
-        <v>36.799999999999997</v>
+        <v>42.5</v>
       </c>
       <c r="I94" s="15">
-        <v>0.77638888888888891</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="J94" s="13">
-        <v>22.152000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="L94" s="23">
-        <v>56.149627799999998</v>
+        <v>55.676096800000003</v>
       </c>
       <c r="M94" s="23">
-        <v>10.2134046</v>
+        <v>12.568337100000001</v>
       </c>
       <c r="O94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C95" s="1">
-        <v>0.39652777777777781</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="D95">
-        <v>233</v>
+        <v>139.70000000000002</v>
       </c>
       <c r="F95" s="15">
-        <v>0.53472222222222221</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="G95">
-        <v>43</v>
+        <v>43.7</v>
       </c>
       <c r="I95" s="15">
-        <v>0.83888888888888891</v>
+        <v>0.83541666666666659</v>
       </c>
       <c r="J95" s="13">
-        <v>25.012</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="L95" s="23">
-        <v>57.046262599999999</v>
+        <v>55.704660099999998</v>
       </c>
       <c r="M95" s="23">
-        <v>9.9215263</v>
+        <v>13.191007300000001</v>
       </c>
       <c r="O95" t="s">
         <v>129</v>
@@ -4043,195 +4063,145 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C96" s="1">
-        <v>0.22777777777777775</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="D96">
-        <v>135.30000000000001</v>
+        <v>143.60000000000002</v>
       </c>
       <c r="F96" s="15">
-        <v>0.48125000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G96">
         <v>42.5</v>
       </c>
       <c r="I96" s="15">
-        <v>0.60624999999999996</v>
+        <v>0.87013888888888891</v>
       </c>
       <c r="J96" s="13">
-        <v>22.1</v>
+        <v>29.978000000000002</v>
       </c>
       <c r="L96" s="23">
-        <v>55.676096800000003</v>
+        <v>57.708869999999997</v>
       </c>
       <c r="M96" s="23">
-        <v>12.568337100000001</v>
+        <v>11.97456</v>
       </c>
       <c r="O96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1">
-        <v>0.25416666666666665</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="D97">
-        <v>139.70000000000002</v>
+        <v>279</v>
       </c>
       <c r="F97" s="15">
-        <v>0.54583333333333328</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="G97">
-        <v>43.7</v>
+        <v>43.3</v>
       </c>
       <c r="I97" s="15">
-        <v>0.83541666666666659</v>
+        <v>1.3875000000000002</v>
       </c>
       <c r="J97" s="13">
-        <v>23.400000000000002</v>
+        <v>38.870000000000005</v>
       </c>
       <c r="L97" s="23">
-        <v>55.704660099999998</v>
+        <v>59.325117200000001</v>
       </c>
       <c r="M97" s="23">
-        <v>13.191007300000001</v>
+        <v>18.0710935</v>
       </c>
       <c r="O97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C98" s="1">
-        <v>0.24166666666666664</v>
+        <v>0.31111111111111106</v>
       </c>
       <c r="D98">
-        <v>143.60000000000002</v>
+        <v>154.60000000000002</v>
       </c>
       <c r="F98" s="15">
-        <v>0.75</v>
+        <v>0.94097222222222221</v>
       </c>
       <c r="G98">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="I98" s="15">
-        <v>0.87013888888888891</v>
+        <v>1.1187500000000001</v>
       </c>
       <c r="J98" s="13">
-        <v>29.978000000000002</v>
+        <v>36.436</v>
       </c>
       <c r="L98" s="23">
-        <v>57.708869999999997</v>
+        <v>59.913868800000003</v>
       </c>
       <c r="M98" s="23">
-        <v>11.97456</v>
+        <v>10.7522454</v>
       </c>
       <c r="O98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C99" s="1">
-        <v>0.3520833333333333</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="D99">
-        <v>279</v>
+        <v>126.6</v>
       </c>
       <c r="F99" s="15">
-        <v>0.78263888888888899</v>
+        <v>1.3034722222222224</v>
       </c>
       <c r="G99">
-        <v>43.3</v>
-      </c>
-      <c r="I99" s="15">
-        <v>1.3875000000000002</v>
-      </c>
-      <c r="J99" s="13">
-        <v>38.870000000000005</v>
-      </c>
+        <v>43.5</v>
+      </c>
+      <c r="I99" s="15"/>
       <c r="L99" s="23">
-        <v>59.325117200000001</v>
+        <v>63.430514000000002</v>
       </c>
       <c r="M99" s="23">
-        <v>18.0710935</v>
+        <v>10.3950528</v>
       </c>
       <c r="O99" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.31111111111111106</v>
-      </c>
-      <c r="D100">
-        <v>154.60000000000002</v>
-      </c>
-      <c r="F100" s="15">
-        <v>0.94097222222222221</v>
-      </c>
-      <c r="G100">
-        <v>43</v>
-      </c>
-      <c r="I100" s="15">
-        <v>1.1187500000000001</v>
-      </c>
-      <c r="J100" s="13">
-        <v>36.436</v>
-      </c>
-      <c r="L100" s="23">
-        <v>59.913868800000003</v>
-      </c>
-      <c r="M100" s="23">
-        <v>10.7522454</v>
-      </c>
-      <c r="O100" t="s">
-        <v>128</v>
-      </c>
+      <c r="A100" s="11"/>
+      <c r="D100"/>
+      <c r="F100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.28402777777777777</v>
-      </c>
-      <c r="D101">
-        <v>126.6</v>
-      </c>
-      <c r="F101" s="15">
-        <v>1.3034722222222224</v>
-      </c>
-      <c r="G101">
-        <v>43.5</v>
-      </c>
+      <c r="A101" s="11"/>
+      <c r="D101"/>
       <c r="I101" s="15"/>
-      <c r="L101" s="23">
-        <v>63.430514000000002</v>
-      </c>
-      <c r="M101" s="23">
-        <v>10.3950528</v>
-      </c>
-      <c r="O101" t="s">
-        <v>128</v>
-      </c>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="D102"/>
-      <c r="F102" s="15"/>
       <c r="I102" s="15"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
@@ -4246,14 +4216,12 @@
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="D104"/>
-      <c r="I104" s="15"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="D105"/>
-      <c r="I105" s="15"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
     </row>
@@ -4656,13 +4624,11 @@
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="D172"/>
-      <c r="L172" s="22"/>
       <c r="M172" s="22"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="D173"/>
-      <c r="L173" s="22"/>
       <c r="M173" s="22"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -4988,12 +4954,10 @@
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
       <c r="D238"/>
-      <c r="M238" s="22"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
       <c r="D239"/>
-      <c r="M239" s="22"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
@@ -8700,20 +8664,12 @@
       <c r="D1165"/>
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1166" s="11"/>
-      <c r="D1166"/>
+      <c r="F1166" s="2"/>
+      <c r="G1166" s="2"/>
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1167" s="11"/>
-      <c r="D1167"/>
-    </row>
-    <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1168" s="2"/>
-      <c r="G1168" s="2"/>
-    </row>
-    <row r="1169" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F1169" s="2"/>
-      <c r="G1169" s="2"/>
+      <c r="F1167" s="2"/>
+      <c r="G1167" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/location-data.xlsx
+++ b/data/location-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\EigenMappen\greenTravelMap\greentu-travelmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7726C72-4D64-4EA7-B887-AA6D23B98D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C84C80-844B-44F6-B6BF-C4FEFB5AAE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="5" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="146">
   <si>
     <t>London</t>
   </si>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Delft (departure location)</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -1116,16 +1122,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254D566-3C65-4661-BAE0-38210166E19C}">
-  <dimension ref="A1:BS1167"/>
+  <dimension ref="A1:BS1170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
@@ -1375,161 +1381,171 @@
       <c r="BR3"/>
       <c r="BS3"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.22777777777777777</v>
-      </c>
-      <c r="D4">
-        <v>127.8</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G4">
-        <v>13.2</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="J4" s="13">
-        <v>14.222000000000001</v>
-      </c>
-      <c r="L4" s="22">
-        <v>51.507199999999997</v>
-      </c>
-      <c r="M4" s="22">
-        <v>-0.1275</v>
-      </c>
-      <c r="O4" t="s">
-        <v>128</v>
-      </c>
+    <row r="4" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="E4"/>
+      <c r="H4"/>
+      <c r="J4" s="21"/>
+      <c r="K4"/>
+      <c r="N4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
-        <v>0.21944444444444444</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>118.1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="15">
-        <v>0.34236111111111112</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
-        <v>0.76944444444444438</v>
+        <v>0</v>
       </c>
       <c r="J5" s="13">
-        <v>21.84</v>
+        <v>0</v>
       </c>
       <c r="L5" s="22">
-        <v>53.480759300000003</v>
-      </c>
-      <c r="M5" s="23">
-        <v>-2.2426305000000002</v>
+        <v>52.011576900000001</v>
+      </c>
+      <c r="M5" s="22">
+        <v>4.3570677</v>
       </c>
       <c r="O5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="D6">
-        <v>108.39999999999999</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="G6">
-        <v>21.7</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0.67569444444444438</v>
-      </c>
-      <c r="J6" s="13">
-        <v>18.382000000000001</v>
-      </c>
-      <c r="L6" s="22">
-        <v>52.479699199999999</v>
-      </c>
-      <c r="M6" s="22">
-        <v>-1.9026911</v>
-      </c>
-      <c r="O6" t="s">
-        <v>129</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6"/>
+      <c r="F6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="D7">
-        <v>125.6</v>
+        <v>127.8</v>
       </c>
       <c r="F7" s="15">
-        <v>0.42222222222222222</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="G7">
-        <v>51.9</v>
+        <v>13.2</v>
       </c>
       <c r="I7" s="15">
-        <v>0.95347222222222228</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="J7" s="13">
-        <v>29.380000000000003</v>
+        <v>14.222000000000001</v>
       </c>
       <c r="L7" s="22">
-        <v>55.953345599999999</v>
+        <v>51.507199999999997</v>
       </c>
       <c r="M7" s="22">
-        <v>-3.1883748999999999</v>
+        <v>-0.1275</v>
       </c>
       <c r="O7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23888888888888887</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D8">
-        <v>134.60000000000002</v>
+        <v>118.1</v>
       </c>
       <c r="F8" s="15">
-        <v>0.43958333333333338</v>
+        <v>0.34236111111111112</v>
       </c>
       <c r="G8">
-        <v>54.9</v>
+        <v>28.8</v>
       </c>
       <c r="I8" s="15">
-        <v>0.94652777777777775</v>
+        <v>0.76944444444444438</v>
       </c>
       <c r="J8" s="13">
-        <v>30.342000000000002</v>
+        <v>21.84</v>
       </c>
       <c r="L8" s="22">
-        <v>55.860982</v>
+        <v>53.480759300000003</v>
       </c>
       <c r="M8" s="23">
-        <v>-4.2488786999999997</v>
+        <v>-2.2426305000000002</v>
       </c>
       <c r="O8" t="s">
         <v>129</v>
@@ -1537,118 +1553,150 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22638888888888886</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="D9">
-        <v>115.2</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="F9" s="15">
-        <v>0.33263888888888887</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="G9">
-        <v>23.7</v>
+        <v>21.7</v>
       </c>
       <c r="I9" s="15">
-        <v>0.6513888888888888</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J9" s="13">
-        <v>17.68</v>
+        <v>18.382000000000001</v>
       </c>
       <c r="L9" s="22">
-        <v>51.453600000000002</v>
+        <v>52.479699199999999</v>
       </c>
       <c r="M9" s="22">
-        <v>-2.5975000000000001</v>
+        <v>-1.9026911</v>
       </c>
       <c r="O9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>0.24236111111111108</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D10">
-        <v>115.3</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="23">
-        <v>53.3498053</v>
-      </c>
-      <c r="M10" s="23">
-        <v>-6.2603096999999996</v>
+        <v>125.6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="G10">
+        <v>51.9</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.95347222222222228</v>
+      </c>
+      <c r="J10" s="13">
+        <v>29.380000000000003</v>
+      </c>
+      <c r="L10" s="22">
+        <v>55.953345599999999</v>
+      </c>
+      <c r="M10" s="22">
+        <v>-3.1883748999999999</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.22847222222222224</v>
+        <v>0.23888888888888887</v>
       </c>
       <c r="D11">
-        <v>117.3</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
-      <c r="L11" s="23">
-        <v>54.597284999999999</v>
-      </c>
-      <c r="M11" s="22">
-        <v>-5.9301199999999996</v>
+        <v>134.60000000000002</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="G11">
+        <v>54.9</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="J11" s="13">
+        <v>30.342000000000002</v>
+      </c>
+      <c r="L11" s="22">
+        <v>55.860982</v>
+      </c>
+      <c r="M11" s="23">
+        <v>-4.2488786999999997</v>
       </c>
       <c r="O11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12"/>
-      <c r="F12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.22638888888888886</v>
+      </c>
+      <c r="D12">
+        <v>115.2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="G12">
+        <v>23.7</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.6513888888888888</v>
+      </c>
+      <c r="J12" s="13">
+        <v>17.68</v>
+      </c>
+      <c r="L12" s="22">
+        <v>51.453600000000002</v>
+      </c>
+      <c r="M12" s="22">
+        <v>-2.5975000000000001</v>
+      </c>
+      <c r="O12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.24236111111111108</v>
       </c>
       <c r="D13">
-        <v>102</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.12152777777777778</v>
-      </c>
-      <c r="G13">
-        <v>7.3</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0.30694444444444446</v>
-      </c>
-      <c r="J13" s="13">
-        <v>12.298000000000002</v>
-      </c>
-      <c r="L13" s="22">
-        <v>48.856699999999996</v>
-      </c>
-      <c r="M13" s="22">
-        <v>2.3521999999999998</v>
+        <v>115.3</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13"/>
+      <c r="L13" s="23">
+        <v>53.3498053</v>
+      </c>
+      <c r="M13" s="23">
+        <v>-6.2603096999999996</v>
       </c>
       <c r="O13" t="s">
         <v>128</v>
@@ -1656,127 +1704,95 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>0.27430555555555552</v>
+        <v>0.22847222222222224</v>
       </c>
       <c r="D14">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.21111111111111111</v>
-      </c>
-      <c r="G14">
-        <v>9.4</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0.30763888888888891</v>
-      </c>
-      <c r="J14" s="13">
-        <v>12.896000000000001</v>
-      </c>
+        <v>117.3</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13"/>
       <c r="L14" s="23">
-        <v>48.693722299999997</v>
-      </c>
-      <c r="M14" s="23">
-        <v>6.1834097000000003</v>
+        <v>54.597284999999999</v>
+      </c>
+      <c r="M14" s="22">
+        <v>-5.9301199999999996</v>
       </c>
       <c r="O14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.24791666666666662</v>
-      </c>
-      <c r="D15">
-        <v>138.10000000000002</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G15">
-        <v>9.9</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.5576388888888888</v>
-      </c>
-      <c r="J15" s="13">
-        <v>23.088000000000001</v>
-      </c>
-      <c r="L15" s="23">
-        <v>45.764043000000001</v>
-      </c>
-      <c r="M15" s="22">
-        <v>4.8356589999999997</v>
-      </c>
-      <c r="O15" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15"/>
+      <c r="F15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="13"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D16">
-        <v>58.8</v>
+        <v>102</v>
       </c>
       <c r="F16" s="15">
-        <v>0.26319444444444445</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="G16">
-        <v>9.8000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="I16" s="15">
-        <v>0.6166666666666667</v>
+        <v>0.30694444444444446</v>
       </c>
       <c r="J16" s="13">
-        <v>22.022000000000002</v>
-      </c>
-      <c r="L16" s="23">
-        <v>47.218370999999998</v>
+        <v>12.298000000000002</v>
+      </c>
+      <c r="L16" s="22">
+        <v>48.856699999999996</v>
       </c>
       <c r="M16" s="22">
-        <v>-1.5536209999999999</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>0.30208333333333331</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="D17">
-        <v>147.10000000000002</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="F17" s="15">
-        <v>0.29166666666666669</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="G17">
-        <v>10.7</v>
+        <v>9.4</v>
       </c>
       <c r="I17" s="15">
-        <v>0.69305555555555554</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="J17" s="13">
-        <v>25.922000000000001</v>
+        <v>12.896000000000001</v>
       </c>
       <c r="L17" s="23">
-        <v>45.171546999999997</v>
+        <v>48.693722299999997</v>
       </c>
       <c r="M17" s="23">
-        <v>5.7223870000000003</v>
+        <v>6.1834097000000003</v>
       </c>
       <c r="O17" t="s">
         <v>129</v>
@@ -1784,31 +1800,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2631944444444444</v>
+        <v>0.24791666666666662</v>
       </c>
       <c r="D18">
-        <v>168</v>
+        <v>138.10000000000002</v>
       </c>
       <c r="F18" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="I18" s="15">
-        <v>0.84236111111111112</v>
+        <v>0.5576388888888888</v>
       </c>
       <c r="J18" s="13">
-        <v>31.200000000000003</v>
+        <v>23.088000000000001</v>
       </c>
       <c r="L18" s="23">
-        <v>43.296481999999997</v>
-      </c>
-      <c r="M18" s="23">
-        <v>5.3697800000000004</v>
+        <v>45.764043000000001</v>
+      </c>
+      <c r="M18" s="22">
+        <v>4.8356589999999997</v>
       </c>
       <c r="O18" t="s">
         <v>129</v>
@@ -1816,31 +1832,31 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D19">
-        <v>164.60000000000002</v>
+        <v>58.8</v>
       </c>
       <c r="F19" s="15">
-        <v>0.4284722222222222</v>
+        <v>0.26319444444444445</v>
       </c>
       <c r="G19">
-        <v>14.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I19" s="15">
-        <v>0.97777777777777775</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="J19" s="13">
-        <v>35.073999999999998</v>
+        <v>22.022000000000002</v>
       </c>
       <c r="L19" s="23">
-        <v>43.700935800000003</v>
-      </c>
-      <c r="M19" s="23">
-        <v>7.2683911999999999</v>
+        <v>47.218370999999998</v>
+      </c>
+      <c r="M19" s="22">
+        <v>-1.5536209999999999</v>
       </c>
       <c r="O19" t="s">
         <v>129</v>
@@ -1848,31 +1864,31 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>0.25069444444444444</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="D20">
-        <v>167.8</v>
+        <v>147.10000000000002</v>
       </c>
       <c r="F20" s="15">
-        <v>0.37222222222222223</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G20">
-        <v>13.1</v>
+        <v>10.7</v>
       </c>
       <c r="I20" s="15">
-        <v>0.82499999999999996</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="J20" s="13">
-        <v>29.874000000000002</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="L20" s="23">
-        <v>43.604652000000002</v>
+        <v>45.171546999999997</v>
       </c>
       <c r="M20" s="23">
-        <v>1.4442090000000001</v>
+        <v>5.7223870000000003</v>
       </c>
       <c r="O20" t="s">
         <v>129</v>
@@ -1880,63 +1896,63 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.2631944444444444</v>
       </c>
       <c r="D21">
-        <v>156.9</v>
+        <v>168</v>
       </c>
       <c r="F21" s="15">
-        <v>0.26874999999999999</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G21">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="I21" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.84236111111111112</v>
       </c>
       <c r="J21" s="13">
-        <v>27.481999999999999</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="L21" s="23">
-        <v>44.837789000000001</v>
+        <v>43.296481999999997</v>
       </c>
       <c r="M21" s="23">
-        <v>-0.57918000000000003</v>
+        <v>5.3697800000000004</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>0.25972222222222219</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D22">
-        <v>100.8</v>
+        <v>164.60000000000002</v>
       </c>
       <c r="F22" s="15">
-        <v>0.13263888888888889</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>14.3</v>
       </c>
       <c r="I22" s="15">
-        <v>0.15138888888888888</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="J22" s="13">
-        <v>6.604000000000001</v>
+        <v>35.073999999999998</v>
       </c>
       <c r="L22" s="23">
-        <v>50.629249999999999</v>
+        <v>43.700935800000003</v>
       </c>
       <c r="M22" s="23">
-        <v>3.0572560000000002</v>
+        <v>7.2683911999999999</v>
       </c>
       <c r="O22" t="s">
         <v>129</v>
@@ -1944,67 +1960,95 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>0.22013888888888888</v>
+        <v>0.25069444444444444</v>
       </c>
       <c r="D23">
-        <v>115.1</v>
+        <v>167.8</v>
       </c>
       <c r="F23" s="15">
-        <v>0.29375000000000001</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="G23">
-        <v>25.1</v>
+        <v>13.1</v>
       </c>
       <c r="I23" s="15">
-        <v>0.47430555555555554</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="J23" s="13">
-        <v>15.704000000000002</v>
+        <v>29.874000000000002</v>
       </c>
       <c r="L23" s="23">
-        <v>48.584614000000002</v>
+        <v>43.604652000000002</v>
       </c>
       <c r="M23" s="23">
-        <v>7.7507127000000002</v>
+        <v>1.4442090000000001</v>
       </c>
       <c r="O23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24"/>
-      <c r="F24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="13"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="D24">
+        <v>156.9</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="G24">
+        <v>11.4</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="J24" s="13">
+        <v>27.481999999999999</v>
+      </c>
+      <c r="L24" s="23">
+        <v>44.837789000000001</v>
+      </c>
+      <c r="M24" s="23">
+        <v>-0.57918000000000003</v>
+      </c>
+      <c r="O24" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>0.25277777777777777</v>
+        <v>0.25972222222222219</v>
       </c>
       <c r="D25">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="F25" s="15"/>
+        <v>100.8</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
       <c r="I25" s="15">
-        <v>0.91874999999999996</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="J25" s="13">
-        <v>36.088000000000001</v>
+        <v>6.604000000000001</v>
       </c>
       <c r="L25" s="23">
-        <v>43.263012600000003</v>
+        <v>50.629249999999999</v>
       </c>
       <c r="M25" s="23">
-        <v>-2.9349851999999998</v>
+        <v>3.0572560000000002</v>
       </c>
       <c r="O25" t="s">
         <v>129</v>
@@ -2012,86 +2056,67 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>0.26111111111111107</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D26">
-        <v>119.7</v>
+        <v>115.1</v>
       </c>
       <c r="F26" s="15">
-        <v>0.4909722222222222</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="G26">
-        <v>18.8</v>
+        <v>25.1</v>
       </c>
       <c r="I26" s="15">
-        <v>1.0506944444444446</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="J26" s="13">
-        <v>39.103999999999999</v>
+        <v>15.704000000000002</v>
       </c>
       <c r="L26" s="23">
-        <v>41.382893899999999</v>
+        <v>48.584614000000002</v>
       </c>
       <c r="M26" s="23">
-        <v>2.1774322000000002</v>
+        <v>7.7507127000000002</v>
       </c>
       <c r="O26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="D27">
-        <v>175.8</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0.61041666666666661</v>
-      </c>
-      <c r="G27">
-        <v>29.5</v>
-      </c>
-      <c r="I27" s="15">
-        <v>1.2416666666666667</v>
-      </c>
-      <c r="J27" s="13">
-        <v>51.854000000000006</v>
-      </c>
-      <c r="L27" s="23">
-        <v>39.469907499999998</v>
-      </c>
-      <c r="M27" s="23">
-        <v>-0.37628810000000001</v>
-      </c>
-      <c r="O27" t="s">
-        <v>128</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="F27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="13"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="D28">
+        <v>148.80000000000001</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="I28" s="15">
-        <v>1.5645833333333334</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="J28" s="13">
-        <v>49.176000000000002</v>
-      </c>
-      <c r="L28" s="24">
-        <v>40.961613</v>
-      </c>
-      <c r="M28" s="24">
-        <v>-5.6676070000000003</v>
+        <v>36.088000000000001</v>
+      </c>
+      <c r="L28" s="23">
+        <v>43.263012600000003</v>
+      </c>
+      <c r="M28" s="23">
+        <v>-2.9349851999999998</v>
       </c>
       <c r="O28" t="s">
         <v>129</v>
@@ -2099,31 +2124,31 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>0.2631944444444444</v>
+        <v>0.26111111111111107</v>
       </c>
       <c r="D29">
-        <v>174.3</v>
+        <v>119.7</v>
       </c>
       <c r="F29" s="15">
-        <v>0.62430555555555556</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="G29">
-        <v>36.200000000000003</v>
+        <v>18.8</v>
       </c>
       <c r="I29" s="15">
-        <v>1.1375</v>
+        <v>1.0506944444444446</v>
       </c>
       <c r="J29" s="13">
-        <v>45.344000000000001</v>
+        <v>39.103999999999999</v>
       </c>
       <c r="L29" s="23">
-        <v>40.416704699999997</v>
+        <v>41.382893899999999</v>
       </c>
       <c r="M29" s="23">
-        <v>-3.7035825</v>
+        <v>2.1774322000000002</v>
       </c>
       <c r="O29" t="s">
         <v>128</v>
@@ -2131,94 +2156,113 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>0.30486111111111108</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D30">
-        <v>181.8</v>
-      </c>
-      <c r="F30" s="15"/>
+        <v>175.8</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="G30">
+        <v>29.5</v>
+      </c>
       <c r="I30" s="15">
-        <v>1.4465277777777779</v>
+        <v>1.2416666666666667</v>
       </c>
       <c r="J30" s="13">
-        <v>53.404000000000003</v>
+        <v>51.854000000000006</v>
       </c>
       <c r="L30" s="23">
-        <v>41.157943799999998</v>
+        <v>39.469907499999998</v>
       </c>
       <c r="M30" s="23">
-        <v>-8.6291053000000009</v>
+        <v>-0.37628810000000001</v>
       </c>
       <c r="O30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="D31">
-        <v>193.3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
       <c r="F31" s="15"/>
       <c r="I31" s="15">
-        <v>1.3979166666666669</v>
+        <v>1.5645833333333334</v>
       </c>
       <c r="J31" s="13">
-        <v>57.382000000000005</v>
-      </c>
-      <c r="L31" s="22">
-        <v>38.725299999999997</v>
-      </c>
-      <c r="M31" s="22">
-        <v>-9.15</v>
+        <v>49.176000000000002</v>
+      </c>
+      <c r="L31" s="24">
+        <v>40.961613</v>
+      </c>
+      <c r="M31" s="24">
+        <v>-5.6676070000000003</v>
       </c>
       <c r="O31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.2631944444444444</v>
+      </c>
+      <c r="D32">
+        <v>174.3</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="G32">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1.1375</v>
+      </c>
+      <c r="J32" s="13">
+        <v>45.344000000000001</v>
+      </c>
+      <c r="L32" s="23">
+        <v>40.416704699999997</v>
+      </c>
+      <c r="M32" s="23">
+        <v>-3.7035825</v>
+      </c>
+      <c r="O32" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32"/>
-      <c r="F32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="13"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
-        <v>0.2326388888888889</v>
+        <v>0.30486111111111108</v>
       </c>
       <c r="D33">
-        <v>91.5</v>
-      </c>
-      <c r="F33" s="15">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="G33">
-        <v>3.2</v>
-      </c>
+        <v>181.8</v>
+      </c>
+      <c r="F33" s="15"/>
       <c r="I33" s="15">
-        <v>6.4583333333333326E-2</v>
+        <v>1.4465277777777779</v>
       </c>
       <c r="J33" s="13">
-        <v>3.4319999999999999</v>
+        <v>53.404000000000003</v>
       </c>
       <c r="L33" s="23">
-        <v>51.219447500000001</v>
+        <v>41.157943799999998</v>
       </c>
       <c r="M33" s="23">
-        <v>4.4024643000000001</v>
+        <v>-8.6291053000000009</v>
       </c>
       <c r="O33" t="s">
         <v>129</v>
@@ -2226,91 +2270,67 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
-        <v>0.21458333333333335</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D34">
-        <v>88.6</v>
-      </c>
-      <c r="F34" s="15">
-        <v>7.8472222222222221E-2</v>
-      </c>
-      <c r="G34">
-        <v>4.5</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="13"/>
-      <c r="L34" s="23">
-        <v>50.879843800000003</v>
-      </c>
-      <c r="M34" s="23">
-        <v>4.7005176000000004</v>
+        <v>193.3</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="I34" s="15">
+        <v>1.3979166666666669</v>
+      </c>
+      <c r="J34" s="13">
+        <v>57.382000000000005</v>
+      </c>
+      <c r="L34" s="22">
+        <v>38.725299999999997</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-9.15</v>
       </c>
       <c r="O34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.21180555555555558</v>
-      </c>
-      <c r="D35">
-        <v>88.1</v>
-      </c>
-      <c r="F35" s="15">
-        <v>6.7361111111111108E-2</v>
-      </c>
-      <c r="G35">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I35" s="15">
-        <v>9.930555555555555E-2</v>
-      </c>
-      <c r="J35" s="13">
-        <v>4.7060000000000004</v>
-      </c>
-      <c r="L35" s="23">
-        <v>50.846557300000001</v>
-      </c>
-      <c r="M35" s="23">
-        <v>4.3516969999999997</v>
-      </c>
-      <c r="O35" t="s">
-        <v>128</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35"/>
+      <c r="F35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="13"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>0.25138888888888888</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="D36">
-        <v>94.7</v>
+        <v>91.5</v>
       </c>
       <c r="F36" s="15">
-        <v>7.8472222222222221E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="G36">
-        <v>4.5999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I36" s="15">
-        <v>0.10277777777777777</v>
+        <v>6.4583333333333326E-2</v>
       </c>
       <c r="J36" s="13">
-        <v>4.9400000000000004</v>
+        <v>3.4319999999999999</v>
       </c>
       <c r="L36" s="23">
-        <v>51.053581000000001</v>
+        <v>51.219447500000001</v>
       </c>
       <c r="M36" s="23">
-        <v>3.722969</v>
+        <v>4.4024643000000001</v>
       </c>
       <c r="O36" t="s">
         <v>129</v>
@@ -2318,200 +2338,196 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
-        <v>0.21944444444444444</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="D37">
-        <v>120.1</v>
+        <v>88.6</v>
       </c>
       <c r="F37" s="15">
-        <v>0.21458333333333335</v>
+        <v>7.8472222222222221E-2</v>
       </c>
       <c r="G37">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I37" s="15">
-        <v>0.24166666666666664</v>
-      </c>
-      <c r="J37" s="13">
-        <v>9.8020000000000014</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="13"/>
       <c r="L37" s="23">
-        <v>49.815272999999998</v>
+        <v>50.879843800000003</v>
       </c>
       <c r="M37" s="23">
-        <v>6.1295830000000002</v>
+        <v>4.7005176000000004</v>
       </c>
       <c r="O37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.21180555555555558</v>
+      </c>
+      <c r="D38">
+        <v>88.1</v>
+      </c>
+      <c r="F38" s="15">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="G38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I38" s="15">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="J38" s="13">
+        <v>4.7060000000000004</v>
+      </c>
+      <c r="L38" s="23">
+        <v>50.846557300000001</v>
+      </c>
+      <c r="M38" s="23">
+        <v>4.3516969999999997</v>
+      </c>
+      <c r="O38" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-      <c r="D38"/>
-      <c r="F38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="13"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
-        <v>0.22013888888888888</v>
+        <v>0.25138888888888888</v>
       </c>
       <c r="D39">
-        <v>115.89999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="F39" s="15">
-        <v>0.14375000000000002</v>
+        <v>7.8472222222222221E-2</v>
       </c>
       <c r="G39">
-        <v>12.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I39" s="15">
-        <v>0.20347222222222222</v>
+        <v>0.10277777777777777</v>
       </c>
       <c r="J39" s="13">
-        <v>7.8260000000000014</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="L39" s="23">
-        <v>50.937531</v>
+        <v>51.053581000000001</v>
       </c>
       <c r="M39" s="23">
-        <v>6.9602785999999996</v>
+        <v>3.722969</v>
       </c>
       <c r="O39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1">
-        <v>0.20763888888888887</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="D40">
-        <v>95.6</v>
+        <v>120.1</v>
       </c>
       <c r="F40" s="15">
-        <v>0.13055555555555556</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="G40">
-        <v>11.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I40" s="15">
-        <v>0.19652777777777777</v>
+        <v>0.24166666666666664</v>
       </c>
       <c r="J40" s="13">
-        <v>6.5780000000000012</v>
+        <v>9.8020000000000014</v>
       </c>
       <c r="L40" s="23">
-        <v>51.227741100000003</v>
+        <v>49.815272999999998</v>
       </c>
       <c r="M40" s="23">
-        <v>6.7734556000000001</v>
+        <v>6.1295830000000002</v>
       </c>
       <c r="O40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.21250000000000002</v>
-      </c>
-      <c r="D41">
-        <v>109.5</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.21180555555555555</v>
-      </c>
-      <c r="G41">
-        <v>15.8</v>
-      </c>
-      <c r="I41" s="15">
-        <v>0.29375000000000001</v>
-      </c>
-      <c r="J41" s="13">
-        <v>10.790000000000001</v>
-      </c>
-      <c r="L41" s="23">
-        <v>53.079296200000002</v>
-      </c>
-      <c r="M41" s="23">
-        <v>8.8016936999999995</v>
-      </c>
-      <c r="O41" t="s">
-        <v>129</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41"/>
+      <c r="F41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="13"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1">
-        <v>0.21250000000000002</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D42">
-        <v>135.10000000000002</v>
+        <v>115.89999999999999</v>
       </c>
       <c r="F42" s="15">
-        <v>0.19930555555555554</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="G42">
-        <v>19.3</v>
+        <v>12.8</v>
       </c>
       <c r="I42" s="15">
-        <v>0.3527777777777778</v>
+        <v>0.20347222222222222</v>
       </c>
       <c r="J42" s="13">
-        <v>12.454000000000001</v>
+        <v>7.8260000000000014</v>
       </c>
       <c r="L42" s="23">
-        <v>50.110922100000003</v>
+        <v>50.937531</v>
       </c>
       <c r="M42" s="23">
-        <v>8.6821266999999995</v>
+        <v>6.9602785999999996</v>
       </c>
       <c r="O42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1">
-        <v>0.21875</v>
+        <v>0.20763888888888887</v>
       </c>
       <c r="D43">
-        <v>126.89999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="F43" s="15">
-        <v>0.20208333333333331</v>
+        <v>0.13055555555555556</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>11.3</v>
       </c>
       <c r="I43" s="15">
-        <v>0.28333333333333333</v>
+        <v>0.19652777777777777</v>
       </c>
       <c r="J43" s="13">
-        <v>11.934000000000001</v>
+        <v>6.5780000000000012</v>
       </c>
       <c r="L43" s="23">
-        <v>52.374477900000002</v>
+        <v>51.227741100000003</v>
       </c>
       <c r="M43" s="23">
-        <v>9.7385532000000001</v>
+        <v>6.7734556000000001</v>
       </c>
       <c r="O43" t="s">
         <v>129</v>
@@ -2519,63 +2535,63 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1">
-        <v>0.21736111111111112</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D44">
-        <v>141.20000000000002</v>
+        <v>109.5</v>
       </c>
       <c r="F44" s="15">
-        <v>0.24374999999999999</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="G44">
-        <v>18.5</v>
+        <v>15.8</v>
       </c>
       <c r="I44" s="15">
-        <v>0.31458333333333333</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="J44" s="13">
-        <v>13.650000000000002</v>
+        <v>10.790000000000001</v>
       </c>
       <c r="L44" s="23">
-        <v>53.551084600000003</v>
+        <v>53.079296200000002</v>
       </c>
       <c r="M44" s="23">
-        <v>9.9936817999999992</v>
+        <v>8.8016936999999995</v>
       </c>
       <c r="O44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1">
-        <v>0.21875</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D45">
-        <v>117.7</v>
+        <v>135.10000000000002</v>
       </c>
       <c r="F45" s="15">
-        <v>0.28958333333333336</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="G45">
-        <v>25.1</v>
+        <v>19.3</v>
       </c>
       <c r="I45" s="15">
-        <v>0.45694444444444449</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="J45" s="13">
-        <v>18.07</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="L45" s="23">
-        <v>49.453871999999997</v>
+        <v>50.110922100000003</v>
       </c>
       <c r="M45" s="23">
-        <v>11.077298000000001</v>
+        <v>8.6821266999999995</v>
       </c>
       <c r="O45" t="s">
         <v>129</v>
@@ -2583,31 +2599,31 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
-        <v>0.22569444444444442</v>
+        <v>0.21875</v>
       </c>
       <c r="D46">
-        <v>124.39999999999999</v>
+        <v>126.89999999999999</v>
       </c>
       <c r="F46" s="15">
-        <v>0.25486111111111109</v>
+        <v>0.20208333333333331</v>
       </c>
       <c r="G46">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="I46" s="15">
-        <v>0.43611111111111112</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="J46" s="13">
-        <v>17.082000000000001</v>
+        <v>11.934000000000001</v>
       </c>
       <c r="L46" s="23">
-        <v>48.7758459</v>
+        <v>52.374477900000002</v>
       </c>
       <c r="M46" s="23">
-        <v>9.1829321000000004</v>
+        <v>9.7385532000000001</v>
       </c>
       <c r="O46" t="s">
         <v>129</v>
@@ -2615,31 +2631,31 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1">
-        <v>0.24861111111111106</v>
+        <v>0.21736111111111112</v>
       </c>
       <c r="D47">
-        <v>128.1</v>
+        <v>141.20000000000002</v>
       </c>
       <c r="F47" s="15">
-        <v>0.33749999999999997</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="G47">
-        <v>132.5</v>
+        <v>18.5</v>
       </c>
       <c r="I47" s="15">
-        <v>0.5576388888888888</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="J47" s="13">
-        <v>22.437999999999999</v>
+        <v>13.650000000000002</v>
       </c>
       <c r="L47" s="23">
-        <v>48.135125299999999</v>
+        <v>53.551084600000003</v>
       </c>
       <c r="M47" s="23">
-        <v>11.5819805</v>
+        <v>9.9936817999999992</v>
       </c>
       <c r="O47" t="s">
         <v>128</v>
@@ -2647,31 +2663,31 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
-        <v>0.34166666666666662</v>
+        <v>0.21875</v>
       </c>
       <c r="D48">
-        <v>211.8</v>
+        <v>117.7</v>
       </c>
       <c r="F48" s="15">
-        <v>0.38680555555555557</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="G48">
-        <v>37.299999999999997</v>
+        <v>25.1</v>
       </c>
       <c r="I48" s="15">
-        <v>0.51944444444444438</v>
+        <v>0.45694444444444449</v>
       </c>
       <c r="J48" s="13">
-        <v>20.878</v>
+        <v>18.07</v>
       </c>
       <c r="L48" s="23">
-        <v>51.0504088</v>
+        <v>49.453871999999997</v>
       </c>
       <c r="M48" s="23">
-        <v>13.737262100000001</v>
+        <v>11.077298000000001</v>
       </c>
       <c r="O48" t="s">
         <v>129</v>
@@ -2679,95 +2695,95 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1">
-        <v>0.22152777777777777</v>
+        <v>0.22569444444444442</v>
       </c>
       <c r="D49">
-        <v>124.8</v>
+        <v>124.39999999999999</v>
       </c>
       <c r="F49" s="15">
-        <v>0.27291666666666664</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="G49">
-        <v>21.7</v>
+        <v>19.5</v>
       </c>
       <c r="I49" s="15">
-        <v>0.4777777777777778</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="J49" s="13">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="L49" s="22">
-        <v>52.52</v>
-      </c>
-      <c r="M49" s="22">
-        <v>13.404999999999999</v>
+        <v>17.082000000000001</v>
+      </c>
+      <c r="L49" s="23">
+        <v>48.7758459</v>
+      </c>
+      <c r="M49" s="23">
+        <v>9.1829321000000004</v>
       </c>
       <c r="O49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1">
-        <v>0.34027777777777773</v>
+        <v>0.24861111111111106</v>
       </c>
       <c r="D50">
-        <v>233.9</v>
+        <v>128.1</v>
       </c>
       <c r="F50" s="15">
-        <v>0.37013888888888885</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="G50">
-        <v>30.4</v>
+        <v>132.5</v>
       </c>
       <c r="I50" s="15">
-        <v>0.4465277777777778</v>
+        <v>0.5576388888888888</v>
       </c>
       <c r="J50" s="13">
-        <v>18.044</v>
+        <v>22.437999999999999</v>
       </c>
       <c r="L50" s="23">
-        <v>51.340632100000001</v>
+        <v>48.135125299999999</v>
       </c>
       <c r="M50" s="23">
-        <v>12.3747329</v>
+        <v>11.5819805</v>
       </c>
       <c r="O50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.34166666666666662</v>
       </c>
       <c r="D51">
-        <v>95.1</v>
+        <v>211.8</v>
       </c>
       <c r="F51" s="15">
-        <v>0.13194444444444445</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="G51">
-        <v>10.8</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I51" s="15">
-        <v>0.15486111111111112</v>
+        <v>0.51944444444444438</v>
       </c>
       <c r="J51" s="13">
-        <v>6.4480000000000013</v>
+        <v>20.878</v>
       </c>
       <c r="L51" s="23">
-        <v>50.775554999999997</v>
+        <v>51.0504088</v>
       </c>
       <c r="M51" s="23">
-        <v>6.0836110000000003</v>
+        <v>13.737262100000001</v>
       </c>
       <c r="O51" t="s">
         <v>129</v>
@@ -2775,506 +2791,506 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1">
-        <v>0.27013888888888887</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="D52">
-        <v>124.2</v>
+        <v>124.8</v>
       </c>
       <c r="F52" s="15">
-        <v>0.19791666666666666</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="G52">
-        <v>16.5</v>
+        <v>21.7</v>
       </c>
       <c r="I52" s="15">
-        <v>0.27986111111111112</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="J52" s="13">
-        <v>9.8280000000000012</v>
-      </c>
-      <c r="L52" s="23">
-        <v>50.3569429</v>
-      </c>
-      <c r="M52" s="23">
-        <v>7.5889958999999996</v>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="L52" s="22">
+        <v>52.52</v>
+      </c>
+      <c r="M52" s="22">
+        <v>13.404999999999999</v>
       </c>
       <c r="O52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1">
-        <v>0.3666666666666667</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D53">
-        <v>223</v>
+        <v>233.9</v>
       </c>
       <c r="F53" s="15">
-        <v>0.34513888888888888</v>
+        <v>0.37013888888888885</v>
       </c>
       <c r="G53">
-        <v>28.3</v>
+        <v>30.4</v>
       </c>
       <c r="I53" s="15">
-        <v>0.51597222222222217</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="J53" s="13">
-        <v>16.406000000000002</v>
+        <v>18.044</v>
       </c>
       <c r="L53" s="23">
-        <v>50.927222999999998</v>
+        <v>51.340632100000001</v>
       </c>
       <c r="M53" s="23">
-        <v>11.586111000000001</v>
+        <v>12.3747329</v>
       </c>
       <c r="O53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C54" s="1"/>
-      <c r="D54"/>
-      <c r="F54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="13"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
+      <c r="A54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D54">
+        <v>95.1</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G54">
+        <v>10.8</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0.15486111111111112</v>
+      </c>
+      <c r="J54" s="13">
+        <v>6.4480000000000013</v>
+      </c>
+      <c r="L54" s="23">
+        <v>50.775554999999997</v>
+      </c>
+      <c r="M54" s="23">
+        <v>6.0836110000000003</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1">
-        <v>0.23125000000000001</v>
+        <v>0.27013888888888887</v>
       </c>
       <c r="D55">
-        <v>130.30000000000001</v>
+        <v>124.2</v>
       </c>
       <c r="F55" s="15">
-        <v>0.30763888888888891</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="G55">
-        <v>21.8</v>
+        <v>16.5</v>
       </c>
       <c r="I55" s="15">
-        <v>0.63749999999999996</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="J55" s="13">
-        <v>20.67</v>
+        <v>9.8280000000000012</v>
       </c>
       <c r="L55" s="23">
-        <v>47.374448899999997</v>
+        <v>50.3569429</v>
       </c>
       <c r="M55" s="23">
-        <v>8.5410421999999997</v>
+        <v>7.5889958999999996</v>
       </c>
       <c r="O55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1">
-        <v>0.22638888888888886</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="D56">
-        <v>121.5</v>
+        <v>223</v>
       </c>
       <c r="F56" s="15">
-        <v>0.30833333333333335</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="G56">
-        <v>25.1</v>
+        <v>28.3</v>
       </c>
       <c r="I56" s="15">
-        <v>0.5541666666666667</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="J56" s="13">
-        <v>18.46</v>
+        <v>16.406000000000002</v>
       </c>
       <c r="L56" s="23">
-        <v>47.559598600000001</v>
+        <v>50.927222999999998</v>
       </c>
       <c r="M56" s="23">
-        <v>7.5885761</v>
+        <v>11.586111000000001</v>
       </c>
       <c r="O56" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="D57">
-        <v>204.10000000000002</v>
-      </c>
-      <c r="F57" s="15">
-        <v>0.34930555555555554</v>
-      </c>
-      <c r="G57">
-        <v>21.8</v>
-      </c>
-      <c r="I57" s="15">
-        <v>0.6513888888888888</v>
-      </c>
-      <c r="J57" s="13">
-        <v>21.501999999999999</v>
-      </c>
-      <c r="L57" s="22">
-        <v>46.948099999999997</v>
-      </c>
-      <c r="M57" s="22">
-        <v>7.4474999999999998</v>
-      </c>
-      <c r="O57" t="s">
-        <v>128</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57"/>
+      <c r="F57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="13"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1">
-        <v>0.2722222222222222</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="D58">
-        <v>134.5</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="F58" s="15">
-        <v>0.40277777777777773</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G58">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="I58" s="15">
-        <v>0.71041666666666659</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="J58" s="13">
-        <v>21.164000000000001</v>
+        <v>20.67</v>
       </c>
       <c r="L58" s="23">
-        <v>46.519962</v>
+        <v>47.374448899999997</v>
       </c>
       <c r="M58" s="23">
-        <v>6.633597</v>
+        <v>8.5410421999999997</v>
       </c>
       <c r="O58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.22638888888888886</v>
+      </c>
+      <c r="D59">
+        <v>121.5</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="G59">
+        <v>25.1</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="J59" s="13">
+        <v>18.46</v>
+      </c>
+      <c r="L59" s="23">
+        <v>47.559598600000001</v>
+      </c>
+      <c r="M59" s="23">
+        <v>7.5885761</v>
+      </c>
+      <c r="O59" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C59" s="1"/>
-      <c r="D59"/>
-      <c r="F59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="13"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
-        <v>0.23194444444444445</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D60">
-        <v>136.20000000000002</v>
+        <v>204.10000000000002</v>
       </c>
       <c r="F60" s="15">
-        <v>0.4284722222222222</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="G60">
-        <v>34.1</v>
+        <v>21.8</v>
       </c>
       <c r="I60" s="15">
-        <v>0.72083333333333321</v>
+        <v>0.6513888888888888</v>
       </c>
       <c r="J60" s="13">
-        <v>25.193999999999999</v>
-      </c>
-      <c r="L60" s="23">
-        <v>47.269212400000001</v>
-      </c>
-      <c r="M60" s="23">
-        <v>11.404102399999999</v>
+        <v>21.501999999999999</v>
+      </c>
+      <c r="L60" s="22">
+        <v>46.948099999999997</v>
+      </c>
+      <c r="M60" s="22">
+        <v>7.4474999999999998</v>
       </c>
       <c r="O60" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
-        <v>0.3666666666666667</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="D61">
-        <v>219.9</v>
+        <v>134.5</v>
       </c>
       <c r="F61" s="15">
-        <v>0.4152777777777778</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="G61">
-        <v>35.200000000000003</v>
+        <v>21.9</v>
       </c>
       <c r="I61" s="15">
-        <v>0.63749999999999996</v>
+        <v>0.71041666666666659</v>
       </c>
       <c r="J61" s="13">
-        <v>26.26</v>
-      </c>
-      <c r="L61" s="24">
-        <v>47.809489999999997</v>
-      </c>
-      <c r="M61" s="24">
-        <v>13.055009999999999</v>
+        <v>21.164000000000001</v>
+      </c>
+      <c r="L61" s="23">
+        <v>46.519962</v>
+      </c>
+      <c r="M61" s="23">
+        <v>6.633597</v>
       </c>
       <c r="O61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.36388888888888887</v>
-      </c>
-      <c r="D62">
-        <v>239</v>
-      </c>
-      <c r="F62" s="15">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="G62">
-        <v>39.9</v>
-      </c>
-      <c r="I62" s="15">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="J62" s="13">
-        <v>30.784000000000002</v>
-      </c>
-      <c r="L62" s="24">
-        <v>47.076667999999998</v>
-      </c>
-      <c r="M62" s="24">
-        <v>15.421371000000001</v>
-      </c>
-      <c r="O62" t="s">
-        <v>129</v>
-      </c>
+      <c r="C62" s="1"/>
+      <c r="D62"/>
+      <c r="F62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="13"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C63" s="1">
-        <v>0.25902777777777775</v>
+        <v>0.23194444444444445</v>
       </c>
       <c r="D63">
-        <v>163.5</v>
+        <v>136.20000000000002</v>
       </c>
       <c r="F63" s="15">
-        <v>0.48541666666666666</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G63">
-        <v>35.5</v>
+        <v>34.1</v>
       </c>
       <c r="I63" s="15">
-        <v>0.83888888888888891</v>
+        <v>0.72083333333333321</v>
       </c>
       <c r="J63" s="13">
-        <v>30.836000000000002</v>
+        <v>25.193999999999999</v>
       </c>
       <c r="L63" s="23">
-        <v>48.208353700000004</v>
+        <v>47.269212400000001</v>
       </c>
       <c r="M63" s="23">
-        <v>16.372504200000002</v>
+        <v>11.404102399999999</v>
       </c>
       <c r="O63" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1">
-        <v>0.34791666666666665</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="D64">
-        <v>228</v>
+        <v>219.9</v>
       </c>
       <c r="F64" s="15">
-        <v>0.43958333333333338</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="G64">
-        <v>32.700000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="I64" s="15">
-        <v>0.89097222222222228</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="J64" s="13">
-        <v>26.598000000000003</v>
-      </c>
-      <c r="L64" s="23">
-        <v>48.3059078</v>
-      </c>
-      <c r="M64" s="23">
-        <v>14.286198000000001</v>
+        <v>26.26</v>
+      </c>
+      <c r="L64" s="24">
+        <v>47.809489999999997</v>
+      </c>
+      <c r="M64" s="24">
+        <v>13.055009999999999</v>
       </c>
       <c r="O64" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C65" s="1"/>
-      <c r="D65"/>
-      <c r="F65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="13"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
+      <c r="A65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="D65">
+        <v>239</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="G65">
+        <v>39.9</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="J65" s="13">
+        <v>30.784000000000002</v>
+      </c>
+      <c r="L65" s="24">
+        <v>47.076667999999998</v>
+      </c>
+      <c r="M65" s="24">
+        <v>15.421371000000001</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.25902777777777775</v>
       </c>
       <c r="D66">
-        <v>240.70000000000002</v>
+        <v>163.5</v>
       </c>
       <c r="F66" s="15">
-        <v>0.54652777777777783</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="G66">
-        <v>30.9</v>
+        <v>35.5</v>
       </c>
       <c r="I66" s="15">
-        <v>0.88402777777777775</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="J66" s="13">
-        <v>29.744</v>
+        <v>30.836000000000002</v>
       </c>
       <c r="L66" s="23">
-        <v>45.070312000000001</v>
-      </c>
-      <c r="M66" s="22">
-        <v>7.6868565000000002</v>
+        <v>48.208353700000004</v>
+      </c>
+      <c r="M66" s="23">
+        <v>16.372504200000002</v>
       </c>
       <c r="O66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
-        <v>0.24236111111111108</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="D67">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="F67" s="15">
-        <v>0.48541666666666666</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="G67">
-        <v>28.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I67" s="15">
-        <v>0.75555555555555554</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J67" s="13">
-        <v>27.794</v>
+        <v>26.598000000000003</v>
       </c>
       <c r="L67" s="23">
-        <v>45.466799999999999</v>
+        <v>48.3059078</v>
       </c>
       <c r="M67" s="23">
-        <v>9.1905000000000001</v>
+        <v>14.286198000000001</v>
       </c>
       <c r="O67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.35902777777777778</v>
-      </c>
-      <c r="D68">
-        <v>266.10000000000002</v>
-      </c>
-      <c r="F68" s="15">
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="G68">
-        <v>25.5</v>
-      </c>
-      <c r="I68" s="15">
-        <v>1.0055555555555555</v>
-      </c>
-      <c r="J68" s="13">
-        <v>31.408000000000001</v>
-      </c>
-      <c r="L68" s="23">
-        <v>44.414164999999997</v>
-      </c>
-      <c r="M68" s="23">
-        <v>8.9421839999999992</v>
-      </c>
-      <c r="O68" t="s">
-        <v>129</v>
-      </c>
+      <c r="C68" s="1"/>
+      <c r="D68"/>
+      <c r="F68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="13"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1">
-        <v>0.24583333333333329</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="D69">
-        <v>166</v>
+        <v>240.70000000000002</v>
       </c>
       <c r="F69" s="15">
-        <v>0.76666666666666661</v>
+        <v>0.54652777777777783</v>
       </c>
       <c r="G69">
-        <v>28.4</v>
+        <v>30.9</v>
       </c>
       <c r="I69" s="15">
-        <v>0.98472222222222228</v>
+        <v>0.88402777777777775</v>
       </c>
       <c r="J69" s="13">
-        <v>33.384</v>
+        <v>29.744</v>
       </c>
       <c r="L69" s="23">
-        <v>44.494886999999999</v>
-      </c>
-      <c r="M69" s="23">
-        <v>11.3426162</v>
+        <v>45.070312000000001</v>
+      </c>
+      <c r="M69" s="22">
+        <v>7.6868565000000002</v>
       </c>
       <c r="O69" t="s">
         <v>129</v>
@@ -3282,63 +3298,63 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1">
-        <v>0.26874999999999999</v>
+        <v>0.24236111111111108</v>
       </c>
       <c r="D70">
-        <v>160.30000000000001</v>
+        <v>142</v>
       </c>
       <c r="F70" s="15">
-        <v>0.74722222222222223</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="G70">
-        <v>50.4</v>
+        <v>28.9</v>
       </c>
       <c r="I70" s="15">
-        <v>1.0541666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="J70" s="13">
-        <v>33.93</v>
+        <v>27.794</v>
       </c>
       <c r="L70" s="23">
-        <v>45.407969999999999</v>
+        <v>45.466799999999999</v>
       </c>
       <c r="M70" s="23">
-        <v>11.885859999999999</v>
+        <v>9.1905000000000001</v>
       </c>
       <c r="O70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C71" s="1">
-        <v>0.24513888888888885</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="D71">
-        <v>174.70000000000002</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="F71" s="15">
-        <v>0.76597222222222217</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="G71">
-        <v>30.8</v>
+        <v>25.5</v>
       </c>
       <c r="I71" s="15">
-        <v>1.0354166666666667</v>
+        <v>1.0055555555555555</v>
       </c>
       <c r="J71" s="13">
-        <v>38.49</v>
+        <v>31.408000000000001</v>
       </c>
       <c r="L71" s="23">
-        <v>43.722838600000003</v>
+        <v>44.414164999999997</v>
       </c>
       <c r="M71" s="23">
-        <v>10.401688800000001</v>
+        <v>8.9421839999999992</v>
       </c>
       <c r="O71" t="s">
         <v>129</v>
@@ -3346,31 +3362,31 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1">
-        <v>0.37152777777777779</v>
+        <v>0.24583333333333329</v>
       </c>
       <c r="D72">
-        <v>244.10000000000002</v>
+        <v>166</v>
       </c>
       <c r="F72" s="15">
-        <v>0.9194444444444444</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="G72">
-        <v>68.400000000000006</v>
+        <v>28.4</v>
       </c>
       <c r="I72" s="15">
-        <v>1.1916666666666669</v>
+        <v>0.98472222222222228</v>
       </c>
       <c r="J72" s="13">
-        <v>42.884</v>
+        <v>33.384</v>
       </c>
       <c r="L72" s="23">
-        <v>43.107032099999998</v>
+        <v>44.494886999999999</v>
       </c>
       <c r="M72" s="23">
-        <v>12.402996209906499</v>
+        <v>11.3426162</v>
       </c>
       <c r="O72" t="s">
         <v>129</v>
@@ -3378,90 +3394,95 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C73" s="1">
-        <v>0.37083333333333335</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="D73">
-        <v>268.40000000000003</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="F73" s="15">
-        <v>0.89097222222222217</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="G73">
-        <v>73.400000000000006</v>
+        <v>50.4</v>
       </c>
       <c r="I73" s="15">
-        <v>1.182638888888889</v>
+        <v>1.0541666666666667</v>
       </c>
       <c r="J73" s="13">
-        <v>42.718000000000004</v>
+        <v>33.93</v>
       </c>
       <c r="L73" s="23">
-        <v>41.893320299999999</v>
+        <v>45.407969999999999</v>
       </c>
       <c r="M73" s="23">
-        <v>12.482932099999999</v>
+        <v>11.885859999999999</v>
       </c>
       <c r="O73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74" s="1">
-        <v>0.26944444444444443</v>
+        <v>0.24513888888888885</v>
       </c>
       <c r="D74">
-        <v>139.60000000000002</v>
+        <v>174.70000000000002</v>
       </c>
       <c r="F74" s="15">
-        <v>0.94930555555555562</v>
+        <v>0.76597222222222217</v>
       </c>
       <c r="G74">
-        <v>82.4</v>
+        <v>30.8</v>
       </c>
       <c r="I74" s="15">
-        <v>1.320138888888889</v>
+        <v>1.0354166666666667</v>
       </c>
       <c r="J74" s="13">
-        <v>51.230000000000004</v>
+        <v>38.49</v>
       </c>
       <c r="L74" s="23">
-        <v>40.851774599999999</v>
+        <v>43.722838600000003</v>
       </c>
       <c r="M74" s="23">
-        <v>14.2681244</v>
+        <v>10.401688800000001</v>
       </c>
       <c r="O74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C75" s="1">
-        <v>0.42638888888888887</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="D75">
-        <v>308.3</v>
+        <v>244.10000000000002</v>
       </c>
       <c r="F75" s="15">
-        <v>1.14375</v>
+        <v>0.9194444444444444</v>
       </c>
       <c r="G75">
-        <v>62.3</v>
-      </c>
-      <c r="I75" s="15"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1.1916666666666669</v>
+      </c>
+      <c r="J75" s="13">
+        <v>42.884</v>
+      </c>
       <c r="L75" s="23">
-        <v>39.299999</v>
+        <v>43.107032099999998</v>
       </c>
       <c r="M75" s="23">
-        <v>16.25</v>
+        <v>12.402996209906499</v>
       </c>
       <c r="O75" t="s">
         <v>129</v>
@@ -3469,31 +3490,31 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C76" s="1">
-        <v>0.24166666666666664</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="D76">
-        <v>102.3</v>
+        <v>268.40000000000003</v>
       </c>
       <c r="F76" s="15">
-        <v>0.80833333333333324</v>
+        <v>0.89097222222222217</v>
       </c>
       <c r="G76">
-        <v>32.5</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I76" s="15">
-        <v>1.0368055555555558</v>
+        <v>1.182638888888889</v>
       </c>
       <c r="J76" s="13">
-        <v>35.984000000000002</v>
+        <v>42.718000000000004</v>
       </c>
       <c r="L76" s="23">
-        <v>43.769560400000003</v>
+        <v>41.893320299999999</v>
       </c>
       <c r="M76" s="23">
-        <v>11.2558136</v>
+        <v>12.482932099999999</v>
       </c>
       <c r="O76" t="s">
         <v>128</v>
@@ -3501,232 +3522,227 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C77" s="1">
-        <v>0.24374999999999997</v>
+        <v>0.26944444444444443</v>
       </c>
       <c r="D77">
-        <v>158.5</v>
+        <v>139.60000000000002</v>
       </c>
       <c r="F77" s="15">
-        <v>0.72291666666666676</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="G77">
-        <v>51.5</v>
+        <v>82.4</v>
       </c>
       <c r="I77" s="15">
-        <v>0.90486111111111112</v>
+        <v>1.320138888888889</v>
       </c>
       <c r="J77" s="13">
-        <v>34.554000000000002</v>
+        <v>51.230000000000004</v>
       </c>
       <c r="L77" s="23">
-        <v>45.437190800000003</v>
+        <v>40.851774599999999</v>
       </c>
       <c r="M77" s="23">
-        <v>12.3345898</v>
+        <v>14.2681244</v>
       </c>
       <c r="O77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C78" s="1">
-        <v>0.23749999999999999</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="D78">
-        <v>149.80000000000001</v>
+        <v>308.3</v>
       </c>
       <c r="F78" s="15">
-        <v>0.78472222222222221</v>
+        <v>1.14375</v>
       </c>
       <c r="G78">
-        <v>54.6</v>
-      </c>
-      <c r="I78" s="15">
-        <v>0.84583333333333321</v>
-      </c>
-      <c r="J78" s="13">
-        <v>31.720000000000002</v>
-      </c>
+        <v>62.3</v>
+      </c>
+      <c r="I78" s="15"/>
       <c r="L78" s="23">
-        <v>45.441586000000001</v>
+        <v>39.299999</v>
       </c>
       <c r="M78" s="23">
-        <v>10.973442</v>
+        <v>16.25</v>
       </c>
       <c r="O78" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C79" s="1"/>
-      <c r="D79"/>
-      <c r="F79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="13"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
+      <c r="A79" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.24166666666666664</v>
+      </c>
+      <c r="D79">
+        <v>102.3</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="G79">
+        <v>32.5</v>
+      </c>
+      <c r="I79" s="15">
+        <v>1.0368055555555558</v>
+      </c>
+      <c r="J79" s="13">
+        <v>35.984000000000002</v>
+      </c>
+      <c r="L79" s="23">
+        <v>43.769560400000003</v>
+      </c>
+      <c r="M79" s="23">
+        <v>11.2558136</v>
+      </c>
+      <c r="O79" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C80" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.24374999999999997</v>
       </c>
       <c r="D80">
-        <v>132.70000000000002</v>
+        <v>158.5</v>
       </c>
       <c r="F80" s="15">
-        <v>0.5083333333333333</v>
+        <v>0.72291666666666676</v>
       </c>
       <c r="G80">
-        <v>46</v>
+        <v>51.5</v>
       </c>
       <c r="I80" s="15">
-        <v>0.67569444444444438</v>
+        <v>0.90486111111111112</v>
       </c>
       <c r="J80" s="13">
-        <v>24.388000000000002</v>
+        <v>34.554000000000002</v>
       </c>
       <c r="L80" s="23">
-        <v>50.075538100000003</v>
+        <v>45.437190800000003</v>
       </c>
       <c r="M80" s="23">
-        <v>14.4378005</v>
+        <v>12.3345898</v>
       </c>
       <c r="O80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81" s="1">
-        <v>0.24930555555555556</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="D81">
-        <v>106.7</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="F81" s="15">
-        <v>0.63750000000000007</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="G81">
-        <v>85</v>
+        <v>54.6</v>
       </c>
       <c r="I81" s="15">
-        <v>0.81805555555555554</v>
+        <v>0.84583333333333321</v>
       </c>
       <c r="J81" s="13">
-        <v>32.604000000000006</v>
+        <v>31.720000000000002</v>
       </c>
       <c r="L81" s="23">
-        <v>52.231923700000003</v>
+        <v>45.441586000000001</v>
       </c>
       <c r="M81" s="23">
-        <v>21.006726499999999</v>
+        <v>10.973442</v>
       </c>
       <c r="O81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.24930555555555556</v>
-      </c>
-      <c r="D82">
-        <v>104.89999999999999</v>
-      </c>
-      <c r="F82" s="15">
-        <v>0.77708333333333324</v>
-      </c>
-      <c r="G82">
-        <v>89.4</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0.89097222222222228</v>
-      </c>
-      <c r="J82" s="13">
-        <v>33.201999999999998</v>
-      </c>
-      <c r="L82" s="23">
-        <v>50.064650100000001</v>
-      </c>
-      <c r="M82" s="23">
-        <v>19.944979</v>
-      </c>
-      <c r="O82" t="s">
-        <v>128</v>
-      </c>
+      <c r="C82" s="1"/>
+      <c r="D82"/>
+      <c r="F82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="13"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C83" s="1">
-        <v>0.37777777777777777</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D83">
-        <v>268</v>
+        <v>132.70000000000002</v>
       </c>
       <c r="F83" s="15">
         <v>0.5083333333333333</v>
       </c>
       <c r="G83">
-        <v>52.3</v>
+        <v>46</v>
       </c>
       <c r="I83" s="15">
-        <v>0.6513888888888888</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="J83" s="13">
-        <v>24.752000000000002</v>
+        <v>24.388000000000002</v>
       </c>
       <c r="L83" s="23">
-        <v>52.409537999999998</v>
+        <v>50.075538100000003</v>
       </c>
       <c r="M83" s="23">
-        <v>16.931992000000001</v>
+        <v>14.4378005</v>
       </c>
       <c r="O83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C84" s="1">
-        <v>0.35625000000000001</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D84">
-        <v>245.5</v>
+        <v>106.7</v>
       </c>
       <c r="F84" s="15">
-        <v>0.55902777777777779</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="G84">
-        <v>36.799999999999997</v>
+        <v>85</v>
       </c>
       <c r="I84" s="15">
-        <v>1.0854166666666667</v>
+        <v>0.81805555555555554</v>
       </c>
       <c r="J84" s="13">
-        <v>32.864000000000004</v>
+        <v>32.604000000000006</v>
       </c>
       <c r="L84" s="23">
-        <v>48.148596499999996</v>
+        <v>52.231923700000003</v>
       </c>
       <c r="M84" s="23">
-        <v>17.107747799999999</v>
+        <v>21.006726499999999</v>
       </c>
       <c r="O84" t="s">
         <v>128</v>
@@ -3734,31 +3750,31 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C85" s="1">
-        <v>0.26111111111111107</v>
+        <v>0.24930555555555556</v>
       </c>
       <c r="D85">
-        <v>114.2</v>
+        <v>104.89999999999999</v>
       </c>
       <c r="F85" s="15">
-        <v>0.8520833333333333</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="G85">
-        <v>44.9</v>
+        <v>89.4</v>
       </c>
       <c r="I85" s="15">
-        <v>1.0541666666666667</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J85" s="13">
-        <v>37.283999999999999</v>
+        <v>33.201999999999998</v>
       </c>
       <c r="L85" s="23">
-        <v>47.497911999999999</v>
+        <v>50.064650100000001</v>
       </c>
       <c r="M85" s="23">
-        <v>19.040234999999999</v>
+        <v>19.944979</v>
       </c>
       <c r="O85" t="s">
         <v>128</v>
@@ -3766,95 +3782,95 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="1">
-        <v>0.25486111111111109</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="D86">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="F86" s="15">
-        <v>0.90694444444444444</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="G86">
-        <v>45.8</v>
+        <v>52.3</v>
       </c>
       <c r="I86" s="15">
-        <v>0.96041666666666659</v>
+        <v>0.6513888888888888</v>
       </c>
       <c r="J86" s="13">
-        <v>35.49</v>
+        <v>24.752000000000002</v>
       </c>
       <c r="L86" s="23">
-        <v>45.815010800000003</v>
+        <v>52.409537999999998</v>
       </c>
       <c r="M86" s="23">
-        <v>15.981919</v>
+        <v>16.931992000000001</v>
       </c>
       <c r="O86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C87" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="D87">
-        <v>125.1</v>
+        <v>245.5</v>
       </c>
       <c r="F87" s="15">
-        <v>1.2861111111111112</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="G87">
-        <v>59.3</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I87" s="15">
-        <v>1.245138888888889</v>
+        <v>1.0854166666666667</v>
       </c>
       <c r="J87" s="13">
-        <v>45.603999999999999</v>
+        <v>32.864000000000004</v>
       </c>
       <c r="L87" s="23">
-        <v>43.511638300000001</v>
+        <v>48.148596499999996</v>
       </c>
       <c r="M87" s="23">
-        <v>16.439965900000001</v>
+        <v>17.107747799999999</v>
       </c>
       <c r="O87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C88" s="1">
-        <v>0.39652777777777781</v>
+        <v>0.26111111111111107</v>
       </c>
       <c r="D88">
-        <v>300.40000000000003</v>
+        <v>114.2</v>
       </c>
       <c r="F88" s="15">
-        <v>1.5166666666666666</v>
+        <v>0.8520833333333333</v>
       </c>
       <c r="G88">
-        <v>99.1</v>
+        <v>44.9</v>
       </c>
       <c r="I88" s="15">
-        <v>1.757638888888889</v>
+        <v>1.0541666666666667</v>
       </c>
       <c r="J88" s="13">
-        <v>61.084000000000003</v>
+        <v>37.283999999999999</v>
       </c>
       <c r="L88" s="23">
-        <v>44.426767400000003</v>
+        <v>47.497911999999999</v>
       </c>
       <c r="M88" s="23">
-        <v>26.1025384</v>
+        <v>19.040234999999999</v>
       </c>
       <c r="O88" t="s">
         <v>128</v>
@@ -3862,104 +3878,127 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C89" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="D89">
-        <v>158.9</v>
+        <v>107</v>
       </c>
       <c r="F89" s="15">
-        <v>0.8520833333333333</v>
+        <v>0.90694444444444444</v>
       </c>
       <c r="G89">
-        <v>80.099999999999994</v>
+        <v>45.8</v>
       </c>
       <c r="I89" s="15">
-        <v>0.89097222222222228</v>
+        <v>0.96041666666666659</v>
       </c>
       <c r="J89" s="13">
-        <v>32.578000000000003</v>
+        <v>35.49</v>
       </c>
       <c r="L89" s="23">
-        <v>54.3520252</v>
-      </c>
-      <c r="M89" s="22">
-        <v>18.646638400000001</v>
+        <v>45.815010800000003</v>
+      </c>
+      <c r="M89" s="23">
+        <v>15.981919</v>
       </c>
       <c r="O89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C90" s="1">
-        <v>0.28611111111111109</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D90">
-        <v>165.20000000000002</v>
+        <v>125.1</v>
       </c>
       <c r="F90" s="15">
-        <v>1.0493055555555555</v>
+        <v>1.2861111111111112</v>
       </c>
       <c r="G90">
-        <v>112.4</v>
+        <v>59.3</v>
       </c>
       <c r="I90" s="15">
-        <v>1.5923611111111111</v>
+        <v>1.245138888888889</v>
       </c>
       <c r="J90" s="13">
-        <v>57.096000000000004</v>
+        <v>45.603999999999999</v>
       </c>
       <c r="L90" s="23">
-        <v>42.697708200000001</v>
+        <v>43.511638300000001</v>
       </c>
       <c r="M90" s="23">
-        <v>23.3218675</v>
+        <v>16.439965900000001</v>
       </c>
       <c r="O90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="D91">
+        <v>300.40000000000003</v>
+      </c>
+      <c r="F91" s="15">
+        <v>1.5166666666666666</v>
+      </c>
+      <c r="G91">
+        <v>99.1</v>
+      </c>
+      <c r="I91" s="15">
+        <v>1.757638888888889</v>
+      </c>
+      <c r="J91" s="13">
+        <v>61.084000000000003</v>
+      </c>
+      <c r="L91" s="23">
+        <v>44.426767400000003</v>
+      </c>
+      <c r="M91" s="23">
+        <v>26.1025384</v>
+      </c>
+      <c r="O91" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C91" s="1"/>
-      <c r="D91"/>
-      <c r="F91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="13"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" s="1">
-        <v>0.28402777777777777</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D92">
-        <v>127.89999999999999</v>
+        <v>158.9</v>
       </c>
       <c r="F92" s="15">
-        <v>0.46597222222222223</v>
+        <v>0.8520833333333333</v>
       </c>
       <c r="G92">
-        <v>36.799999999999997</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="I92" s="15">
-        <v>0.77638888888888891</v>
+        <v>0.89097222222222228</v>
       </c>
       <c r="J92" s="13">
-        <v>22.152000000000001</v>
+        <v>32.578000000000003</v>
       </c>
       <c r="L92" s="23">
-        <v>56.149627799999998</v>
-      </c>
-      <c r="M92" s="23">
-        <v>10.2134046</v>
+        <v>54.3520252</v>
+      </c>
+      <c r="M92" s="22">
+        <v>18.646638400000001</v>
       </c>
       <c r="O92" t="s">
         <v>129</v>
@@ -3967,95 +4006,72 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" s="1">
-        <v>0.39652777777777781</v>
+        <v>0.28611111111111109</v>
       </c>
       <c r="D93">
-        <v>233</v>
+        <v>165.20000000000002</v>
       </c>
       <c r="F93" s="15">
-        <v>0.53472222222222221</v>
+        <v>1.0493055555555555</v>
       </c>
       <c r="G93">
-        <v>43</v>
+        <v>112.4</v>
       </c>
       <c r="I93" s="15">
-        <v>0.83888888888888891</v>
+        <v>1.5923611111111111</v>
       </c>
       <c r="J93" s="13">
-        <v>25.012</v>
+        <v>57.096000000000004</v>
       </c>
       <c r="L93" s="23">
-        <v>57.046262599999999</v>
+        <v>42.697708200000001</v>
       </c>
       <c r="M93" s="23">
-        <v>9.9215263</v>
+        <v>23.3218675</v>
       </c>
       <c r="O93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.22777777777777775</v>
-      </c>
-      <c r="D94">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="F94" s="15">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="G94">
-        <v>42.5</v>
-      </c>
-      <c r="I94" s="15">
-        <v>0.60624999999999996</v>
-      </c>
-      <c r="J94" s="13">
-        <v>22.1</v>
-      </c>
-      <c r="L94" s="23">
-        <v>55.676096800000003</v>
-      </c>
-      <c r="M94" s="23">
-        <v>12.568337100000001</v>
-      </c>
-      <c r="O94" t="s">
-        <v>128</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94"/>
+      <c r="F94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="13"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C95" s="1">
-        <v>0.25416666666666665</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="D95">
-        <v>139.70000000000002</v>
+        <v>127.89999999999999</v>
       </c>
       <c r="F95" s="15">
-        <v>0.54583333333333328</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="G95">
-        <v>43.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I95" s="15">
-        <v>0.83541666666666659</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="J95" s="13">
-        <v>23.400000000000002</v>
+        <v>22.152000000000001</v>
       </c>
       <c r="L95" s="23">
-        <v>55.704660099999998</v>
+        <v>56.149627799999998</v>
       </c>
       <c r="M95" s="23">
-        <v>13.191007300000001</v>
+        <v>10.2134046</v>
       </c>
       <c r="O95" t="s">
         <v>129</v>
@@ -4063,31 +4079,31 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C96" s="1">
-        <v>0.24166666666666664</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="D96">
-        <v>143.60000000000002</v>
+        <v>233</v>
       </c>
       <c r="F96" s="15">
-        <v>0.75</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="G96">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="I96" s="15">
-        <v>0.87013888888888891</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="J96" s="13">
-        <v>29.978000000000002</v>
+        <v>25.012</v>
       </c>
       <c r="L96" s="23">
-        <v>57.708869999999997</v>
+        <v>57.046262599999999</v>
       </c>
       <c r="M96" s="23">
-        <v>11.97456</v>
+        <v>9.9215263</v>
       </c>
       <c r="O96" t="s">
         <v>129</v>
@@ -4095,31 +4111,31 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C97" s="1">
-        <v>0.3520833333333333</v>
+        <v>0.22777777777777775</v>
       </c>
       <c r="D97">
-        <v>279</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="F97" s="15">
-        <v>0.78263888888888899</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="G97">
-        <v>43.3</v>
+        <v>42.5</v>
       </c>
       <c r="I97" s="15">
-        <v>1.3875000000000002</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="J97" s="13">
-        <v>38.870000000000005</v>
+        <v>22.1</v>
       </c>
       <c r="L97" s="23">
-        <v>59.325117200000001</v>
+        <v>55.676096800000003</v>
       </c>
       <c r="M97" s="23">
-        <v>18.0710935</v>
+        <v>12.568337100000001</v>
       </c>
       <c r="O97" t="s">
         <v>128</v>
@@ -4127,88 +4143,163 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1">
-        <v>0.31111111111111106</v>
+        <v>0.25416666666666665</v>
       </c>
       <c r="D98">
-        <v>154.60000000000002</v>
+        <v>139.70000000000002</v>
       </c>
       <c r="F98" s="15">
-        <v>0.94097222222222221</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="G98">
-        <v>43</v>
+        <v>43.7</v>
       </c>
       <c r="I98" s="15">
-        <v>1.1187500000000001</v>
+        <v>0.83541666666666659</v>
       </c>
       <c r="J98" s="13">
-        <v>36.436</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="L98" s="23">
-        <v>59.913868800000003</v>
+        <v>55.704660099999998</v>
       </c>
       <c r="M98" s="23">
-        <v>10.7522454</v>
+        <v>13.191007300000001</v>
       </c>
       <c r="O98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.24166666666666664</v>
+      </c>
+      <c r="D99">
+        <v>143.60000000000002</v>
+      </c>
+      <c r="F99" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G99">
+        <v>42.5</v>
+      </c>
+      <c r="I99" s="15">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="J99" s="13">
+        <v>29.978000000000002</v>
+      </c>
+      <c r="L99" s="23">
+        <v>57.708869999999997</v>
+      </c>
+      <c r="M99" s="23">
+        <v>11.97456</v>
+      </c>
+      <c r="O99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="D100">
+        <v>279</v>
+      </c>
+      <c r="F100" s="15">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="G100">
+        <v>43.3</v>
+      </c>
+      <c r="I100" s="15">
+        <v>1.3875000000000002</v>
+      </c>
+      <c r="J100" s="13">
+        <v>38.870000000000005</v>
+      </c>
+      <c r="L100" s="23">
+        <v>59.325117200000001</v>
+      </c>
+      <c r="M100" s="23">
+        <v>18.0710935</v>
+      </c>
+      <c r="O100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.31111111111111106</v>
+      </c>
+      <c r="D101">
+        <v>154.60000000000002</v>
+      </c>
+      <c r="F101" s="15">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="G101">
+        <v>43</v>
+      </c>
+      <c r="I101" s="15">
+        <v>1.1187500000000001</v>
+      </c>
+      <c r="J101" s="13">
+        <v>36.436</v>
+      </c>
+      <c r="L101" s="23">
+        <v>59.913868800000003</v>
+      </c>
+      <c r="M101" s="23">
+        <v>10.7522454</v>
+      </c>
+      <c r="O101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C102" s="1">
         <v>0.28402777777777777</v>
       </c>
-      <c r="D99">
+      <c r="D102">
         <v>126.6</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F102" s="15">
         <v>1.3034722222222224</v>
       </c>
-      <c r="G99">
+      <c r="G102">
         <v>43.5</v>
       </c>
-      <c r="I99" s="15"/>
-      <c r="L99" s="23">
+      <c r="I102" s="15"/>
+      <c r="L102" s="23">
         <v>63.430514000000002</v>
       </c>
-      <c r="M99" s="23">
+      <c r="M102" s="23">
         <v>10.3950528</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O102" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="D100"/>
-      <c r="F100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="D101"/>
-      <c r="I101" s="15"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="11"/>
-      <c r="D102"/>
-      <c r="I102" s="15"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="D103"/>
+      <c r="F103" s="15"/>
       <c r="I103" s="15"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
@@ -4216,18 +4307,21 @@
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="D104"/>
+      <c r="I104" s="15"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="D105"/>
+      <c r="I105" s="15"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="D106"/>
+      <c r="I106" s="15"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
     </row>
@@ -4624,16 +4718,19 @@
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="D172"/>
+      <c r="L172" s="22"/>
       <c r="M172" s="22"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="D173"/>
+      <c r="L173" s="22"/>
       <c r="M173" s="22"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="D174"/>
+      <c r="L174" s="22"/>
       <c r="M174" s="22"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -4954,14 +5051,17 @@
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
       <c r="D238"/>
+      <c r="M238" s="22"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
       <c r="D239"/>
+      <c r="M239" s="22"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
       <c r="D240"/>
+      <c r="M240" s="22"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
@@ -8611,65 +8711,77 @@
       <c r="A1152" s="11"/>
       <c r="D1152"/>
     </row>
-    <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1153" s="11"/>
       <c r="D1153"/>
     </row>
-    <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1154" s="11"/>
       <c r="D1154"/>
     </row>
-    <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1155" s="11"/>
       <c r="D1155"/>
     </row>
-    <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1156" s="11"/>
       <c r="D1156"/>
     </row>
-    <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1157" s="11"/>
       <c r="D1157"/>
     </row>
-    <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1158" s="11"/>
       <c r="D1158"/>
     </row>
-    <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1159" s="11"/>
       <c r="D1159"/>
     </row>
-    <row r="1160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1160" s="11"/>
       <c r="D1160"/>
     </row>
-    <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1161" s="11"/>
       <c r="D1161"/>
     </row>
-    <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1162" s="11"/>
       <c r="D1162"/>
     </row>
-    <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1163" s="11"/>
       <c r="D1163"/>
     </row>
-    <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1164" s="11"/>
       <c r="D1164"/>
     </row>
-    <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1165" s="11"/>
       <c r="D1165"/>
     </row>
-    <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1166" s="2"/>
-      <c r="G1166" s="2"/>
-    </row>
-    <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1167" s="2"/>
-      <c r="G1167" s="2"/>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1166" s="11"/>
+      <c r="D1166"/>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1167" s="11"/>
+      <c r="D1167"/>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1168" s="11"/>
+      <c r="D1168"/>
+    </row>
+    <row r="1169" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F1169" s="2"/>
+      <c r="G1169" s="2"/>
+    </row>
+    <row r="1170" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F1170" s="2"/>
+      <c r="G1170" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/location-data.xlsx
+++ b/data/location-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\EigenMappen\greenTravelMap\greentu-travelmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C84C80-844B-44F6-B6BF-C4FEFB5AAE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E64B8-BE2D-4D1E-89DB-9821A289C6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECCE8C5B-07D3-478B-A9F2-74E552C64914}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="5" r:id="rId1"/>
@@ -1124,9 +1124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254D566-3C65-4661-BAE0-38210166E19C}">
   <dimension ref="A1:BS1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,7 +2739,7 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="G50">
-        <v>132.5</v>
+        <v>29.6</v>
       </c>
       <c r="I50" s="15">
         <v>0.5576388888888888</v>
